--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -463,10 +463,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0789137132821822</v>
+        <v>0.07842550411241363</v>
       </c>
       <c r="C2">
-        <v>0.07868099934256596</v>
+        <v>0.07857737532631999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -474,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.84973899425027</v>
+        <v>25.85035106517594</v>
       </c>
       <c r="C3">
-        <v>25.85183186790679</v>
+        <v>25.84855247754756</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -485,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.6998082772819</v>
+        <v>151.7002690322068</v>
       </c>
       <c r="C4">
-        <v>151.6998386201667</v>
+        <v>151.7001064987981</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -496,10 +496,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1859355621718312</v>
+        <v>0.1861700271909474</v>
       </c>
       <c r="C5">
-        <v>0.18580592255242</v>
+        <v>0.1861838425959638</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -507,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.260004129438739</v>
+        <v>2.260007709475259</v>
       </c>
       <c r="C6">
-        <v>2.259996354509955</v>
+        <v>2.260014913317138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -518,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.459688471232211</v>
+        <v>3.453383257753605</v>
       </c>
       <c r="C7">
-        <v>3.45080396636782</v>
+        <v>3.452593341633722</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -529,10 +529,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.34748166839677</v>
+        <v>28.34464335168526</v>
       </c>
       <c r="C8">
-        <v>28.34470187142677</v>
+        <v>28.34602275907135</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.016378560511173</v>
+        <v>0.9688101420794846</v>
       </c>
       <c r="C9">
-        <v>0.9841998007608717</v>
+        <v>0.9942548566434352</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -551,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.053429780850328</v>
+        <v>0.9457490135755082</v>
       </c>
       <c r="C10">
-        <v>0.9630437522993498</v>
+        <v>1.001193114688219</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -562,10 +562,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.147594630881775</v>
+        <v>2.148125598797401</v>
       </c>
       <c r="C11">
-        <v>2.148155995024835</v>
+        <v>2.147445049741169</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -573,10 +573,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9139800805208471</v>
+        <v>0.9138891466183333</v>
       </c>
       <c r="C12">
-        <v>0.9137761846411234</v>
+        <v>0.9137399636249539</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -584,10 +584,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07806940196443339</v>
+        <v>0.07758314689643474</v>
       </c>
       <c r="C13">
-        <v>0.07780869144750975</v>
+        <v>0.07822793580709947</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -617,10 +617,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5593591861331478</v>
+        <v>0.5611242618245873</v>
       </c>
       <c r="C16">
-        <v>0.5554508378094879</v>
+        <v>0.5576612645469076</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -628,10 +628,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1775448393396856</v>
+        <v>0.1806608123700188</v>
       </c>
       <c r="C17">
-        <v>0.1777172363942013</v>
+        <v>0.1803985511818771</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -639,10 +639,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1249704110309329</v>
+        <v>0.1270626374706491</v>
       </c>
       <c r="C18">
-        <v>0.1273668682629146</v>
+        <v>0.1269700044132066</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -650,10 +650,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.109246515736505</v>
+        <v>5.108799270348942</v>
       </c>
       <c r="C19">
-        <v>5.107562565383643</v>
+        <v>5.109979331599349</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.001087139746332026</v>
+        <v>0.0001810799230792221</v>
       </c>
       <c r="C20">
-        <v>-0.0002072084976323606</v>
+        <v>0.00122143856021752</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -672,10 +672,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4699693719456701</v>
+        <v>0.4683879945133046</v>
       </c>
       <c r="C21">
-        <v>0.4672571729623264</v>
+        <v>0.4699436266384943</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -683,10 +683,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3524248179841</v>
+        <v>28.35029177129032</v>
       </c>
       <c r="C22">
-        <v>28.35083228300352</v>
+        <v>28.35020138343259</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -694,10 +694,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.29980754823187</v>
+        <v>29.30002606027189</v>
       </c>
       <c r="C23">
-        <v>29.30019617255651</v>
+        <v>29.29969264114588</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -705,10 +705,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08189342097516634</v>
+        <v>0.08195326951965419</v>
       </c>
       <c r="C24">
-        <v>0.08173283511072502</v>
+        <v>0.08187307750006102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -716,10 +716,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.455241887514029</v>
+        <v>0.4545261387909518</v>
       </c>
       <c r="C25">
-        <v>0.4544256066037909</v>
+        <v>0.4545223257423662</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -727,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.706341867730033</v>
+        <v>1.707130551153438</v>
       </c>
       <c r="C26">
-        <v>1.706039511915585</v>
+        <v>1.70751982552766</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -738,10 +738,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.595228705949467</v>
+        <v>3.596326654411414</v>
       </c>
       <c r="C27">
-        <v>3.596693457007799</v>
+        <v>3.593880411960965</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -749,10 +749,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.0658475568507</v>
+        <v>12.06509528600064</v>
       </c>
       <c r="C28">
-        <v>12.0663525364599</v>
+        <v>12.0670489237679</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -760,10 +760,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.07129975607472</v>
+        <v>33.02626999186418</v>
       </c>
       <c r="C29">
-        <v>33.36857227250622</v>
+        <v>34.04164878115266</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -771,10 +771,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73818.60722851334</v>
+        <v>73848.18772607749</v>
       </c>
       <c r="C30">
-        <v>73823.86565015042</v>
+        <v>73869.78685537845</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -782,10 +782,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.094279056683153</v>
+        <v>6.094545837876081</v>
       </c>
       <c r="C31">
-        <v>6.094083724939274</v>
+        <v>6.094775018940848</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -793,10 +793,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88.47128878314591</v>
+        <v>87.92925601430773</v>
       </c>
       <c r="C32">
-        <v>87.91445493763064</v>
+        <v>87.79056250758926</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -804,10 +804,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-9.947013548357424E-05</v>
+        <v>-0.0002544782442354753</v>
       </c>
       <c r="C33">
-        <v>9.355540872633562E-05</v>
+        <v>-0.0007370429121234176</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -463,10 +463,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07842550411241363</v>
+        <v>0.0785058923029907</v>
       </c>
       <c r="C2">
-        <v>0.07857737532631999</v>
+        <v>0.07879932249964856</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -474,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.85035106517594</v>
+        <v>25.8507665079589</v>
       </c>
       <c r="C3">
-        <v>25.84855247754756</v>
+        <v>25.84962391117613</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -485,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7002690322068</v>
+        <v>151.7000171572285</v>
       </c>
       <c r="C4">
-        <v>151.7001064987981</v>
+        <v>151.6998888889504</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -496,10 +496,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1861700271909474</v>
+        <v>0.1860813878608437</v>
       </c>
       <c r="C5">
-        <v>0.1861838425959638</v>
+        <v>0.1863763212861354</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -507,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.260007709475259</v>
+        <v>2.2599826594633</v>
       </c>
       <c r="C6">
-        <v>2.260014913317138</v>
+        <v>2.260010699463755</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -518,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.453383257753605</v>
+        <v>3.446411539251389</v>
       </c>
       <c r="C7">
-        <v>3.452593341633722</v>
+        <v>3.460343982477563</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -529,10 +529,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.34464335168526</v>
+        <v>28.34446575857872</v>
       </c>
       <c r="C8">
-        <v>28.34602275907135</v>
+        <v>28.35036153016067</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9688101420794846</v>
+        <v>0.9985560960564827</v>
       </c>
       <c r="C9">
-        <v>0.9942548566434352</v>
+        <v>1.001990562274371</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -551,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9457490135755082</v>
+        <v>1.037626909440452</v>
       </c>
       <c r="C10">
-        <v>1.001193114688219</v>
+        <v>1.02993931306435</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -562,10 +562,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.148125598797401</v>
+        <v>2.147901651422697</v>
       </c>
       <c r="C11">
-        <v>2.147445049741169</v>
+        <v>2.147528876537519</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -573,10 +573,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9138891466183333</v>
+        <v>0.9142274572395582</v>
       </c>
       <c r="C12">
-        <v>0.9137399636249539</v>
+        <v>0.9137685644164281</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -584,10 +584,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07758314689643474</v>
+        <v>0.07819707116398543</v>
       </c>
       <c r="C13">
-        <v>0.07822793580709947</v>
+        <v>0.07852662361418286</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -617,10 +617,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5611242618245873</v>
+        <v>0.5611650814235752</v>
       </c>
       <c r="C16">
-        <v>0.5576612645469076</v>
+        <v>0.5596971337829894</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -628,10 +628,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1806608123700188</v>
+        <v>0.1760028555701231</v>
       </c>
       <c r="C17">
-        <v>0.1803985511818771</v>
+        <v>0.1782905614990401</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -639,10 +639,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1270626374706491</v>
+        <v>0.1238448749993802</v>
       </c>
       <c r="C18">
-        <v>0.1269700044132066</v>
+        <v>0.1296115057471527</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -650,10 +650,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.108799270348942</v>
+        <v>5.106580426202616</v>
       </c>
       <c r="C19">
-        <v>5.109979331599349</v>
+        <v>5.109398435461945</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0001810799230792221</v>
+        <v>-0.001518639068848169</v>
       </c>
       <c r="C20">
-        <v>0.00122143856021752</v>
+        <v>0.000425050072496377</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -672,10 +672,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4683879945133046</v>
+        <v>0.466748659620552</v>
       </c>
       <c r="C21">
-        <v>0.4699436266384943</v>
+        <v>0.4728653484395555</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -683,10 +683,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.35029177129032</v>
+        <v>28.35098618505414</v>
       </c>
       <c r="C22">
-        <v>28.35020138343259</v>
+        <v>28.35036122244466</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -694,10 +694,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.30002606027189</v>
+        <v>29.29968616819997</v>
       </c>
       <c r="C23">
-        <v>29.29969264114588</v>
+        <v>29.29961077147871</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -705,10 +705,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08195326951965419</v>
+        <v>0.08170680757140904</v>
       </c>
       <c r="C24">
-        <v>0.08187307750006102</v>
+        <v>0.08153342587004436</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -716,10 +716,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4545261387909518</v>
+        <v>0.4545569202934908</v>
       </c>
       <c r="C25">
-        <v>0.4545223257423662</v>
+        <v>0.4549170933143945</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -727,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.707130551153438</v>
+        <v>1.706368158243851</v>
       </c>
       <c r="C26">
-        <v>1.70751982552766</v>
+        <v>1.707962202343462</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -738,10 +738,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.596326654411414</v>
+        <v>3.593914212738785</v>
       </c>
       <c r="C27">
-        <v>3.593880411960965</v>
+        <v>3.593589538502072</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -749,10 +749,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.06509528600064</v>
+        <v>12.06594184675126</v>
       </c>
       <c r="C28">
-        <v>12.0670489237679</v>
+        <v>12.06656282398755</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -760,10 +760,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.02626999186418</v>
+        <v>33.53453594755665</v>
       </c>
       <c r="C29">
-        <v>34.04164878115266</v>
+        <v>34.14884386934217</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -771,10 +771,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73848.18772607749</v>
+        <v>73731.47787848058</v>
       </c>
       <c r="C30">
-        <v>73869.78685537845</v>
+        <v>73834.8327812543</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -782,10 +782,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.094545837876081</v>
+        <v>6.091030113757384</v>
       </c>
       <c r="C31">
-        <v>6.094775018940848</v>
+        <v>6.093138382163727</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -793,10 +793,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87.92925601430773</v>
+        <v>87.8510884073508</v>
       </c>
       <c r="C32">
-        <v>87.79056250758926</v>
+        <v>88.07489705110397</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -804,10 +804,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0002544782442354753</v>
+        <v>-0.004194292748618777</v>
       </c>
       <c r="C33">
-        <v>-0.0007370429121234176</v>
+        <v>0.00122776659692803</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -441,373 +441,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0785058923029907</v>
-      </c>
-      <c r="C2">
-        <v>0.07879932249964856</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.07827832446500971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.8507665079589</v>
-      </c>
-      <c r="C3">
-        <v>25.84962391117613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>25.85178379958638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7000171572285</v>
-      </c>
-      <c r="C4">
-        <v>151.6998888889504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>151.6999506794686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1860813878608437</v>
-      </c>
-      <c r="C5">
-        <v>0.1863763212861354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.1857483474017147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.2599826594633</v>
-      </c>
-      <c r="C6">
-        <v>2.260010699463755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2.259983897591462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.446411539251389</v>
-      </c>
-      <c r="C7">
-        <v>3.460343982477563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3.45764265479874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.34446575857872</v>
-      </c>
-      <c r="C8">
-        <v>28.35036153016067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>28.34305588244797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9985560960564827</v>
-      </c>
-      <c r="C9">
-        <v>1.001990562274371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.996206034574341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.037626909440452</v>
-      </c>
-      <c r="C10">
-        <v>1.02993931306435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.01519036569497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.147901651422697</v>
-      </c>
-      <c r="C11">
-        <v>2.147528876537519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>2.148267168927628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9142274572395582</v>
-      </c>
-      <c r="C12">
-        <v>0.9137685644164281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.9142165883506808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07819707116398543</v>
-      </c>
-      <c r="C13">
-        <v>0.07852662361418286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07829918587575628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5611650814235752</v>
-      </c>
-      <c r="C16">
-        <v>0.5596971337829894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.5570218339441547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1760028555701231</v>
-      </c>
-      <c r="C17">
-        <v>0.1782905614990401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.1789698279133011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1238448749993802</v>
-      </c>
-      <c r="C18">
-        <v>0.1296115057471527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.1251479657877091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.106580426202616</v>
-      </c>
-      <c r="C19">
-        <v>5.109398435461945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>5.109587219701581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.001518639068848169</v>
-      </c>
-      <c r="C20">
-        <v>0.000425050072496377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0117340989070336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.466748659620552</v>
-      </c>
-      <c r="C21">
-        <v>0.4728653484395555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.4685710355772409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.35098618505414</v>
-      </c>
-      <c r="C22">
-        <v>28.35036122244466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>28.35066765640477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.29968616819997</v>
-      </c>
-      <c r="C23">
-        <v>29.29961077147871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>29.29956887469033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08170680757140904</v>
-      </c>
-      <c r="C24">
-        <v>0.08153342587004436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.08161019259709537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4545569202934908</v>
-      </c>
-      <c r="C25">
-        <v>0.4549170933143945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.4545683228568137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.706368158243851</v>
-      </c>
-      <c r="C26">
-        <v>1.707962202343462</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>1.706235270895844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.593914212738785</v>
-      </c>
-      <c r="C27">
-        <v>3.593589538502072</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>3.596233485751527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.06594184675126</v>
-      </c>
-      <c r="C28">
-        <v>12.06656282398755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>12.06697641810684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.53453594755665</v>
-      </c>
-      <c r="C29">
-        <v>34.14884386934217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>33.28598225363204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73731.47787848058</v>
-      </c>
-      <c r="C30">
-        <v>73834.8327812543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>73817.19939611075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.091030113757384</v>
-      </c>
-      <c r="C31">
-        <v>6.093138382163727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>6.095572920455203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87.8510884073508</v>
-      </c>
-      <c r="C32">
-        <v>88.07489705110397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>88.11583049130799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.004194292748618777</v>
-      </c>
-      <c r="C33">
-        <v>0.00122776659692803</v>
+        <v>50.001183795832</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -441,274 +441,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07827832446500971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.07892556397613418</v>
+      </c>
+      <c r="C2">
+        <v>0.07836722610377736</v>
+      </c>
+      <c r="D2">
+        <v>0.07856464723039101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.85178379958638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>25.85009307234281</v>
+      </c>
+      <c r="C3">
+        <v>25.85098121292009</v>
+      </c>
+      <c r="D3">
+        <v>25.8493519198003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.6999506794686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>151.7000015695347</v>
+      </c>
+      <c r="C4">
+        <v>151.7000551302094</v>
+      </c>
+      <c r="D4">
+        <v>151.7003551778911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1857483474017147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.1858747066470547</v>
+      </c>
+      <c r="C5">
+        <v>0.1859498500435576</v>
+      </c>
+      <c r="D5">
+        <v>0.1855677264497172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.259983897591462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>2.2599819869235</v>
+      </c>
+      <c r="C6">
+        <v>2.260026201840482</v>
+      </c>
+      <c r="D6">
+        <v>2.259969017753531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.45764265479874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>3.448664342413849</v>
+      </c>
+      <c r="C7">
+        <v>3.451228356239962</v>
+      </c>
+      <c r="D7">
+        <v>3.460172272146812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.34305588244797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>28.35444615470409</v>
+      </c>
+      <c r="C8">
+        <v>28.3472244657321</v>
+      </c>
+      <c r="D8">
+        <v>28.34179273465959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.996206034574341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.9809544038948274</v>
+      </c>
+      <c r="C9">
+        <v>0.9418018201573586</v>
+      </c>
+      <c r="D9">
+        <v>1.009971180615663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.01519036569497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.9147130552181042</v>
+      </c>
+      <c r="C10">
+        <v>0.9777397386185493</v>
+      </c>
+      <c r="D10">
+        <v>1.071662721364934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.148267168927628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>2.148226749979188</v>
+      </c>
+      <c r="C11">
+        <v>2.147973894012321</v>
+      </c>
+      <c r="D11">
+        <v>2.147870825163501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9142165883506808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.9139601204819933</v>
+      </c>
+      <c r="C12">
+        <v>0.9137202621613828</v>
+      </c>
+      <c r="D12">
+        <v>0.9143604579848978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07829918587575628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.07889041159277789</v>
+      </c>
+      <c r="C13">
+        <v>0.07839236368820544</v>
+      </c>
+      <c r="D13">
+        <v>0.07879452884249379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5570218339441547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.5599896985549145</v>
+      </c>
+      <c r="C16">
+        <v>0.559121349886993</v>
+      </c>
+      <c r="D16">
+        <v>0.5596781371687792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1789698279133011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.1770750720897765</v>
+      </c>
+      <c r="C17">
+        <v>0.1753398856156776</v>
+      </c>
+      <c r="D17">
+        <v>0.178232478334455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1251479657877091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.1243137419153288</v>
+      </c>
+      <c r="C18">
+        <v>0.1257139650188449</v>
+      </c>
+      <c r="D18">
+        <v>0.1276827446182079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.109587219701581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>5.110297831251181</v>
+      </c>
+      <c r="C19">
+        <v>5.108308844375682</v>
+      </c>
+      <c r="D19">
+        <v>5.106868168712486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0117340989070336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.01594544955350032</v>
+      </c>
+      <c r="C20">
+        <v>0.0398348259102716</v>
+      </c>
+      <c r="D20">
+        <v>-0.08488493377217363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4685710355772409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.4708624363974264</v>
+      </c>
+      <c r="C21">
+        <v>0.469600850971734</v>
+      </c>
+      <c r="D21">
+        <v>0.4704343602016806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.35066765640477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>28.35077543039856</v>
+      </c>
+      <c r="C22">
+        <v>28.3497100990154</v>
+      </c>
+      <c r="D22">
+        <v>28.35039684510227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.29956887469033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>29.29969045475221</v>
+      </c>
+      <c r="C23">
+        <v>29.29990436888539</v>
+      </c>
+      <c r="D23">
+        <v>29.29973345775757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08161019259709537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.08184557826086768</v>
+      </c>
+      <c r="C24">
+        <v>0.0817126793293748</v>
+      </c>
+      <c r="D24">
+        <v>0.08167684592396279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4545683228568137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.4548298497184713</v>
+      </c>
+      <c r="C25">
+        <v>0.4542355595788552</v>
+      </c>
+      <c r="D25">
+        <v>0.4545483279942062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.706235270895844</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1.707525289031405</v>
+      </c>
+      <c r="C26">
+        <v>1.703926091782149</v>
+      </c>
+      <c r="D26">
+        <v>1.707413183224155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.596233485751527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>3.593634250817431</v>
+      </c>
+      <c r="C27">
+        <v>3.593350263676002</v>
+      </c>
+      <c r="D27">
+        <v>3.59398495486528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.06697641810684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>12.06910772256207</v>
+      </c>
+      <c r="C28">
+        <v>12.06559038313814</v>
+      </c>
+      <c r="D28">
+        <v>12.06719732902544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.28598225363204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>33.73903338827643</v>
+      </c>
+      <c r="C29">
+        <v>33.89221422296245</v>
+      </c>
+      <c r="D29">
+        <v>33.33456055618378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73817.19939611075</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>73879.09633324869</v>
+      </c>
+      <c r="C30">
+        <v>73753.39402856784</v>
+      </c>
+      <c r="D30">
+        <v>73809.00155924085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.095572920455203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>6.091351605203742</v>
+      </c>
+      <c r="C31">
+        <v>6.096382774614865</v>
+      </c>
+      <c r="D31">
+        <v>6.094708400649187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88.11583049130799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>88.01061527895956</v>
+      </c>
+      <c r="C32">
+        <v>88.10504085414524</v>
+      </c>
+      <c r="D32">
+        <v>88.28279517183412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>50.001183795832</v>
+        <v>50.00009481624021</v>
+      </c>
+      <c r="C33">
+        <v>49.99807367100615</v>
+      </c>
+      <c r="D33">
+        <v>50.00069873152486</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -441,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:26">
       <c r="A1">
         <v>0</v>
       </c>
@@ -460,176 +460,1034 @@
       <c r="D1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07892556397613418</v>
+        <v>0.07832162829677235</v>
       </c>
       <c r="C2">
-        <v>0.07836722610377736</v>
+        <v>0.0788737108479699</v>
       </c>
       <c r="D2">
-        <v>0.07856464723039101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07823723005038601</v>
+      </c>
+      <c r="E2">
+        <v>0.07833279307388015</v>
+      </c>
+      <c r="F2">
+        <v>0.07860610665542338</v>
+      </c>
+      <c r="G2">
+        <v>0.07840706919733455</v>
+      </c>
+      <c r="H2">
+        <v>0.07853499267335605</v>
+      </c>
+      <c r="I2">
+        <v>0.0783761849095415</v>
+      </c>
+      <c r="J2">
+        <v>0.07870084085603601</v>
+      </c>
+      <c r="K2">
+        <v>0.07877741837431046</v>
+      </c>
+      <c r="L2">
+        <v>0.07806002037496172</v>
+      </c>
+      <c r="M2">
+        <v>0.0780422747593687</v>
+      </c>
+      <c r="N2">
+        <v>0.07839359279174712</v>
+      </c>
+      <c r="O2">
+        <v>0.0784520529995507</v>
+      </c>
+      <c r="P2">
+        <v>0.07886645357137897</v>
+      </c>
+      <c r="Q2">
+        <v>0.07887412789170405</v>
+      </c>
+      <c r="R2">
+        <v>0.07821351426918202</v>
+      </c>
+      <c r="S2">
+        <v>0.07849562240311155</v>
+      </c>
+      <c r="T2">
+        <v>0.07780668052341186</v>
+      </c>
+      <c r="U2">
+        <v>0.07858848644840764</v>
+      </c>
+      <c r="V2">
+        <v>0.07846763622585669</v>
+      </c>
+      <c r="W2">
+        <v>0.07864211053359174</v>
+      </c>
+      <c r="X2">
+        <v>0.07808099314854582</v>
+      </c>
+      <c r="Y2">
+        <v>0.07800852538987905</v>
+      </c>
+      <c r="Z2">
+        <v>0.07844920033408768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.85009307234281</v>
+        <v>25.85120477147208</v>
       </c>
       <c r="C3">
-        <v>25.85098121292009</v>
+        <v>25.8496930424577</v>
       </c>
       <c r="D3">
-        <v>25.8493519198003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>25.84880588576592</v>
+      </c>
+      <c r="E3">
+        <v>25.84951493760805</v>
+      </c>
+      <c r="F3">
+        <v>25.84988861199172</v>
+      </c>
+      <c r="G3">
+        <v>25.85005464105126</v>
+      </c>
+      <c r="H3">
+        <v>25.84944441766352</v>
+      </c>
+      <c r="I3">
+        <v>25.8514280943336</v>
+      </c>
+      <c r="J3">
+        <v>25.8509693516906</v>
+      </c>
+      <c r="K3">
+        <v>25.8498546684025</v>
+      </c>
+      <c r="L3">
+        <v>25.85078118924901</v>
+      </c>
+      <c r="M3">
+        <v>25.84953351464414</v>
+      </c>
+      <c r="N3">
+        <v>25.84958643523956</v>
+      </c>
+      <c r="O3">
+        <v>25.84978965796411</v>
+      </c>
+      <c r="P3">
+        <v>25.8505749752987</v>
+      </c>
+      <c r="Q3">
+        <v>25.84848102973086</v>
+      </c>
+      <c r="R3">
+        <v>25.85012924786095</v>
+      </c>
+      <c r="S3">
+        <v>25.84949563660329</v>
+      </c>
+      <c r="T3">
+        <v>25.84919285133424</v>
+      </c>
+      <c r="U3">
+        <v>25.85054107442985</v>
+      </c>
+      <c r="V3">
+        <v>25.85012720971004</v>
+      </c>
+      <c r="W3">
+        <v>25.84884397634801</v>
+      </c>
+      <c r="X3">
+        <v>25.85008216449496</v>
+      </c>
+      <c r="Y3">
+        <v>25.85024949834919</v>
+      </c>
+      <c r="Z3">
+        <v>25.85017023734702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7000015695347</v>
+        <v>151.6997540577418</v>
       </c>
       <c r="C4">
-        <v>151.7000551302094</v>
+        <v>151.7003247986856</v>
       </c>
       <c r="D4">
-        <v>151.7003551778911</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>151.7000848299246</v>
+      </c>
+      <c r="E4">
+        <v>151.699575023762</v>
+      </c>
+      <c r="F4">
+        <v>151.7001462934177</v>
+      </c>
+      <c r="G4">
+        <v>151.7005253812575</v>
+      </c>
+      <c r="H4">
+        <v>151.699973937974</v>
+      </c>
+      <c r="I4">
+        <v>151.7000426453756</v>
+      </c>
+      <c r="J4">
+        <v>151.6998192345916</v>
+      </c>
+      <c r="K4">
+        <v>151.7002361649017</v>
+      </c>
+      <c r="L4">
+        <v>151.6999832217479</v>
+      </c>
+      <c r="M4">
+        <v>151.699884794628</v>
+      </c>
+      <c r="N4">
+        <v>151.7001787311851</v>
+      </c>
+      <c r="O4">
+        <v>151.6999826107473</v>
+      </c>
+      <c r="P4">
+        <v>151.6998299279551</v>
+      </c>
+      <c r="Q4">
+        <v>151.6997413830314</v>
+      </c>
+      <c r="R4">
+        <v>151.6998772653442</v>
+      </c>
+      <c r="S4">
+        <v>151.6998062891557</v>
+      </c>
+      <c r="T4">
+        <v>151.6999110416233</v>
+      </c>
+      <c r="U4">
+        <v>151.6998969150293</v>
+      </c>
+      <c r="V4">
+        <v>151.7000301451962</v>
+      </c>
+      <c r="W4">
+        <v>151.7000398863745</v>
+      </c>
+      <c r="X4">
+        <v>151.6998728501738</v>
+      </c>
+      <c r="Y4">
+        <v>151.7000371745316</v>
+      </c>
+      <c r="Z4">
+        <v>151.7003766387318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1858747066470547</v>
+        <v>0.1860945308909942</v>
       </c>
       <c r="C5">
-        <v>0.1859498500435576</v>
+        <v>0.1863271586716393</v>
       </c>
       <c r="D5">
-        <v>0.1855677264497172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.1860503080099181</v>
+      </c>
+      <c r="E5">
+        <v>0.1860527381608224</v>
+      </c>
+      <c r="F5">
+        <v>0.1862722158044111</v>
+      </c>
+      <c r="G5">
+        <v>0.1861097842895955</v>
+      </c>
+      <c r="H5">
+        <v>0.1858881038288294</v>
+      </c>
+      <c r="I5">
+        <v>0.1860487270885079</v>
+      </c>
+      <c r="J5">
+        <v>0.1863303652607414</v>
+      </c>
+      <c r="K5">
+        <v>0.1862849611533012</v>
+      </c>
+      <c r="L5">
+        <v>0.1859749671024814</v>
+      </c>
+      <c r="M5">
+        <v>0.1858899255960388</v>
+      </c>
+      <c r="N5">
+        <v>0.1859556054581196</v>
+      </c>
+      <c r="O5">
+        <v>0.18617452161621</v>
+      </c>
+      <c r="P5">
+        <v>0.1859556264896561</v>
+      </c>
+      <c r="Q5">
+        <v>0.1861800154390685</v>
+      </c>
+      <c r="R5">
+        <v>0.1856384229815911</v>
+      </c>
+      <c r="S5">
+        <v>0.1862388164724091</v>
+      </c>
+      <c r="T5">
+        <v>0.1858204297267227</v>
+      </c>
+      <c r="U5">
+        <v>0.1860374209802201</v>
+      </c>
+      <c r="V5">
+        <v>0.1862152718756055</v>
+      </c>
+      <c r="W5">
+        <v>0.1859632485838147</v>
+      </c>
+      <c r="X5">
+        <v>0.1860809015777635</v>
+      </c>
+      <c r="Y5">
+        <v>0.1860970982711941</v>
+      </c>
+      <c r="Z5">
+        <v>0.1859707005162763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.2599819869235</v>
+        <v>2.25999494458147</v>
       </c>
       <c r="C6">
-        <v>2.260026201840482</v>
+        <v>2.260016276580154</v>
       </c>
       <c r="D6">
-        <v>2.259969017753531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.260034150010872</v>
+      </c>
+      <c r="E6">
+        <v>2.259963006936887</v>
+      </c>
+      <c r="F6">
+        <v>2.260018235129179</v>
+      </c>
+      <c r="G6">
+        <v>2.259994823120724</v>
+      </c>
+      <c r="H6">
+        <v>2.259975413576428</v>
+      </c>
+      <c r="I6">
+        <v>2.260004872467714</v>
+      </c>
+      <c r="J6">
+        <v>2.260017230743007</v>
+      </c>
+      <c r="K6">
+        <v>2.260015070103415</v>
+      </c>
+      <c r="L6">
+        <v>2.259999115567124</v>
+      </c>
+      <c r="M6">
+        <v>2.259995885238933</v>
+      </c>
+      <c r="N6">
+        <v>2.260023512585048</v>
+      </c>
+      <c r="O6">
+        <v>2.260011928590883</v>
+      </c>
+      <c r="P6">
+        <v>2.260001902322916</v>
+      </c>
+      <c r="Q6">
+        <v>2.259978471260816</v>
+      </c>
+      <c r="R6">
+        <v>2.260020743344869</v>
+      </c>
+      <c r="S6">
+        <v>2.260005183921789</v>
+      </c>
+      <c r="T6">
+        <v>2.259980931832726</v>
+      </c>
+      <c r="U6">
+        <v>2.260026266245322</v>
+      </c>
+      <c r="V6">
+        <v>2.25997520929354</v>
+      </c>
+      <c r="W6">
+        <v>2.260014865071495</v>
+      </c>
+      <c r="X6">
+        <v>2.259987697851603</v>
+      </c>
+      <c r="Y6">
+        <v>2.25998795502471</v>
+      </c>
+      <c r="Z6">
+        <v>2.259972395077277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.448664342413849</v>
+        <v>3.452169440935606</v>
       </c>
       <c r="C7">
-        <v>3.451228356239962</v>
+        <v>3.455593871251608</v>
       </c>
       <c r="D7">
-        <v>3.460172272146812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.454920802725434</v>
+      </c>
+      <c r="E7">
+        <v>3.457259894219246</v>
+      </c>
+      <c r="F7">
+        <v>3.458100818493264</v>
+      </c>
+      <c r="G7">
+        <v>3.459203668173513</v>
+      </c>
+      <c r="H7">
+        <v>3.460887592138578</v>
+      </c>
+      <c r="I7">
+        <v>3.457158701608661</v>
+      </c>
+      <c r="J7">
+        <v>3.460117061899203</v>
+      </c>
+      <c r="K7">
+        <v>3.45771016117941</v>
+      </c>
+      <c r="L7">
+        <v>3.456912592737369</v>
+      </c>
+      <c r="M7">
+        <v>3.451808844952532</v>
+      </c>
+      <c r="N7">
+        <v>3.458936575270684</v>
+      </c>
+      <c r="O7">
+        <v>3.452158422692928</v>
+      </c>
+      <c r="P7">
+        <v>3.44911664163022</v>
+      </c>
+      <c r="Q7">
+        <v>3.455614051359912</v>
+      </c>
+      <c r="R7">
+        <v>3.454563158435235</v>
+      </c>
+      <c r="S7">
+        <v>3.455664890874233</v>
+      </c>
+      <c r="T7">
+        <v>3.447675114555869</v>
+      </c>
+      <c r="U7">
+        <v>3.462094527406079</v>
+      </c>
+      <c r="V7">
+        <v>3.44745699757839</v>
+      </c>
+      <c r="W7">
+        <v>3.453232285020421</v>
+      </c>
+      <c r="X7">
+        <v>3.459481700224515</v>
+      </c>
+      <c r="Y7">
+        <v>3.457763581240776</v>
+      </c>
+      <c r="Z7">
+        <v>3.448119812036448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.35444615470409</v>
+        <v>28.34815815374888</v>
       </c>
       <c r="C8">
-        <v>28.3472244657321</v>
+        <v>28.35023303160005</v>
       </c>
       <c r="D8">
-        <v>28.34179273465959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>28.34448491717</v>
+      </c>
+      <c r="E8">
+        <v>28.35175424722252</v>
+      </c>
+      <c r="F8">
+        <v>28.3541232897925</v>
+      </c>
+      <c r="G8">
+        <v>28.35340704255513</v>
+      </c>
+      <c r="H8">
+        <v>28.34533969646148</v>
+      </c>
+      <c r="I8">
+        <v>28.34693275078045</v>
+      </c>
+      <c r="J8">
+        <v>28.34377209662708</v>
+      </c>
+      <c r="K8">
+        <v>28.35179924008732</v>
+      </c>
+      <c r="L8">
+        <v>28.34996643853064</v>
+      </c>
+      <c r="M8">
+        <v>28.35531493116932</v>
+      </c>
+      <c r="N8">
+        <v>28.35472542104734</v>
+      </c>
+      <c r="O8">
+        <v>28.34697101946122</v>
+      </c>
+      <c r="P8">
+        <v>28.35248218086128</v>
+      </c>
+      <c r="Q8">
+        <v>28.34306895846378</v>
+      </c>
+      <c r="R8">
+        <v>28.34906524620838</v>
+      </c>
+      <c r="S8">
+        <v>28.35460046410394</v>
+      </c>
+      <c r="T8">
+        <v>28.34906363148732</v>
+      </c>
+      <c r="U8">
+        <v>28.34393993038963</v>
+      </c>
+      <c r="V8">
+        <v>28.33883334446532</v>
+      </c>
+      <c r="W8">
+        <v>28.35164818216295</v>
+      </c>
+      <c r="X8">
+        <v>28.34484543716783</v>
+      </c>
+      <c r="Y8">
+        <v>28.35135556955711</v>
+      </c>
+      <c r="Z8">
+        <v>28.35306268685732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9809544038948274</v>
+        <v>0.8927836296703865</v>
       </c>
       <c r="C9">
-        <v>0.9418018201573586</v>
+        <v>1.039156417986828</v>
       </c>
       <c r="D9">
-        <v>1.009971180615663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.9615137756938099</v>
+      </c>
+      <c r="E9">
+        <v>0.9058411372280166</v>
+      </c>
+      <c r="F9">
+        <v>1.029614500655526</v>
+      </c>
+      <c r="G9">
+        <v>0.9987365461499175</v>
+      </c>
+      <c r="H9">
+        <v>1.065978081836594</v>
+      </c>
+      <c r="I9">
+        <v>1.035070906666226</v>
+      </c>
+      <c r="J9">
+        <v>0.9985113199106468</v>
+      </c>
+      <c r="K9">
+        <v>0.9631242060256261</v>
+      </c>
+      <c r="L9">
+        <v>1.012789716052881</v>
+      </c>
+      <c r="M9">
+        <v>0.9936793496308189</v>
+      </c>
+      <c r="N9">
+        <v>1.021002740594625</v>
+      </c>
+      <c r="O9">
+        <v>1.052821839208087</v>
+      </c>
+      <c r="P9">
+        <v>1.080000364594521</v>
+      </c>
+      <c r="Q9">
+        <v>0.9188494189933321</v>
+      </c>
+      <c r="R9">
+        <v>1.031089001587384</v>
+      </c>
+      <c r="S9">
+        <v>1.077739948519176</v>
+      </c>
+      <c r="T9">
+        <v>1.001772826987192</v>
+      </c>
+      <c r="U9">
+        <v>0.9330808996174362</v>
+      </c>
+      <c r="V9">
+        <v>0.9831283933724656</v>
+      </c>
+      <c r="W9">
+        <v>1.080398940455464</v>
+      </c>
+      <c r="X9">
+        <v>1.044619917928696</v>
+      </c>
+      <c r="Y9">
+        <v>1.006836723536461</v>
+      </c>
+      <c r="Z9">
+        <v>1.021667920481842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9147130552181042</v>
+        <v>1.014657333171194</v>
       </c>
       <c r="C10">
-        <v>0.9777397386185493</v>
+        <v>0.9951075534948286</v>
       </c>
       <c r="D10">
-        <v>1.071662721364934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.9787371210572411</v>
+      </c>
+      <c r="E10">
+        <v>1.079993124904351</v>
+      </c>
+      <c r="F10">
+        <v>0.9691972326391302</v>
+      </c>
+      <c r="G10">
+        <v>1.000447385414496</v>
+      </c>
+      <c r="H10">
+        <v>1.030177572863563</v>
+      </c>
+      <c r="I10">
+        <v>0.8803364437038854</v>
+      </c>
+      <c r="J10">
+        <v>1.017548644958228</v>
+      </c>
+      <c r="K10">
+        <v>1.051268116490178</v>
+      </c>
+      <c r="L10">
+        <v>1.002883379614687</v>
+      </c>
+      <c r="M10">
+        <v>0.938709195187307</v>
+      </c>
+      <c r="N10">
+        <v>0.9620654355298539</v>
+      </c>
+      <c r="O10">
+        <v>0.9418024662927924</v>
+      </c>
+      <c r="P10">
+        <v>0.9535898121162989</v>
+      </c>
+      <c r="Q10">
+        <v>0.9384110490583238</v>
+      </c>
+      <c r="R10">
+        <v>1.068178207884809</v>
+      </c>
+      <c r="S10">
+        <v>1.014486119812414</v>
+      </c>
+      <c r="T10">
+        <v>0.9647027151251735</v>
+      </c>
+      <c r="U10">
+        <v>1.016324292213421</v>
+      </c>
+      <c r="V10">
+        <v>1.022173435258614</v>
+      </c>
+      <c r="W10">
+        <v>0.9853905360177591</v>
+      </c>
+      <c r="X10">
+        <v>0.9932038977255461</v>
+      </c>
+      <c r="Y10">
+        <v>1.037454308334582</v>
+      </c>
+      <c r="Z10">
+        <v>1.032612905793279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.148226749979188</v>
+        <v>2.147918744055429</v>
       </c>
       <c r="C11">
-        <v>2.147973894012321</v>
+        <v>2.148646368045639</v>
       </c>
       <c r="D11">
-        <v>2.147870825163501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2.147881772978538</v>
+      </c>
+      <c r="E11">
+        <v>2.148345310336385</v>
+      </c>
+      <c r="F11">
+        <v>2.148264891620296</v>
+      </c>
+      <c r="G11">
+        <v>2.147919851124758</v>
+      </c>
+      <c r="H11">
+        <v>2.148176833495655</v>
+      </c>
+      <c r="I11">
+        <v>2.147943815924406</v>
+      </c>
+      <c r="J11">
+        <v>2.148732317426845</v>
+      </c>
+      <c r="K11">
+        <v>2.148182880502993</v>
+      </c>
+      <c r="L11">
+        <v>2.14842436167419</v>
+      </c>
+      <c r="M11">
+        <v>2.148028934181725</v>
+      </c>
+      <c r="N11">
+        <v>2.148024634093518</v>
+      </c>
+      <c r="O11">
+        <v>2.148074037189258</v>
+      </c>
+      <c r="P11">
+        <v>2.14788723451437</v>
+      </c>
+      <c r="Q11">
+        <v>2.148319628602341</v>
+      </c>
+      <c r="R11">
+        <v>2.148147032808289</v>
+      </c>
+      <c r="S11">
+        <v>2.148035254122378</v>
+      </c>
+      <c r="T11">
+        <v>2.147818275094602</v>
+      </c>
+      <c r="U11">
+        <v>2.147985001583935</v>
+      </c>
+      <c r="V11">
+        <v>2.147838475137369</v>
+      </c>
+      <c r="W11">
+        <v>2.148745101033625</v>
+      </c>
+      <c r="X11">
+        <v>2.148240789409211</v>
+      </c>
+      <c r="Y11">
+        <v>2.148002499118752</v>
+      </c>
+      <c r="Z11">
+        <v>2.148291306768626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9139601204819933</v>
+        <v>0.9141999951573266</v>
       </c>
       <c r="C12">
-        <v>0.9137202621613828</v>
+        <v>0.9138244853372056</v>
       </c>
       <c r="D12">
-        <v>0.9143604579848978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.914031248418908</v>
+      </c>
+      <c r="E12">
+        <v>0.9141714830200316</v>
+      </c>
+      <c r="F12">
+        <v>0.9141766767449405</v>
+      </c>
+      <c r="G12">
+        <v>0.914037653526687</v>
+      </c>
+      <c r="H12">
+        <v>0.9140069160619808</v>
+      </c>
+      <c r="I12">
+        <v>0.9139944382338784</v>
+      </c>
+      <c r="J12">
+        <v>0.9140980740138878</v>
+      </c>
+      <c r="K12">
+        <v>0.9139096264558725</v>
+      </c>
+      <c r="L12">
+        <v>0.9138847142689458</v>
+      </c>
+      <c r="M12">
+        <v>0.9139774724642338</v>
+      </c>
+      <c r="N12">
+        <v>0.9138842955657828</v>
+      </c>
+      <c r="O12">
+        <v>0.9141558375515265</v>
+      </c>
+      <c r="P12">
+        <v>0.9143575066424263</v>
+      </c>
+      <c r="Q12">
+        <v>0.9141643583188911</v>
+      </c>
+      <c r="R12">
+        <v>0.9142632315022264</v>
+      </c>
+      <c r="S12">
+        <v>0.9136993707090649</v>
+      </c>
+      <c r="T12">
+        <v>0.9141407895595247</v>
+      </c>
+      <c r="U12">
+        <v>0.9136296743941476</v>
+      </c>
+      <c r="V12">
+        <v>0.9139586828425245</v>
+      </c>
+      <c r="W12">
+        <v>0.9139346978274426</v>
+      </c>
+      <c r="X12">
+        <v>0.9140693811102095</v>
+      </c>
+      <c r="Y12">
+        <v>0.9136775235210742</v>
+      </c>
+      <c r="Z12">
+        <v>0.9143123583188209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07889041159277789</v>
+        <v>0.07813493737367552</v>
       </c>
       <c r="C13">
-        <v>0.07839236368820544</v>
+        <v>0.07827143266773623</v>
       </c>
       <c r="D13">
-        <v>0.07879452884249379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0780705467095773</v>
+      </c>
+      <c r="E13">
+        <v>0.07853324453617787</v>
+      </c>
+      <c r="F13">
+        <v>0.07841935200376977</v>
+      </c>
+      <c r="G13">
+        <v>0.07880749930881184</v>
+      </c>
+      <c r="H13">
+        <v>0.07842245415458425</v>
+      </c>
+      <c r="I13">
+        <v>0.07883735651818376</v>
+      </c>
+      <c r="J13">
+        <v>0.07834336587704735</v>
+      </c>
+      <c r="K13">
+        <v>0.07850577426568996</v>
+      </c>
+      <c r="L13">
+        <v>0.07840496544083929</v>
+      </c>
+      <c r="M13">
+        <v>0.07890078147209954</v>
+      </c>
+      <c r="N13">
+        <v>0.07856930323557075</v>
+      </c>
+      <c r="O13">
+        <v>0.07818045522018191</v>
+      </c>
+      <c r="P13">
+        <v>0.07901782684075301</v>
+      </c>
+      <c r="Q13">
+        <v>0.0782659220290163</v>
+      </c>
+      <c r="R13">
+        <v>0.07880045391717938</v>
+      </c>
+      <c r="S13">
+        <v>0.07871837098584836</v>
+      </c>
+      <c r="T13">
+        <v>0.07881518851160342</v>
+      </c>
+      <c r="U13">
+        <v>0.07878376142590857</v>
+      </c>
+      <c r="V13">
+        <v>0.07877108650776908</v>
+      </c>
+      <c r="W13">
+        <v>0.07855169629125003</v>
+      </c>
+      <c r="X13">
+        <v>0.07847105640557518</v>
+      </c>
+      <c r="Y13">
+        <v>0.07905891977646584</v>
+      </c>
+      <c r="Z13">
+        <v>0.07850179730494063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -642,8 +1500,74 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -656,257 +1580,1511 @@
       <c r="D15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5599896985549145</v>
+        <v>0.5599863129866151</v>
       </c>
       <c r="C16">
-        <v>0.559121349886993</v>
+        <v>0.5585859398232884</v>
       </c>
       <c r="D16">
-        <v>0.5596781371687792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.5551074979834096</v>
+      </c>
+      <c r="E16">
+        <v>0.5569081541267302</v>
+      </c>
+      <c r="F16">
+        <v>0.5593596063888845</v>
+      </c>
+      <c r="G16">
+        <v>0.5560096627813337</v>
+      </c>
+      <c r="H16">
+        <v>0.5613014996091927</v>
+      </c>
+      <c r="I16">
+        <v>0.559413481808097</v>
+      </c>
+      <c r="J16">
+        <v>0.5574001285165356</v>
+      </c>
+      <c r="K16">
+        <v>0.5592297311759301</v>
+      </c>
+      <c r="L16">
+        <v>0.5621576769823045</v>
+      </c>
+      <c r="M16">
+        <v>0.5562154669658302</v>
+      </c>
+      <c r="N16">
+        <v>0.5614242780930122</v>
+      </c>
+      <c r="O16">
+        <v>0.5605162958875031</v>
+      </c>
+      <c r="P16">
+        <v>0.5616863987122925</v>
+      </c>
+      <c r="Q16">
+        <v>0.5596575576231022</v>
+      </c>
+      <c r="R16">
+        <v>0.5593263638061666</v>
+      </c>
+      <c r="S16">
+        <v>0.5613190801702528</v>
+      </c>
+      <c r="T16">
+        <v>0.5613127915814347</v>
+      </c>
+      <c r="U16">
+        <v>0.5577559869299418</v>
+      </c>
+      <c r="V16">
+        <v>0.5556762033378019</v>
+      </c>
+      <c r="W16">
+        <v>0.5603196362813531</v>
+      </c>
+      <c r="X16">
+        <v>0.5599287587456794</v>
+      </c>
+      <c r="Y16">
+        <v>0.5594322995854775</v>
+      </c>
+      <c r="Z16">
+        <v>0.5544182156682125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1770750720897765</v>
+        <v>0.1803587816919973</v>
       </c>
       <c r="C17">
-        <v>0.1753398856156776</v>
+        <v>0.1764796513763611</v>
       </c>
       <c r="D17">
-        <v>0.178232478334455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.1753043936664267</v>
+      </c>
+      <c r="E17">
+        <v>0.1775147313830776</v>
+      </c>
+      <c r="F17">
+        <v>0.1753827456071761</v>
+      </c>
+      <c r="G17">
+        <v>0.1792241560773704</v>
+      </c>
+      <c r="H17">
+        <v>0.1779384796101584</v>
+      </c>
+      <c r="I17">
+        <v>0.1757359151584793</v>
+      </c>
+      <c r="J17">
+        <v>0.1757581100855362</v>
+      </c>
+      <c r="K17">
+        <v>0.1776474854902078</v>
+      </c>
+      <c r="L17">
+        <v>0.175381959653491</v>
+      </c>
+      <c r="M17">
+        <v>0.1797441898001015</v>
+      </c>
+      <c r="N17">
+        <v>0.1778396865356345</v>
+      </c>
+      <c r="O17">
+        <v>0.1811254694557965</v>
+      </c>
+      <c r="P17">
+        <v>0.1779753606143734</v>
+      </c>
+      <c r="Q17">
+        <v>0.1796162696373995</v>
+      </c>
+      <c r="R17">
+        <v>0.1779467189940795</v>
+      </c>
+      <c r="S17">
+        <v>0.1770055696400246</v>
+      </c>
+      <c r="T17">
+        <v>0.1772277093534522</v>
+      </c>
+      <c r="U17">
+        <v>0.183246716844161</v>
+      </c>
+      <c r="V17">
+        <v>0.17528519236653</v>
+      </c>
+      <c r="W17">
+        <v>0.1758641654165728</v>
+      </c>
+      <c r="X17">
+        <v>0.1789725355876232</v>
+      </c>
+      <c r="Y17">
+        <v>0.1773525001849478</v>
+      </c>
+      <c r="Z17">
+        <v>0.1766292573880333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1243137419153288</v>
+        <v>0.1293553955170547</v>
       </c>
       <c r="C18">
-        <v>0.1257139650188449</v>
+        <v>0.1241707059932624</v>
       </c>
       <c r="D18">
-        <v>0.1276827446182079</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.1254200810254149</v>
+      </c>
+      <c r="E18">
+        <v>0.128459766952627</v>
+      </c>
+      <c r="F18">
+        <v>0.1277824419935889</v>
+      </c>
+      <c r="G18">
+        <v>0.1231154898433642</v>
+      </c>
+      <c r="H18">
+        <v>0.129220745088071</v>
+      </c>
+      <c r="I18">
+        <v>0.122964404769825</v>
+      </c>
+      <c r="J18">
+        <v>0.1285333857154576</v>
+      </c>
+      <c r="K18">
+        <v>0.1268712808317963</v>
+      </c>
+      <c r="L18">
+        <v>0.1290743310462797</v>
+      </c>
+      <c r="M18">
+        <v>0.125712524150898</v>
+      </c>
+      <c r="N18">
+        <v>0.1251120973382855</v>
+      </c>
+      <c r="O18">
+        <v>0.1260148063675436</v>
+      </c>
+      <c r="P18">
+        <v>0.1277622862387627</v>
+      </c>
+      <c r="Q18">
+        <v>0.1267638543833454</v>
+      </c>
+      <c r="R18">
+        <v>0.1273149838163421</v>
+      </c>
+      <c r="S18">
+        <v>0.1274267940989853</v>
+      </c>
+      <c r="T18">
+        <v>0.123436057056166</v>
+      </c>
+      <c r="U18">
+        <v>0.127641457275844</v>
+      </c>
+      <c r="V18">
+        <v>0.1277803348234026</v>
+      </c>
+      <c r="W18">
+        <v>0.1297299860658771</v>
+      </c>
+      <c r="X18">
+        <v>0.1268364918227703</v>
+      </c>
+      <c r="Y18">
+        <v>0.1269498413924303</v>
+      </c>
+      <c r="Z18">
+        <v>0.1265990785237661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.110297831251181</v>
+        <v>5.110059550681253</v>
       </c>
       <c r="C19">
-        <v>5.108308844375682</v>
+        <v>5.109516964283725</v>
       </c>
       <c r="D19">
-        <v>5.106868168712486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>5.107549785536408</v>
+      </c>
+      <c r="E19">
+        <v>5.107189674761195</v>
+      </c>
+      <c r="F19">
+        <v>5.111154337326262</v>
+      </c>
+      <c r="G19">
+        <v>5.111561703509812</v>
+      </c>
+      <c r="H19">
+        <v>5.105147422867454</v>
+      </c>
+      <c r="I19">
+        <v>5.106977416973666</v>
+      </c>
+      <c r="J19">
+        <v>5.110490230009269</v>
+      </c>
+      <c r="K19">
+        <v>5.106851777868858</v>
+      </c>
+      <c r="L19">
+        <v>5.108580241582741</v>
+      </c>
+      <c r="M19">
+        <v>5.106678540156613</v>
+      </c>
+      <c r="N19">
+        <v>5.111285526680057</v>
+      </c>
+      <c r="O19">
+        <v>5.107505357527786</v>
+      </c>
+      <c r="P19">
+        <v>5.110341177393675</v>
+      </c>
+      <c r="Q19">
+        <v>5.106460334773019</v>
+      </c>
+      <c r="R19">
+        <v>5.107761209188034</v>
+      </c>
+      <c r="S19">
+        <v>5.109884222576061</v>
+      </c>
+      <c r="T19">
+        <v>5.108470686269416</v>
+      </c>
+      <c r="U19">
+        <v>5.111425055655772</v>
+      </c>
+      <c r="V19">
+        <v>5.1056875183144</v>
+      </c>
+      <c r="W19">
+        <v>5.111835614161762</v>
+      </c>
+      <c r="X19">
+        <v>5.108373986020896</v>
+      </c>
+      <c r="Y19">
+        <v>5.111732671463391</v>
+      </c>
+      <c r="Z19">
+        <v>5.108877451366277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.01594544955350032</v>
+        <v>0.05958914149960442</v>
       </c>
       <c r="C20">
-        <v>0.0398348259102716</v>
+        <v>-0.06683183365977934</v>
       </c>
       <c r="D20">
-        <v>-0.08488493377217363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.005178027367137687</v>
+      </c>
+      <c r="E20">
+        <v>-0.1581966180340341</v>
+      </c>
+      <c r="F20">
+        <v>-0.1476520987874908</v>
+      </c>
+      <c r="G20">
+        <v>-0.03881538562543677</v>
+      </c>
+      <c r="H20">
+        <v>0.05768841906905911</v>
+      </c>
+      <c r="I20">
+        <v>-0.07060670656549682</v>
+      </c>
+      <c r="J20">
+        <v>-0.04655899836276607</v>
+      </c>
+      <c r="K20">
+        <v>0.0380249850286753</v>
+      </c>
+      <c r="L20">
+        <v>-0.07176630420420467</v>
+      </c>
+      <c r="M20">
+        <v>0.07077804788179608</v>
+      </c>
+      <c r="N20">
+        <v>-0.01562715920861684</v>
+      </c>
+      <c r="O20">
+        <v>-0.1352048000211648</v>
+      </c>
+      <c r="P20">
+        <v>0.02847467288526363</v>
+      </c>
+      <c r="Q20">
+        <v>0.1724292267428935</v>
+      </c>
+      <c r="R20">
+        <v>0.009140128231160068</v>
+      </c>
+      <c r="S20">
+        <v>-0.1275992942992888</v>
+      </c>
+      <c r="T20">
+        <v>-0.0216167734835739</v>
+      </c>
+      <c r="U20">
+        <v>-0.1003188254578734</v>
+      </c>
+      <c r="V20">
+        <v>-0.04272696976403201</v>
+      </c>
+      <c r="W20">
+        <v>0.07909394944039133</v>
+      </c>
+      <c r="X20">
+        <v>0.0363503972599052</v>
+      </c>
+      <c r="Y20">
+        <v>-0.07318229492322657</v>
+      </c>
+      <c r="Z20">
+        <v>-0.02044868980973566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4708624363974264</v>
+        <v>0.4672723531287757</v>
       </c>
       <c r="C21">
-        <v>0.469600850971734</v>
+        <v>0.4704464653649741</v>
       </c>
       <c r="D21">
-        <v>0.4704343602016806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.4683433744088228</v>
+      </c>
+      <c r="E21">
+        <v>0.4670565165777554</v>
+      </c>
+      <c r="F21">
+        <v>0.4665278762000557</v>
+      </c>
+      <c r="G21">
+        <v>0.4686499649716871</v>
+      </c>
+      <c r="H21">
+        <v>0.4644343686544061</v>
+      </c>
+      <c r="I21">
+        <v>0.4725124472351409</v>
+      </c>
+      <c r="J21">
+        <v>0.4656219561160741</v>
+      </c>
+      <c r="K21">
+        <v>0.4733202468540361</v>
+      </c>
+      <c r="L21">
+        <v>0.4695197583034755</v>
+      </c>
+      <c r="M21">
+        <v>0.471845051791789</v>
+      </c>
+      <c r="N21">
+        <v>0.4690401794150047</v>
+      </c>
+      <c r="O21">
+        <v>0.4696501075226518</v>
+      </c>
+      <c r="P21">
+        <v>0.4702651682201565</v>
+      </c>
+      <c r="Q21">
+        <v>0.4716408229207085</v>
+      </c>
+      <c r="R21">
+        <v>0.4710492419325228</v>
+      </c>
+      <c r="S21">
+        <v>0.4714826214946642</v>
+      </c>
+      <c r="T21">
+        <v>0.4704639147792452</v>
+      </c>
+      <c r="U21">
+        <v>0.4676527934540438</v>
+      </c>
+      <c r="V21">
+        <v>0.4682393068153958</v>
+      </c>
+      <c r="W21">
+        <v>0.4701456920278613</v>
+      </c>
+      <c r="X21">
+        <v>0.4698857569252717</v>
+      </c>
+      <c r="Y21">
+        <v>0.4725440149557229</v>
+      </c>
+      <c r="Z21">
+        <v>0.4732114620440198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.35077543039856</v>
+        <v>28.35070169068273</v>
       </c>
       <c r="C22">
-        <v>28.3497100990154</v>
+        <v>28.35092687805086</v>
       </c>
       <c r="D22">
-        <v>28.35039684510227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>28.34920730754147</v>
+      </c>
+      <c r="E22">
+        <v>28.35269770178273</v>
+      </c>
+      <c r="F22">
+        <v>28.34962587284325</v>
+      </c>
+      <c r="G22">
+        <v>28.35097266193312</v>
+      </c>
+      <c r="H22">
+        <v>28.34934379888837</v>
+      </c>
+      <c r="I22">
+        <v>28.34936458636867</v>
+      </c>
+      <c r="J22">
+        <v>28.34820093235775</v>
+      </c>
+      <c r="K22">
+        <v>28.35142000028511</v>
+      </c>
+      <c r="L22">
+        <v>28.34892121934401</v>
+      </c>
+      <c r="M22">
+        <v>28.34889326427883</v>
+      </c>
+      <c r="N22">
+        <v>28.35014989561856</v>
+      </c>
+      <c r="O22">
+        <v>28.35060743332993</v>
+      </c>
+      <c r="P22">
+        <v>28.35204973529325</v>
+      </c>
+      <c r="Q22">
+        <v>28.34891744742269</v>
+      </c>
+      <c r="R22">
+        <v>28.35215640158832</v>
+      </c>
+      <c r="S22">
+        <v>28.34873849898237</v>
+      </c>
+      <c r="T22">
+        <v>28.34986670030184</v>
+      </c>
+      <c r="U22">
+        <v>28.35327151131261</v>
+      </c>
+      <c r="V22">
+        <v>28.35199826625028</v>
+      </c>
+      <c r="W22">
+        <v>28.34999878585968</v>
+      </c>
+      <c r="X22">
+        <v>28.35026899734723</v>
+      </c>
+      <c r="Y22">
+        <v>28.34758863402483</v>
+      </c>
+      <c r="Z22">
+        <v>28.35048099025353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.29969045475221</v>
+        <v>29.299736609224</v>
       </c>
       <c r="C23">
-        <v>29.29990436888539</v>
+        <v>29.29978536566251</v>
       </c>
       <c r="D23">
-        <v>29.29973345775757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>29.29962205908186</v>
+      </c>
+      <c r="E23">
+        <v>29.30003260586467</v>
+      </c>
+      <c r="F23">
+        <v>29.299422677444</v>
+      </c>
+      <c r="G23">
+        <v>29.29983398799181</v>
+      </c>
+      <c r="H23">
+        <v>29.2995085313877</v>
+      </c>
+      <c r="I23">
+        <v>29.29977550021007</v>
+      </c>
+      <c r="J23">
+        <v>29.29986991382432</v>
+      </c>
+      <c r="K23">
+        <v>29.2996221481146</v>
+      </c>
+      <c r="L23">
+        <v>29.29966243837939</v>
+      </c>
+      <c r="M23">
+        <v>29.30031513427461</v>
+      </c>
+      <c r="N23">
+        <v>29.29976049023045</v>
+      </c>
+      <c r="O23">
+        <v>29.29982719039216</v>
+      </c>
+      <c r="P23">
+        <v>29.2999158582698</v>
+      </c>
+      <c r="Q23">
+        <v>29.2998815085715</v>
+      </c>
+      <c r="R23">
+        <v>29.30012016195969</v>
+      </c>
+      <c r="S23">
+        <v>29.29960266831013</v>
+      </c>
+      <c r="T23">
+        <v>29.29967956550529</v>
+      </c>
+      <c r="U23">
+        <v>29.29977430454842</v>
+      </c>
+      <c r="V23">
+        <v>29.29984603777094</v>
+      </c>
+      <c r="W23">
+        <v>29.29982951084198</v>
+      </c>
+      <c r="X23">
+        <v>29.2999289691859</v>
+      </c>
+      <c r="Y23">
+        <v>29.29982776607622</v>
+      </c>
+      <c r="Z23">
+        <v>29.29985550922243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08184557826086768</v>
+        <v>0.08207778240475647</v>
       </c>
       <c r="C24">
-        <v>0.0817126793293748</v>
+        <v>0.0817809761052295</v>
       </c>
       <c r="D24">
-        <v>0.08167684592396279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.08150079319320148</v>
+      </c>
+      <c r="E24">
+        <v>0.08170362600713331</v>
+      </c>
+      <c r="F24">
+        <v>0.08185676259365085</v>
+      </c>
+      <c r="G24">
+        <v>0.08223478227700028</v>
+      </c>
+      <c r="H24">
+        <v>0.08153482414687328</v>
+      </c>
+      <c r="I24">
+        <v>0.08196316507038683</v>
+      </c>
+      <c r="J24">
+        <v>0.08191341836419576</v>
+      </c>
+      <c r="K24">
+        <v>0.08186111158088182</v>
+      </c>
+      <c r="L24">
+        <v>0.0816489114621578</v>
+      </c>
+      <c r="M24">
+        <v>0.08220439437597286</v>
+      </c>
+      <c r="N24">
+        <v>0.08152654448693232</v>
+      </c>
+      <c r="O24">
+        <v>0.08214222040211966</v>
+      </c>
+      <c r="P24">
+        <v>0.08191465803582285</v>
+      </c>
+      <c r="Q24">
+        <v>0.08170953614387945</v>
+      </c>
+      <c r="R24">
+        <v>0.08203274810436061</v>
+      </c>
+      <c r="S24">
+        <v>0.08159074534062485</v>
+      </c>
+      <c r="T24">
+        <v>0.08152834793960581</v>
+      </c>
+      <c r="U24">
+        <v>0.0817577357554915</v>
+      </c>
+      <c r="V24">
+        <v>0.08193570037763784</v>
+      </c>
+      <c r="W24">
+        <v>0.08190007859826269</v>
+      </c>
+      <c r="X24">
+        <v>0.08187419099005878</v>
+      </c>
+      <c r="Y24">
+        <v>0.08186890449057177</v>
+      </c>
+      <c r="Z24">
+        <v>0.08172030042315158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4548298497184713</v>
+        <v>0.4547212721204574</v>
       </c>
       <c r="C25">
-        <v>0.4542355595788552</v>
+        <v>0.4545018797714215</v>
       </c>
       <c r="D25">
-        <v>0.4545483279942062</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.4544151751715998</v>
+      </c>
+      <c r="E25">
+        <v>0.4546612143799292</v>
+      </c>
+      <c r="F25">
+        <v>0.4549101148296749</v>
+      </c>
+      <c r="G25">
+        <v>0.4546533056847519</v>
+      </c>
+      <c r="H25">
+        <v>0.45457338748709</v>
+      </c>
+      <c r="I25">
+        <v>0.4543500258231138</v>
+      </c>
+      <c r="J25">
+        <v>0.454690644551295</v>
+      </c>
+      <c r="K25">
+        <v>0.4547007436907967</v>
+      </c>
+      <c r="L25">
+        <v>0.4546569018062741</v>
+      </c>
+      <c r="M25">
+        <v>0.4546016990858782</v>
+      </c>
+      <c r="N25">
+        <v>0.4544774165000228</v>
+      </c>
+      <c r="O25">
+        <v>0.4549120590144364</v>
+      </c>
+      <c r="P25">
+        <v>0.4546721349549471</v>
+      </c>
+      <c r="Q25">
+        <v>0.4547661380796328</v>
+      </c>
+      <c r="R25">
+        <v>0.4545891437402935</v>
+      </c>
+      <c r="S25">
+        <v>0.4546180436950941</v>
+      </c>
+      <c r="T25">
+        <v>0.454708607921916</v>
+      </c>
+      <c r="U25">
+        <v>0.4548616572712662</v>
+      </c>
+      <c r="V25">
+        <v>0.4544391917682585</v>
+      </c>
+      <c r="W25">
+        <v>0.4550596767540697</v>
+      </c>
+      <c r="X25">
+        <v>0.4547464574414268</v>
+      </c>
+      <c r="Y25">
+        <v>0.454474353191991</v>
+      </c>
+      <c r="Z25">
+        <v>0.4546400487724006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.707525289031405</v>
+        <v>1.706555133367703</v>
       </c>
       <c r="C26">
-        <v>1.703926091782149</v>
+        <v>1.706535463165641</v>
       </c>
       <c r="D26">
-        <v>1.707413183224155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1.706683049645563</v>
+      </c>
+      <c r="E26">
+        <v>1.706682688907124</v>
+      </c>
+      <c r="F26">
+        <v>1.707441456588968</v>
+      </c>
+      <c r="G26">
+        <v>1.708201029654342</v>
+      </c>
+      <c r="H26">
+        <v>1.707390174955082</v>
+      </c>
+      <c r="I26">
+        <v>1.707344908017349</v>
+      </c>
+      <c r="J26">
+        <v>1.706270192964156</v>
+      </c>
+      <c r="K26">
+        <v>1.707341280725479</v>
+      </c>
+      <c r="L26">
+        <v>1.706487395622811</v>
+      </c>
+      <c r="M26">
+        <v>1.705681535556645</v>
+      </c>
+      <c r="N26">
+        <v>1.705934302964304</v>
+      </c>
+      <c r="O26">
+        <v>1.707206247663257</v>
+      </c>
+      <c r="P26">
+        <v>1.706571941912079</v>
+      </c>
+      <c r="Q26">
+        <v>1.707940649292016</v>
+      </c>
+      <c r="R26">
+        <v>1.707489143232463</v>
+      </c>
+      <c r="S26">
+        <v>1.706403632506688</v>
+      </c>
+      <c r="T26">
+        <v>1.70681760898354</v>
+      </c>
+      <c r="U26">
+        <v>1.706406777682675</v>
+      </c>
+      <c r="V26">
+        <v>1.707115171067687</v>
+      </c>
+      <c r="W26">
+        <v>1.705850706215004</v>
+      </c>
+      <c r="X26">
+        <v>1.705765106978424</v>
+      </c>
+      <c r="Y26">
+        <v>1.705224207537646</v>
+      </c>
+      <c r="Z26">
+        <v>1.706278301974855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.593634250817431</v>
+        <v>3.598800588122939</v>
       </c>
       <c r="C27">
-        <v>3.593350263676002</v>
+        <v>3.596081028069976</v>
       </c>
       <c r="D27">
-        <v>3.59398495486528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>3.593953956512965</v>
+      </c>
+      <c r="E27">
+        <v>3.59418657792577</v>
+      </c>
+      <c r="F27">
+        <v>3.59463077713818</v>
+      </c>
+      <c r="G27">
+        <v>3.600496618213248</v>
+      </c>
+      <c r="H27">
+        <v>3.594813618485412</v>
+      </c>
+      <c r="I27">
+        <v>3.595058105827735</v>
+      </c>
+      <c r="J27">
+        <v>3.600767606627933</v>
+      </c>
+      <c r="K27">
+        <v>3.593089593601597</v>
+      </c>
+      <c r="L27">
+        <v>3.591475126040866</v>
+      </c>
+      <c r="M27">
+        <v>3.594422958340507</v>
+      </c>
+      <c r="N27">
+        <v>3.598447252825482</v>
+      </c>
+      <c r="O27">
+        <v>3.597375133690424</v>
+      </c>
+      <c r="P27">
+        <v>3.59595651267414</v>
+      </c>
+      <c r="Q27">
+        <v>3.592551683528794</v>
+      </c>
+      <c r="R27">
+        <v>3.598915217262799</v>
+      </c>
+      <c r="S27">
+        <v>3.596566214046482</v>
+      </c>
+      <c r="T27">
+        <v>3.594058269949867</v>
+      </c>
+      <c r="U27">
+        <v>3.594391943672875</v>
+      </c>
+      <c r="V27">
+        <v>3.596225673065087</v>
+      </c>
+      <c r="W27">
+        <v>3.596847432207369</v>
+      </c>
+      <c r="X27">
+        <v>3.595914244831049</v>
+      </c>
+      <c r="Y27">
+        <v>3.594447262953679</v>
+      </c>
+      <c r="Z27">
+        <v>3.596572097796131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.06910772256207</v>
+        <v>12.06712548987954</v>
       </c>
       <c r="C28">
-        <v>12.06559038313814</v>
+        <v>12.06529868292968</v>
       </c>
       <c r="D28">
-        <v>12.06719732902544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>12.06422072469122</v>
+      </c>
+      <c r="E28">
+        <v>12.06550197493742</v>
+      </c>
+      <c r="F28">
+        <v>12.06498243237868</v>
+      </c>
+      <c r="G28">
+        <v>12.06573328893669</v>
+      </c>
+      <c r="H28">
+        <v>12.06585411795256</v>
+      </c>
+      <c r="I28">
+        <v>12.06759780674481</v>
+      </c>
+      <c r="J28">
+        <v>12.06596255357814</v>
+      </c>
+      <c r="K28">
+        <v>12.06565203192596</v>
+      </c>
+      <c r="L28">
+        <v>12.06466218705882</v>
+      </c>
+      <c r="M28">
+        <v>12.06553244627436</v>
+      </c>
+      <c r="N28">
+        <v>12.06608482809811</v>
+      </c>
+      <c r="O28">
+        <v>12.06730947595046</v>
+      </c>
+      <c r="P28">
+        <v>12.06539176076028</v>
+      </c>
+      <c r="Q28">
+        <v>12.06487261745933</v>
+      </c>
+      <c r="R28">
+        <v>12.06618443309326</v>
+      </c>
+      <c r="S28">
+        <v>12.06505759866372</v>
+      </c>
+      <c r="T28">
+        <v>12.06518044076328</v>
+      </c>
+      <c r="U28">
+        <v>12.06614143212362</v>
+      </c>
+      <c r="V28">
+        <v>12.06508816427926</v>
+      </c>
+      <c r="W28">
+        <v>12.06628892265964</v>
+      </c>
+      <c r="X28">
+        <v>12.06663625399976</v>
+      </c>
+      <c r="Y28">
+        <v>12.06468032916322</v>
+      </c>
+      <c r="Z28">
+        <v>12.06595570364543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.73903338827643</v>
+        <v>33.64808611849147</v>
       </c>
       <c r="C29">
-        <v>33.89221422296245</v>
+        <v>33.5777242228239</v>
       </c>
       <c r="D29">
-        <v>33.33456055618378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>33.72210678226841</v>
+      </c>
+      <c r="E29">
+        <v>33.77456084977484</v>
+      </c>
+      <c r="F29">
+        <v>33.73605689981673</v>
+      </c>
+      <c r="G29">
+        <v>33.22346678151763</v>
+      </c>
+      <c r="H29">
+        <v>33.37399207440575</v>
+      </c>
+      <c r="I29">
+        <v>33.40939420897055</v>
+      </c>
+      <c r="J29">
+        <v>33.1856392119138</v>
+      </c>
+      <c r="K29">
+        <v>32.63002378315608</v>
+      </c>
+      <c r="L29">
+        <v>33.46926754999287</v>
+      </c>
+      <c r="M29">
+        <v>33.82195975207885</v>
+      </c>
+      <c r="N29">
+        <v>33.64784666889354</v>
+      </c>
+      <c r="O29">
+        <v>33.48491453323578</v>
+      </c>
+      <c r="P29">
+        <v>34.39809770866274</v>
+      </c>
+      <c r="Q29">
+        <v>34.02560502097919</v>
+      </c>
+      <c r="R29">
+        <v>32.98719401034929</v>
+      </c>
+      <c r="S29">
+        <v>33.05733540911601</v>
+      </c>
+      <c r="T29">
+        <v>33.33394206134874</v>
+      </c>
+      <c r="U29">
+        <v>32.73108635640035</v>
+      </c>
+      <c r="V29">
+        <v>33.03071692364701</v>
+      </c>
+      <c r="W29">
+        <v>34.32075553199323</v>
+      </c>
+      <c r="X29">
+        <v>33.51445514391082</v>
+      </c>
+      <c r="Y29">
+        <v>34.70123075995106</v>
+      </c>
+      <c r="Z29">
+        <v>33.4757047722577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73879.09633324869</v>
+        <v>73847.35001887829</v>
       </c>
       <c r="C30">
-        <v>73753.39402856784</v>
+        <v>73849.8723703374</v>
       </c>
       <c r="D30">
-        <v>73809.00155924085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>73832.04021156594</v>
+      </c>
+      <c r="E30">
+        <v>73834.40978137498</v>
+      </c>
+      <c r="F30">
+        <v>73889.98975814522</v>
+      </c>
+      <c r="G30">
+        <v>73840.64006776384</v>
+      </c>
+      <c r="H30">
+        <v>73767.53909320672</v>
+      </c>
+      <c r="I30">
+        <v>73850.34844487594</v>
+      </c>
+      <c r="J30">
+        <v>73843.58031246517</v>
+      </c>
+      <c r="K30">
+        <v>73818.06944277312</v>
+      </c>
+      <c r="L30">
+        <v>73867.71209661769</v>
+      </c>
+      <c r="M30">
+        <v>73834.07917145286</v>
+      </c>
+      <c r="N30">
+        <v>73840.55400723779</v>
+      </c>
+      <c r="O30">
+        <v>73897.19077415172</v>
+      </c>
+      <c r="P30">
+        <v>73762.58132854366</v>
+      </c>
+      <c r="Q30">
+        <v>73846.55389996935</v>
+      </c>
+      <c r="R30">
+        <v>73794.69042069397</v>
+      </c>
+      <c r="S30">
+        <v>73832.04472910799</v>
+      </c>
+      <c r="T30">
+        <v>73834.53744374102</v>
+      </c>
+      <c r="U30">
+        <v>73802.06562025903</v>
+      </c>
+      <c r="V30">
+        <v>73847.24540016998</v>
+      </c>
+      <c r="W30">
+        <v>73820.09626874531</v>
+      </c>
+      <c r="X30">
+        <v>73798.37787597075</v>
+      </c>
+      <c r="Y30">
+        <v>73807.45096256725</v>
+      </c>
+      <c r="Z30">
+        <v>73877.43584835205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.091351605203742</v>
+        <v>6.096288524854304</v>
       </c>
       <c r="C31">
-        <v>6.096382774614865</v>
+        <v>6.094039005426603</v>
       </c>
       <c r="D31">
-        <v>6.094708400649187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>6.096813535584687</v>
+      </c>
+      <c r="E31">
+        <v>6.095211469560797</v>
+      </c>
+      <c r="F31">
+        <v>6.097782800160514</v>
+      </c>
+      <c r="G31">
+        <v>6.095623439409456</v>
+      </c>
+      <c r="H31">
+        <v>6.096719737077881</v>
+      </c>
+      <c r="I31">
+        <v>6.09599049281688</v>
+      </c>
+      <c r="J31">
+        <v>6.093800502753346</v>
+      </c>
+      <c r="K31">
+        <v>6.096809675879984</v>
+      </c>
+      <c r="L31">
+        <v>6.09921811174403</v>
+      </c>
+      <c r="M31">
+        <v>6.093826652033017</v>
+      </c>
+      <c r="N31">
+        <v>6.100696567876271</v>
+      </c>
+      <c r="O31">
+        <v>6.097076784051891</v>
+      </c>
+      <c r="P31">
+        <v>6.09523199666316</v>
+      </c>
+      <c r="Q31">
+        <v>6.09394026282227</v>
+      </c>
+      <c r="R31">
+        <v>6.094457951264843</v>
+      </c>
+      <c r="S31">
+        <v>6.098775861924022</v>
+      </c>
+      <c r="T31">
+        <v>6.097658285441402</v>
+      </c>
+      <c r="U31">
+        <v>6.09344729586387</v>
+      </c>
+      <c r="V31">
+        <v>6.094519448626174</v>
+      </c>
+      <c r="W31">
+        <v>6.095904308531039</v>
+      </c>
+      <c r="X31">
+        <v>6.095837221797164</v>
+      </c>
+      <c r="Y31">
+        <v>6.094852416122083</v>
+      </c>
+      <c r="Z31">
+        <v>6.098375904200683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88.01061527895956</v>
+        <v>87.95528297964132</v>
       </c>
       <c r="C32">
-        <v>88.10504085414524</v>
+        <v>87.54023469295301</v>
       </c>
       <c r="D32">
-        <v>88.28279517183412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>87.90666801340473</v>
+      </c>
+      <c r="E32">
+        <v>87.56902322307573</v>
+      </c>
+      <c r="F32">
+        <v>87.78017959365424</v>
+      </c>
+      <c r="G32">
+        <v>88.49499763569871</v>
+      </c>
+      <c r="H32">
+        <v>87.46594221293807</v>
+      </c>
+      <c r="I32">
+        <v>88.11851676572476</v>
+      </c>
+      <c r="J32">
+        <v>87.71865954586747</v>
+      </c>
+      <c r="K32">
+        <v>88.30502881094576</v>
+      </c>
+      <c r="L32">
+        <v>87.62771817361492</v>
+      </c>
+      <c r="M32">
+        <v>87.44340691999757</v>
+      </c>
+      <c r="N32">
+        <v>88.46563506764109</v>
+      </c>
+      <c r="O32">
+        <v>88.04358530899977</v>
+      </c>
+      <c r="P32">
+        <v>88.32718281695377</v>
+      </c>
+      <c r="Q32">
+        <v>87.67490852477879</v>
+      </c>
+      <c r="R32">
+        <v>88.12368200629471</v>
+      </c>
+      <c r="S32">
+        <v>87.96018277317806</v>
+      </c>
+      <c r="T32">
+        <v>87.81182894648654</v>
+      </c>
+      <c r="U32">
+        <v>87.95643697679814</v>
+      </c>
+      <c r="V32">
+        <v>88.30368088222093</v>
+      </c>
+      <c r="W32">
+        <v>87.99413735100691</v>
+      </c>
+      <c r="X32">
+        <v>88.19744625890677</v>
+      </c>
+      <c r="Y32">
+        <v>88.13102780885882</v>
+      </c>
+      <c r="Z32">
+        <v>87.74530968439566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>50.00009481624021</v>
+        <v>50.00148707265517</v>
       </c>
       <c r="C33">
-        <v>49.99807367100615</v>
+        <v>49.99749088695607</v>
       </c>
       <c r="D33">
-        <v>50.00069873152486</v>
+        <v>49.99982484232918</v>
+      </c>
+      <c r="E33">
+        <v>50.00459466211606</v>
+      </c>
+      <c r="F33">
+        <v>50.00207854839751</v>
+      </c>
+      <c r="G33">
+        <v>50.0027506783522</v>
+      </c>
+      <c r="H33">
+        <v>50.00478988124815</v>
+      </c>
+      <c r="I33">
+        <v>49.99965905790086</v>
+      </c>
+      <c r="J33">
+        <v>49.99814034245006</v>
+      </c>
+      <c r="K33">
+        <v>50.00025155440138</v>
+      </c>
+      <c r="L33">
+        <v>50.0016165784905</v>
+      </c>
+      <c r="M33">
+        <v>49.99732445006768</v>
+      </c>
+      <c r="N33">
+        <v>49.99864374276305</v>
+      </c>
+      <c r="O33">
+        <v>49.9982191542288</v>
+      </c>
+      <c r="P33">
+        <v>50.00198063443129</v>
+      </c>
+      <c r="Q33">
+        <v>49.9992256922117</v>
+      </c>
+      <c r="R33">
+        <v>49.99311137498225</v>
+      </c>
+      <c r="S33">
+        <v>50.00088737258669</v>
+      </c>
+      <c r="T33">
+        <v>49.99976371161089</v>
+      </c>
+      <c r="U33">
+        <v>50.00095371569677</v>
+      </c>
+      <c r="V33">
+        <v>49.99867563037384</v>
+      </c>
+      <c r="W33">
+        <v>49.99798696669217</v>
+      </c>
+      <c r="X33">
+        <v>49.99670641447415</v>
+      </c>
+      <c r="Y33">
+        <v>49.99860735120647</v>
+      </c>
+      <c r="Z33">
+        <v>49.99990092899415</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -487,34 +487,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07847760959480324</v>
+        <v>0.07817971878511421</v>
       </c>
       <c r="C2">
-        <v>0.07790990994536423</v>
+        <v>0.0783311784570309</v>
       </c>
       <c r="D2">
-        <v>0.07875983176856631</v>
+        <v>0.07882964468300416</v>
       </c>
       <c r="E2">
-        <v>0.07819140000034416</v>
+        <v>0.07898575576335547</v>
       </c>
       <c r="F2">
-        <v>0.07839303278893857</v>
+        <v>0.0789021773171731</v>
       </c>
       <c r="G2">
-        <v>0.07863902244291529</v>
+        <v>0.07841102167452746</v>
       </c>
       <c r="H2">
-        <v>0.07818730127540516</v>
+        <v>0.07816076904529083</v>
       </c>
       <c r="I2">
-        <v>0.07868990688096771</v>
+        <v>0.07902881765877712</v>
       </c>
       <c r="J2">
-        <v>0.07788522422265916</v>
+        <v>0.07869720463851246</v>
       </c>
       <c r="K2">
-        <v>0.07820416265670023</v>
+        <v>0.07807812593315568</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -522,34 +522,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.85054037253802</v>
+        <v>25.8498244400453</v>
       </c>
       <c r="C3">
-        <v>25.85044665665422</v>
+        <v>25.84895386915952</v>
       </c>
       <c r="D3">
-        <v>25.85002125762849</v>
+        <v>25.85227483928836</v>
       </c>
       <c r="E3">
-        <v>25.8509305235463</v>
+        <v>25.84965830012807</v>
       </c>
       <c r="F3">
-        <v>25.8526242125383</v>
+        <v>25.84939258695979</v>
       </c>
       <c r="G3">
-        <v>25.85158553590932</v>
+        <v>25.84872764592898</v>
       </c>
       <c r="H3">
-        <v>25.85036745006821</v>
+        <v>25.84893176529916</v>
       </c>
       <c r="I3">
-        <v>25.84965673548191</v>
+        <v>25.84849984402901</v>
       </c>
       <c r="J3">
-        <v>25.84919742887062</v>
+        <v>25.84851247639706</v>
       </c>
       <c r="K3">
-        <v>25.85058005534978</v>
+        <v>25.84989010061628</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -557,34 +557,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7000669886547</v>
+        <v>151.6999409060293</v>
       </c>
       <c r="C4">
-        <v>151.6998833150703</v>
+        <v>151.6996680895456</v>
       </c>
       <c r="D4">
-        <v>151.700137911395</v>
+        <v>151.7001258504768</v>
       </c>
       <c r="E4">
-        <v>151.7000046199173</v>
+        <v>151.7002862504015</v>
       </c>
       <c r="F4">
-        <v>151.7000150613295</v>
+        <v>151.6999693512639</v>
       </c>
       <c r="G4">
-        <v>151.7000941281871</v>
+        <v>151.6999072420455</v>
       </c>
       <c r="H4">
-        <v>151.6997241102406</v>
+        <v>151.6999704693069</v>
       </c>
       <c r="I4">
-        <v>151.7001224507889</v>
+        <v>151.7000981444945</v>
       </c>
       <c r="J4">
-        <v>151.6999125809424</v>
+        <v>151.6997469824527</v>
       </c>
       <c r="K4">
-        <v>151.70027271151</v>
+        <v>151.700202999736</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -592,34 +592,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1858368838087445</v>
+        <v>0.1862189255872833</v>
       </c>
       <c r="C5">
-        <v>0.1857612485571072</v>
+        <v>0.1858928912611811</v>
       </c>
       <c r="D5">
-        <v>0.1861352181072565</v>
+        <v>0.1859445013082248</v>
       </c>
       <c r="E5">
-        <v>0.1859818687051331</v>
+        <v>0.1858468200282911</v>
       </c>
       <c r="F5">
-        <v>0.1857552999294743</v>
+        <v>0.1862223951108492</v>
       </c>
       <c r="G5">
-        <v>0.1856863649344985</v>
+        <v>0.1860628828289331</v>
       </c>
       <c r="H5">
-        <v>0.1861521677959577</v>
+        <v>0.1863756125851548</v>
       </c>
       <c r="I5">
-        <v>0.1856683418718548</v>
+        <v>0.1858475716368888</v>
       </c>
       <c r="J5">
-        <v>0.1860409017906546</v>
+        <v>0.1860806893656513</v>
       </c>
       <c r="K5">
-        <v>0.1859057211005391</v>
+        <v>0.1858205056049669</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -627,34 +627,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.259973948643365</v>
+        <v>2.259978956548998</v>
       </c>
       <c r="C6">
-        <v>2.26002516094675</v>
+        <v>2.259947803643975</v>
       </c>
       <c r="D6">
-        <v>2.259999111698572</v>
+        <v>2.260025809546947</v>
       </c>
       <c r="E6">
-        <v>2.260000311724449</v>
+        <v>2.259991621672407</v>
       </c>
       <c r="F6">
-        <v>2.259959163109905</v>
+        <v>2.259991958868862</v>
       </c>
       <c r="G6">
-        <v>2.260047096355497</v>
+        <v>2.259995681448602</v>
       </c>
       <c r="H6">
-        <v>2.259988899896379</v>
+        <v>2.260003153490685</v>
       </c>
       <c r="I6">
-        <v>2.259983314538425</v>
+        <v>2.260001686314588</v>
       </c>
       <c r="J6">
-        <v>2.260014812358707</v>
+        <v>2.259988627308207</v>
       </c>
       <c r="K6">
-        <v>2.259992915945571</v>
+        <v>2.259967125538838</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -662,34 +662,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.462238001823559</v>
+        <v>3.455745646189116</v>
       </c>
       <c r="C7">
-        <v>3.452195001774763</v>
+        <v>3.4538418019611</v>
       </c>
       <c r="D7">
-        <v>3.455309570152609</v>
+        <v>3.457080227861884</v>
       </c>
       <c r="E7">
-        <v>3.459601852494266</v>
+        <v>3.447500445080942</v>
       </c>
       <c r="F7">
-        <v>3.450510303292677</v>
+        <v>3.45747422693751</v>
       </c>
       <c r="G7">
-        <v>3.451801201601093</v>
+        <v>3.458169988661405</v>
       </c>
       <c r="H7">
-        <v>3.458783186322658</v>
+        <v>3.467814388736302</v>
       </c>
       <c r="I7">
-        <v>3.464771685033573</v>
+        <v>3.458615841995616</v>
       </c>
       <c r="J7">
-        <v>3.452007808214394</v>
+        <v>3.464834289877412</v>
       </c>
       <c r="K7">
-        <v>3.461366564559452</v>
+        <v>3.448615730143163</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -697,34 +697,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.35328246627965</v>
+        <v>28.34149517969925</v>
       </c>
       <c r="C8">
-        <v>28.3613210539342</v>
+        <v>28.34600323693632</v>
       </c>
       <c r="D8">
-        <v>28.34979368789626</v>
+        <v>28.34203323028843</v>
       </c>
       <c r="E8">
-        <v>28.35385214930792</v>
+        <v>28.34682029236226</v>
       </c>
       <c r="F8">
-        <v>28.34502265826758</v>
+        <v>28.35125499204733</v>
       </c>
       <c r="G8">
-        <v>28.34550988418791</v>
+        <v>28.3493695122859</v>
       </c>
       <c r="H8">
-        <v>28.35620208116046</v>
+        <v>28.34484277081267</v>
       </c>
       <c r="I8">
-        <v>28.3382920501941</v>
+        <v>28.34437322392657</v>
       </c>
       <c r="J8">
-        <v>28.35422507419655</v>
+        <v>28.34862447957934</v>
       </c>
       <c r="K8">
-        <v>28.34206348646941</v>
+        <v>28.34653999622123</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -732,34 +732,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.093177709856165</v>
+        <v>1.054893060672978</v>
       </c>
       <c r="C9">
-        <v>1.001492061027477</v>
+        <v>0.9901695260328268</v>
       </c>
       <c r="D9">
-        <v>1.114531093443119</v>
+        <v>0.9567270305010259</v>
       </c>
       <c r="E9">
-        <v>1.02194587431068</v>
+        <v>0.9470885579604263</v>
       </c>
       <c r="F9">
-        <v>0.9737131157195891</v>
+        <v>0.9933299886754769</v>
       </c>
       <c r="G9">
-        <v>1.060680279480575</v>
+        <v>1.035350823035597</v>
       </c>
       <c r="H9">
-        <v>0.9609457914473327</v>
+        <v>0.9997948843247114</v>
       </c>
       <c r="I9">
-        <v>0.9231960169325319</v>
+        <v>0.9441960484205024</v>
       </c>
       <c r="J9">
-        <v>0.9866590077079703</v>
+        <v>0.9849747474785377</v>
       </c>
       <c r="K9">
-        <v>0.9619534875625357</v>
+        <v>1.087694994123495</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -767,34 +767,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9830189666723926</v>
+        <v>1.020750325171829</v>
       </c>
       <c r="C10">
-        <v>1.000469587177542</v>
+        <v>0.9728458567486176</v>
       </c>
       <c r="D10">
-        <v>1.09670887572522</v>
+        <v>1.003783298085236</v>
       </c>
       <c r="E10">
-        <v>1.040874479637793</v>
+        <v>1.026090065753483</v>
       </c>
       <c r="F10">
-        <v>1.006453283011459</v>
+        <v>1.017438874152209</v>
       </c>
       <c r="G10">
-        <v>1.049750609541351</v>
+        <v>1.046358272401138</v>
       </c>
       <c r="H10">
-        <v>0.9986053634092434</v>
+        <v>0.9164073345367773</v>
       </c>
       <c r="I10">
-        <v>1.023672733825093</v>
+        <v>0.9611634807149179</v>
       </c>
       <c r="J10">
-        <v>1.020503063639943</v>
+        <v>0.9723198136725411</v>
       </c>
       <c r="K10">
-        <v>0.9200515353467695</v>
+        <v>1.037572032976262</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -802,34 +802,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.148137326281182</v>
+        <v>2.147879753816575</v>
       </c>
       <c r="C11">
-        <v>2.148062715985798</v>
+        <v>2.14829058063013</v>
       </c>
       <c r="D11">
-        <v>2.148474998445372</v>
+        <v>2.148080529812282</v>
       </c>
       <c r="E11">
-        <v>2.147721587864839</v>
+        <v>2.147351018910137</v>
       </c>
       <c r="F11">
-        <v>2.147992852194362</v>
+        <v>2.147855378297125</v>
       </c>
       <c r="G11">
-        <v>2.147967415116541</v>
+        <v>2.147987784724509</v>
       </c>
       <c r="H11">
-        <v>2.148205080323858</v>
+        <v>2.147658414761472</v>
       </c>
       <c r="I11">
-        <v>2.147615532861538</v>
+        <v>2.148187721279552</v>
       </c>
       <c r="J11">
-        <v>2.148162369702597</v>
+        <v>2.147999747456856</v>
       </c>
       <c r="K11">
-        <v>2.147943140122769</v>
+        <v>2.14798778326946</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -837,34 +837,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9137635401190134</v>
+        <v>0.9139612738735129</v>
       </c>
       <c r="C12">
-        <v>0.9135898320586733</v>
+        <v>0.9141308141535694</v>
       </c>
       <c r="D12">
-        <v>0.9138888498046496</v>
+        <v>0.9137570331794836</v>
       </c>
       <c r="E12">
-        <v>0.913861442248096</v>
+        <v>0.9142453600793168</v>
       </c>
       <c r="F12">
-        <v>0.9143473610711449</v>
+        <v>0.9138734621969352</v>
       </c>
       <c r="G12">
-        <v>0.9139109815985547</v>
+        <v>0.9139983384681722</v>
       </c>
       <c r="H12">
-        <v>0.9140871953805068</v>
+        <v>0.9142160795722186</v>
       </c>
       <c r="I12">
-        <v>0.9142811630041267</v>
+        <v>0.913514465144264</v>
       </c>
       <c r="J12">
-        <v>0.9140361280252663</v>
+        <v>0.9137610718695441</v>
       </c>
       <c r="K12">
-        <v>0.9141795474798856</v>
+        <v>0.914148953896736</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07899797849761779</v>
+        <v>0.07883753746753003</v>
       </c>
       <c r="C13">
-        <v>0.07850072016923458</v>
+        <v>0.07878346463371405</v>
       </c>
       <c r="D13">
-        <v>0.07848309493729351</v>
+        <v>0.0783994454532482</v>
       </c>
       <c r="E13">
-        <v>0.07809087460331031</v>
+        <v>0.07846966065914462</v>
       </c>
       <c r="F13">
-        <v>0.07883910702345569</v>
+        <v>0.07851219254221967</v>
       </c>
       <c r="G13">
-        <v>0.07804162288012437</v>
+        <v>0.07834215430464123</v>
       </c>
       <c r="H13">
-        <v>0.07819208254240732</v>
+        <v>0.07814859624813368</v>
       </c>
       <c r="I13">
-        <v>0.07832534707477662</v>
+        <v>0.07855355496758679</v>
       </c>
       <c r="J13">
-        <v>0.07837720410554523</v>
+        <v>0.07872894157016369</v>
       </c>
       <c r="K13">
-        <v>0.07860864766240375</v>
+        <v>0.07867052785454667</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -977,34 +977,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5539861063525088</v>
+        <v>0.5576565864975382</v>
       </c>
       <c r="C16">
-        <v>0.560136904006802</v>
+        <v>0.5633100609088539</v>
       </c>
       <c r="D16">
-        <v>0.5580062286642269</v>
+        <v>0.5588815115937749</v>
       </c>
       <c r="E16">
-        <v>0.5570433846425586</v>
+        <v>0.5576867962724614</v>
       </c>
       <c r="F16">
-        <v>0.5620217000937219</v>
+        <v>0.560422616376396</v>
       </c>
       <c r="G16">
-        <v>0.560896607178456</v>
+        <v>0.5588559601955254</v>
       </c>
       <c r="H16">
-        <v>0.5574868081472699</v>
+        <v>0.5572212847490884</v>
       </c>
       <c r="I16">
-        <v>0.5607496126479385</v>
+        <v>0.5601890530553552</v>
       </c>
       <c r="J16">
-        <v>0.5626026991603472</v>
+        <v>0.5585722765358336</v>
       </c>
       <c r="K16">
-        <v>0.5591202567727639</v>
+        <v>0.5564687248911931</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1012,34 +1012,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1770084636032254</v>
+        <v>0.1830040952688807</v>
       </c>
       <c r="C17">
-        <v>0.1775331119298715</v>
+        <v>0.1771381558664984</v>
       </c>
       <c r="D17">
-        <v>0.1803824901929285</v>
+        <v>0.1765992904134902</v>
       </c>
       <c r="E17">
-        <v>0.1765559443689853</v>
+        <v>0.1732303950356444</v>
       </c>
       <c r="F17">
-        <v>0.1752344424989548</v>
+        <v>0.1773587591978944</v>
       </c>
       <c r="G17">
-        <v>0.1757131405361943</v>
+        <v>0.1799261370085826</v>
       </c>
       <c r="H17">
-        <v>0.1803892065449929</v>
+        <v>0.1784917558264351</v>
       </c>
       <c r="I17">
-        <v>0.176811318121873</v>
+        <v>0.1786046820764243</v>
       </c>
       <c r="J17">
-        <v>0.1794280377502488</v>
+        <v>0.1774204624625202</v>
       </c>
       <c r="K17">
-        <v>0.1786552643836884</v>
+        <v>0.1800391234001976</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1047,34 +1047,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1261942753325961</v>
+        <v>0.1268943294111833</v>
       </c>
       <c r="C18">
-        <v>0.1273164892242013</v>
+        <v>0.1232629646916496</v>
       </c>
       <c r="D18">
-        <v>0.1316231843651155</v>
+        <v>0.1249704558363358</v>
       </c>
       <c r="E18">
-        <v>0.1267073060792834</v>
+        <v>0.1270583826580347</v>
       </c>
       <c r="F18">
-        <v>0.12772272743954</v>
+        <v>0.1274516940911052</v>
       </c>
       <c r="G18">
-        <v>0.1230910333680566</v>
+        <v>0.1299268904040515</v>
       </c>
       <c r="H18">
-        <v>0.1260409762100131</v>
+        <v>0.1245316678432441</v>
       </c>
       <c r="I18">
-        <v>0.1264393445527374</v>
+        <v>0.1276538861124042</v>
       </c>
       <c r="J18">
-        <v>0.1255006408669416</v>
+        <v>0.1268456107855451</v>
       </c>
       <c r="K18">
-        <v>0.1320828031173832</v>
+        <v>0.1237322334651028</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1082,34 +1082,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.107928495019868</v>
+        <v>5.109179684782307</v>
       </c>
       <c r="C19">
-        <v>5.105534358665813</v>
+        <v>5.106024282484106</v>
       </c>
       <c r="D19">
-        <v>5.110076427884954</v>
+        <v>5.111998841183548</v>
       </c>
       <c r="E19">
-        <v>5.106745686284809</v>
+        <v>5.108910908645012</v>
       </c>
       <c r="F19">
-        <v>5.108020421166935</v>
+        <v>5.109631830802771</v>
       </c>
       <c r="G19">
-        <v>5.107080150881147</v>
+        <v>5.11193395428767</v>
       </c>
       <c r="H19">
-        <v>5.110157678182184</v>
+        <v>5.111053666298283</v>
       </c>
       <c r="I19">
-        <v>5.108635859509281</v>
+        <v>5.109588203232128</v>
       </c>
       <c r="J19">
-        <v>5.108886040124766</v>
+        <v>5.107810953061803</v>
       </c>
       <c r="K19">
-        <v>5.108922181455591</v>
+        <v>5.10922941857446</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1117,34 +1117,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.2116320453668024</v>
+        <v>0.1324133553472293</v>
       </c>
       <c r="C20">
-        <v>0.1456869141401416</v>
+        <v>0.1328371572755871</v>
       </c>
       <c r="D20">
-        <v>0.09585758882284506</v>
+        <v>0.05118762380836428</v>
       </c>
       <c r="E20">
-        <v>-0.1299342126396376</v>
+        <v>-0.09633486754725967</v>
       </c>
       <c r="F20">
-        <v>-0.1473722416772844</v>
+        <v>-0.03904123956900606</v>
       </c>
       <c r="G20">
-        <v>0.1060138318371217</v>
+        <v>0.0524745477309605</v>
       </c>
       <c r="H20">
-        <v>-0.1306626672969223</v>
+        <v>-0.0112566915984915</v>
       </c>
       <c r="I20">
-        <v>0.05629860697762571</v>
+        <v>0.2504562101824461</v>
       </c>
       <c r="J20">
-        <v>0.04088534002390976</v>
+        <v>-0.007056925270282208</v>
       </c>
       <c r="K20">
-        <v>-0.04727469295563606</v>
+        <v>0.07969269348340677</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1152,34 +1152,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4714339237595677</v>
+        <v>0.4700157997264651</v>
       </c>
       <c r="C21">
-        <v>0.4666022366363974</v>
+        <v>0.4701253495676302</v>
       </c>
       <c r="D21">
-        <v>0.4657426745662162</v>
+        <v>0.4671535042294674</v>
       </c>
       <c r="E21">
-        <v>0.4705921220262674</v>
+        <v>0.4685985151338783</v>
       </c>
       <c r="F21">
-        <v>0.4652275086401936</v>
+        <v>0.4665790770971511</v>
       </c>
       <c r="G21">
-        <v>0.4663660606929347</v>
+        <v>0.4714427342763881</v>
       </c>
       <c r="H21">
-        <v>0.4670375048529805</v>
+        <v>0.4674770048893905</v>
       </c>
       <c r="I21">
-        <v>0.4656810668672136</v>
+        <v>0.4725311305288477</v>
       </c>
       <c r="J21">
-        <v>0.4663360374332519</v>
+        <v>0.4694740432228472</v>
       </c>
       <c r="K21">
-        <v>0.4712716529556545</v>
+        <v>0.4697261907720746</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1187,34 +1187,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.34969986740616</v>
+        <v>28.3503960865675</v>
       </c>
       <c r="C22">
-        <v>28.34804303139281</v>
+        <v>28.34974647385031</v>
       </c>
       <c r="D22">
-        <v>28.34608042795394</v>
+        <v>28.34717887525746</v>
       </c>
       <c r="E22">
-        <v>28.34757135893957</v>
+        <v>28.34994216741114</v>
       </c>
       <c r="F22">
-        <v>28.34937965590751</v>
+        <v>28.34775950250226</v>
       </c>
       <c r="G22">
-        <v>28.34701356710595</v>
+        <v>28.35249943762241</v>
       </c>
       <c r="H22">
-        <v>28.35013640518989</v>
+        <v>28.34746248936294</v>
       </c>
       <c r="I22">
-        <v>28.35352651306152</v>
+        <v>28.34938640843791</v>
       </c>
       <c r="J22">
-        <v>28.34973124719988</v>
+        <v>28.34854767964319</v>
       </c>
       <c r="K22">
-        <v>28.34960326290361</v>
+        <v>28.35046137697946</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1222,34 +1222,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.29992211996989</v>
+        <v>29.29949725238135</v>
       </c>
       <c r="C23">
-        <v>29.29998593122462</v>
+        <v>29.29981193341716</v>
       </c>
       <c r="D23">
-        <v>29.29992355892497</v>
+        <v>29.2993891657513</v>
       </c>
       <c r="E23">
-        <v>29.29992811076993</v>
+        <v>29.29990086160204</v>
       </c>
       <c r="F23">
-        <v>29.29991212757146</v>
+        <v>29.2995960721451</v>
       </c>
       <c r="G23">
-        <v>29.29966092342943</v>
+        <v>29.29982115425189</v>
       </c>
       <c r="H23">
-        <v>29.29952693450764</v>
+        <v>29.29974150688724</v>
       </c>
       <c r="I23">
-        <v>29.29990678828567</v>
+        <v>29.29995811040562</v>
       </c>
       <c r="J23">
-        <v>29.29989835238034</v>
+        <v>29.29974324671636</v>
       </c>
       <c r="K23">
-        <v>29.29944180754087</v>
+        <v>29.299574704669</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1257,34 +1257,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08193734464827018</v>
+        <v>0.08174658975315266</v>
       </c>
       <c r="C24">
-        <v>0.08173362425230453</v>
+        <v>0.08170380220051141</v>
       </c>
       <c r="D24">
-        <v>0.08170919537541398</v>
+        <v>0.08169140504162738</v>
       </c>
       <c r="E24">
-        <v>0.08195381228979351</v>
+        <v>0.08179647306975586</v>
       </c>
       <c r="F24">
-        <v>0.08189228550450754</v>
+        <v>0.0815718403828106</v>
       </c>
       <c r="G24">
-        <v>0.08179881135573124</v>
+        <v>0.08176535651592352</v>
       </c>
       <c r="H24">
-        <v>0.08211748540310322</v>
+        <v>0.08171513684382919</v>
       </c>
       <c r="I24">
-        <v>0.0818274794548932</v>
+        <v>0.08179026338080976</v>
       </c>
       <c r="J24">
-        <v>0.08185916301977177</v>
+        <v>0.08202508220162838</v>
       </c>
       <c r="K24">
-        <v>0.0815719359217746</v>
+        <v>0.08179395886351161</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1292,34 +1292,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4546424153120914</v>
+        <v>0.4547600079597479</v>
       </c>
       <c r="C25">
-        <v>0.4547817962135575</v>
+        <v>0.4544831086340252</v>
       </c>
       <c r="D25">
-        <v>0.4544299103647176</v>
+        <v>0.4546530017005919</v>
       </c>
       <c r="E25">
-        <v>0.4550057597262343</v>
+        <v>0.4545503793727729</v>
       </c>
       <c r="F25">
-        <v>0.4547940930914486</v>
+        <v>0.4549104392728964</v>
       </c>
       <c r="G25">
-        <v>0.4544433113156088</v>
+        <v>0.4549378254922268</v>
       </c>
       <c r="H25">
-        <v>0.4546629487297013</v>
+        <v>0.4547018354555909</v>
       </c>
       <c r="I25">
-        <v>0.4547513333653835</v>
+        <v>0.4546528606764303</v>
       </c>
       <c r="J25">
-        <v>0.4545551292572754</v>
+        <v>0.454801514652259</v>
       </c>
       <c r="K25">
-        <v>0.4544412132004367</v>
+        <v>0.4544479986248605</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1327,34 +1327,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.705594475203555</v>
+        <v>1.707703506651509</v>
       </c>
       <c r="C26">
-        <v>1.70586636027622</v>
+        <v>1.707691745726056</v>
       </c>
       <c r="D26">
-        <v>1.706603564709175</v>
+        <v>1.706117019046336</v>
       </c>
       <c r="E26">
-        <v>1.706714984422249</v>
+        <v>1.707515585143704</v>
       </c>
       <c r="F26">
-        <v>1.707823841228685</v>
+        <v>1.707332040637464</v>
       </c>
       <c r="G26">
-        <v>1.705663136081387</v>
+        <v>1.706727093906057</v>
       </c>
       <c r="H26">
-        <v>1.706372869181645</v>
+        <v>1.706213745649687</v>
       </c>
       <c r="I26">
-        <v>1.706446825596812</v>
+        <v>1.705094302734099</v>
       </c>
       <c r="J26">
-        <v>1.7050831792074</v>
+        <v>1.707396743575549</v>
       </c>
       <c r="K26">
-        <v>1.707140640851524</v>
+        <v>1.707522414691627</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1362,34 +1362,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.592368918162386</v>
+        <v>3.593481302831767</v>
       </c>
       <c r="C27">
-        <v>3.596506307027389</v>
+        <v>3.597590800280476</v>
       </c>
       <c r="D27">
-        <v>3.592489704879585</v>
+        <v>3.598657451636681</v>
       </c>
       <c r="E27">
-        <v>3.594284267150496</v>
+        <v>3.597470665698645</v>
       </c>
       <c r="F27">
-        <v>3.596194681012778</v>
+        <v>3.598732142913191</v>
       </c>
       <c r="G27">
-        <v>3.593598679423529</v>
+        <v>3.59844521142618</v>
       </c>
       <c r="H27">
-        <v>3.594525322887383</v>
+        <v>3.595291464888065</v>
       </c>
       <c r="I27">
-        <v>3.59669062566285</v>
+        <v>3.596205275631936</v>
       </c>
       <c r="J27">
-        <v>3.59606153197772</v>
+        <v>3.596863413265817</v>
       </c>
       <c r="K27">
-        <v>3.596367714154538</v>
+        <v>3.596291359354466</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1397,34 +1397,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.06653635942964</v>
+        <v>12.06383534319114</v>
       </c>
       <c r="C28">
-        <v>12.06570632240781</v>
+        <v>12.06521140626647</v>
       </c>
       <c r="D28">
-        <v>12.06716251252658</v>
+        <v>12.06587994686345</v>
       </c>
       <c r="E28">
-        <v>12.06686295903804</v>
+        <v>12.0682876407224</v>
       </c>
       <c r="F28">
-        <v>12.06754433494923</v>
+        <v>12.06630324778098</v>
       </c>
       <c r="G28">
-        <v>12.06751331083881</v>
+        <v>12.06660757437342</v>
       </c>
       <c r="H28">
-        <v>12.06500700375633</v>
+        <v>12.06543645307338</v>
       </c>
       <c r="I28">
-        <v>12.06644293497837</v>
+        <v>12.06688977781208</v>
       </c>
       <c r="J28">
-        <v>12.06823499740583</v>
+        <v>12.06720934196149</v>
       </c>
       <c r="K28">
-        <v>12.06564954447934</v>
+        <v>12.06491220049909</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1432,34 +1432,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.71481999595152</v>
+        <v>34.14603570461778</v>
       </c>
       <c r="C29">
-        <v>34.40179334246634</v>
+        <v>32.26978402882249</v>
       </c>
       <c r="D29">
-        <v>33.73201458080746</v>
+        <v>33.81107365568219</v>
       </c>
       <c r="E29">
-        <v>33.12789810114613</v>
+        <v>33.13077653649592</v>
       </c>
       <c r="F29">
-        <v>33.07977216927241</v>
+        <v>33.22928466163405</v>
       </c>
       <c r="G29">
-        <v>33.54997401483654</v>
+        <v>32.88684030288837</v>
       </c>
       <c r="H29">
-        <v>33.58400560420415</v>
+        <v>33.34493675625605</v>
       </c>
       <c r="I29">
-        <v>33.34797128884055</v>
+        <v>34.05497754656431</v>
       </c>
       <c r="J29">
-        <v>33.07637590469347</v>
+        <v>33.69985762877778</v>
       </c>
       <c r="K29">
-        <v>33.88337302426233</v>
+        <v>33.62311331744729</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1467,34 +1467,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73833.08304917994</v>
+        <v>73829.71093252071</v>
       </c>
       <c r="C30">
-        <v>73868.53096441955</v>
+        <v>73829.63604058954</v>
       </c>
       <c r="D30">
-        <v>73764.63615978623</v>
+        <v>73828.41793003421</v>
       </c>
       <c r="E30">
-        <v>73753.18532026226</v>
+        <v>73830.92313660288</v>
       </c>
       <c r="F30">
-        <v>73866.9601351523</v>
+        <v>73828.7040099259</v>
       </c>
       <c r="G30">
-        <v>73830.14403562009</v>
+        <v>73828.50699865502</v>
       </c>
       <c r="H30">
-        <v>73871.23416343324</v>
+        <v>73830.36091516042</v>
       </c>
       <c r="I30">
-        <v>73785.39942194283</v>
+        <v>73828.17861904409</v>
       </c>
       <c r="J30">
-        <v>73910.16964409599</v>
+        <v>73829.8527951484</v>
       </c>
       <c r="K30">
-        <v>73823.83583773361</v>
+        <v>73826.12022631608</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1502,34 +1502,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.094950182064149</v>
+        <v>6.094284955736032</v>
       </c>
       <c r="C31">
-        <v>6.100176764192717</v>
+        <v>6.096754348103729</v>
       </c>
       <c r="D31">
-        <v>6.095708443434438</v>
+        <v>6.095241783170121</v>
       </c>
       <c r="E31">
-        <v>6.094418489551487</v>
+        <v>6.097225077345534</v>
       </c>
       <c r="F31">
-        <v>6.09358957778096</v>
+        <v>6.094347217377899</v>
       </c>
       <c r="G31">
-        <v>6.097688828145354</v>
+        <v>6.096035433667985</v>
       </c>
       <c r="H31">
-        <v>6.095962020231683</v>
+        <v>6.097752705844488</v>
       </c>
       <c r="I31">
-        <v>6.100963056833723</v>
+        <v>6.097612954487511</v>
       </c>
       <c r="J31">
-        <v>6.09964177845472</v>
+        <v>6.097786880259595</v>
       </c>
       <c r="K31">
-        <v>6.102297150310259</v>
+        <v>6.096403344119373</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87.79954054668578</v>
+        <v>88.57855820089982</v>
       </c>
       <c r="C32">
-        <v>88.38236884985625</v>
+        <v>88.05621252861096</v>
       </c>
       <c r="D32">
-        <v>87.63967753452461</v>
+        <v>87.93719225694664</v>
       </c>
       <c r="E32">
-        <v>88.10044071904308</v>
+        <v>87.6703527526241</v>
       </c>
       <c r="F32">
-        <v>87.93782724552588</v>
+        <v>88.00296975414125</v>
       </c>
       <c r="G32">
-        <v>88.19931080868989</v>
+        <v>87.73528691898473</v>
       </c>
       <c r="H32">
-        <v>87.32523450711402</v>
+        <v>88.00974678569146</v>
       </c>
       <c r="I32">
-        <v>87.88736185554575</v>
+        <v>87.90290950038045</v>
       </c>
       <c r="J32">
-        <v>87.96355374166792</v>
+        <v>87.96722779893344</v>
       </c>
       <c r="K32">
-        <v>87.83456655828368</v>
+        <v>88.24183443303092</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1572,34 +1572,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>50.00041780811303</v>
+        <v>49.99843517431462</v>
       </c>
       <c r="C33">
-        <v>49.99772158526948</v>
+        <v>49.99739473707395</v>
       </c>
       <c r="D33">
-        <v>50.00230365252542</v>
+        <v>49.99802655984951</v>
       </c>
       <c r="E33">
-        <v>50.0017343813136</v>
+        <v>50.00056769089787</v>
       </c>
       <c r="F33">
-        <v>49.99824090219403</v>
+        <v>49.99704119433527</v>
       </c>
       <c r="G33">
-        <v>49.99902702985916</v>
+        <v>49.99913638477914</v>
       </c>
       <c r="H33">
-        <v>50.00017648139909</v>
+        <v>50.00168968657443</v>
       </c>
       <c r="I33">
-        <v>49.99745453179378</v>
+        <v>49.99960672183818</v>
       </c>
       <c r="J33">
-        <v>50.00109479256857</v>
+        <v>50.00734347802332</v>
       </c>
       <c r="K33">
-        <v>50.00184872984421</v>
+        <v>50.00066299428491</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -487,34 +487,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07817971878511421</v>
+        <v>0.07829464001795738</v>
       </c>
       <c r="C2">
-        <v>0.0783311784570309</v>
+        <v>0.07877937800938027</v>
       </c>
       <c r="D2">
-        <v>0.07882964468300416</v>
+        <v>0.07864014179500259</v>
       </c>
       <c r="E2">
-        <v>0.07898575576335547</v>
+        <v>0.07845946774641657</v>
       </c>
       <c r="F2">
-        <v>0.0789021773171731</v>
+        <v>0.07839212744846909</v>
       </c>
       <c r="G2">
-        <v>0.07841102167452746</v>
+        <v>0.07822152187813221</v>
       </c>
       <c r="H2">
-        <v>0.07816076904529083</v>
+        <v>0.07854383010459076</v>
       </c>
       <c r="I2">
-        <v>0.07902881765877712</v>
+        <v>0.07873393418916634</v>
       </c>
       <c r="J2">
-        <v>0.07869720463851246</v>
+        <v>0.07847923265723404</v>
       </c>
       <c r="K2">
-        <v>0.07807812593315568</v>
+        <v>0.0789098965158269</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -522,34 +522,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.8498244400453</v>
+        <v>25.85019593345956</v>
       </c>
       <c r="C3">
-        <v>25.84895386915952</v>
+        <v>25.85070029556539</v>
       </c>
       <c r="D3">
-        <v>25.85227483928836</v>
+        <v>25.85099975479828</v>
       </c>
       <c r="E3">
-        <v>25.84965830012807</v>
+        <v>25.84861473840749</v>
       </c>
       <c r="F3">
-        <v>25.84939258695979</v>
+        <v>25.84971866607145</v>
       </c>
       <c r="G3">
-        <v>25.84872764592898</v>
+        <v>25.85125078759752</v>
       </c>
       <c r="H3">
-        <v>25.84893176529916</v>
+        <v>25.85014495677666</v>
       </c>
       <c r="I3">
-        <v>25.84849984402901</v>
+        <v>25.84863092719272</v>
       </c>
       <c r="J3">
-        <v>25.84851247639706</v>
+        <v>25.85136409568195</v>
       </c>
       <c r="K3">
-        <v>25.84989010061628</v>
+        <v>25.8508551500793</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -557,34 +557,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.6999409060293</v>
+        <v>151.6999346847188</v>
       </c>
       <c r="C4">
-        <v>151.6996680895456</v>
+        <v>151.7000764647251</v>
       </c>
       <c r="D4">
-        <v>151.7001258504768</v>
+        <v>151.7002375642224</v>
       </c>
       <c r="E4">
-        <v>151.7002862504015</v>
+        <v>151.7001719018875</v>
       </c>
       <c r="F4">
-        <v>151.6999693512639</v>
+        <v>151.7003755474327</v>
       </c>
       <c r="G4">
-        <v>151.6999072420455</v>
+        <v>151.7003002664522</v>
       </c>
       <c r="H4">
-        <v>151.6999704693069</v>
+        <v>151.6996346577992</v>
       </c>
       <c r="I4">
-        <v>151.7000981444945</v>
+        <v>151.700029767051</v>
       </c>
       <c r="J4">
-        <v>151.6997469824527</v>
+        <v>151.7001880554535</v>
       </c>
       <c r="K4">
-        <v>151.700202999736</v>
+        <v>151.6998287745109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -592,34 +592,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1862189255872833</v>
+        <v>0.1860831622481827</v>
       </c>
       <c r="C5">
-        <v>0.1858928912611811</v>
+        <v>0.1862753780545544</v>
       </c>
       <c r="D5">
-        <v>0.1859445013082248</v>
+        <v>0.1857153692294063</v>
       </c>
       <c r="E5">
-        <v>0.1858468200282911</v>
+        <v>0.1858021064205384</v>
       </c>
       <c r="F5">
-        <v>0.1862223951108492</v>
+        <v>0.1859662790003875</v>
       </c>
       <c r="G5">
-        <v>0.1860628828289331</v>
+        <v>0.1858419944894474</v>
       </c>
       <c r="H5">
-        <v>0.1863756125851548</v>
+        <v>0.1862059983888287</v>
       </c>
       <c r="I5">
-        <v>0.1858475716368888</v>
+        <v>0.185682111945499</v>
       </c>
       <c r="J5">
-        <v>0.1860806893656513</v>
+        <v>0.185744846220143</v>
       </c>
       <c r="K5">
-        <v>0.1858205056049669</v>
+        <v>0.1862053133238964</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -627,34 +627,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.259978956548998</v>
+        <v>2.26001763044322</v>
       </c>
       <c r="C6">
-        <v>2.259947803643975</v>
+        <v>2.260004186377163</v>
       </c>
       <c r="D6">
-        <v>2.260025809546947</v>
+        <v>2.260054718534799</v>
       </c>
       <c r="E6">
-        <v>2.259991621672407</v>
+        <v>2.260063664649345</v>
       </c>
       <c r="F6">
-        <v>2.259991958868862</v>
+        <v>2.25999867772061</v>
       </c>
       <c r="G6">
-        <v>2.259995681448602</v>
+        <v>2.259959387229524</v>
       </c>
       <c r="H6">
-        <v>2.260003153490685</v>
+        <v>2.259987328146046</v>
       </c>
       <c r="I6">
-        <v>2.260001686314588</v>
+        <v>2.260002012944936</v>
       </c>
       <c r="J6">
-        <v>2.259988627308207</v>
+        <v>2.260034208203687</v>
       </c>
       <c r="K6">
-        <v>2.259967125538838</v>
+        <v>2.260024586863321</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -662,34 +662,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.455745646189116</v>
+        <v>3.453675847372491</v>
       </c>
       <c r="C7">
-        <v>3.4538418019611</v>
+        <v>3.455541528031846</v>
       </c>
       <c r="D7">
-        <v>3.457080227861884</v>
+        <v>3.457999755294844</v>
       </c>
       <c r="E7">
-        <v>3.447500445080942</v>
+        <v>3.456235084187883</v>
       </c>
       <c r="F7">
-        <v>3.45747422693751</v>
+        <v>3.452212508390573</v>
       </c>
       <c r="G7">
-        <v>3.458169988661405</v>
+        <v>3.457980330006651</v>
       </c>
       <c r="H7">
-        <v>3.467814388736302</v>
+        <v>3.451763697386524</v>
       </c>
       <c r="I7">
-        <v>3.458615841995616</v>
+        <v>3.464101212240302</v>
       </c>
       <c r="J7">
-        <v>3.464834289877412</v>
+        <v>3.452743040987104</v>
       </c>
       <c r="K7">
-        <v>3.448615730143163</v>
+        <v>3.447870103102793</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -697,34 +697,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.34149517969925</v>
+        <v>28.34962624529889</v>
       </c>
       <c r="C8">
-        <v>28.34600323693632</v>
+        <v>28.344000833388</v>
       </c>
       <c r="D8">
-        <v>28.34203323028843</v>
+        <v>28.34835403664405</v>
       </c>
       <c r="E8">
-        <v>28.34682029236226</v>
+        <v>28.35635819023252</v>
       </c>
       <c r="F8">
-        <v>28.35125499204733</v>
+        <v>28.3519181595647</v>
       </c>
       <c r="G8">
-        <v>28.3493695122859</v>
+        <v>28.34910650015055</v>
       </c>
       <c r="H8">
-        <v>28.34484277081267</v>
+        <v>28.34433914755335</v>
       </c>
       <c r="I8">
-        <v>28.34437322392657</v>
+        <v>28.35180112008402</v>
       </c>
       <c r="J8">
-        <v>28.34862447957934</v>
+        <v>28.35099152884476</v>
       </c>
       <c r="K8">
-        <v>28.34653999622123</v>
+        <v>28.35002394003423</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -732,34 +732,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.054893060672978</v>
+        <v>1.019583450301445</v>
       </c>
       <c r="C9">
-        <v>0.9901695260328268</v>
+        <v>0.9822501316885365</v>
       </c>
       <c r="D9">
-        <v>0.9567270305010259</v>
+        <v>0.9261442989850726</v>
       </c>
       <c r="E9">
-        <v>0.9470885579604263</v>
+        <v>1.047552846343779</v>
       </c>
       <c r="F9">
-        <v>0.9933299886754769</v>
+        <v>0.9520601549159953</v>
       </c>
       <c r="G9">
-        <v>1.035350823035597</v>
+        <v>1.006742665056656</v>
       </c>
       <c r="H9">
-        <v>0.9997948843247114</v>
+        <v>1.044927020788788</v>
       </c>
       <c r="I9">
-        <v>0.9441960484205024</v>
+        <v>0.9707211411912515</v>
       </c>
       <c r="J9">
-        <v>0.9849747474785377</v>
+        <v>0.9545144623237745</v>
       </c>
       <c r="K9">
-        <v>1.087694994123495</v>
+        <v>1.084428070334901</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -767,34 +767,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.020750325171829</v>
+        <v>1.007534181037856</v>
       </c>
       <c r="C10">
-        <v>0.9728458567486176</v>
+        <v>0.9546461279385999</v>
       </c>
       <c r="D10">
-        <v>1.003783298085236</v>
+        <v>0.9719281590415387</v>
       </c>
       <c r="E10">
-        <v>1.026090065753483</v>
+        <v>0.9721441075529493</v>
       </c>
       <c r="F10">
-        <v>1.017438874152209</v>
+        <v>1.046107470645524</v>
       </c>
       <c r="G10">
-        <v>1.046358272401138</v>
+        <v>1.034610389099874</v>
       </c>
       <c r="H10">
-        <v>0.9164073345367773</v>
+        <v>0.9371348491067988</v>
       </c>
       <c r="I10">
-        <v>0.9611634807149179</v>
+        <v>0.9632213719002793</v>
       </c>
       <c r="J10">
-        <v>0.9723198136725411</v>
+        <v>1.072636439813636</v>
       </c>
       <c r="K10">
-        <v>1.037572032976262</v>
+        <v>0.9336179197863443</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -802,34 +802,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.147879753816575</v>
+        <v>2.148271484035093</v>
       </c>
       <c r="C11">
-        <v>2.14829058063013</v>
+        <v>2.147482920061125</v>
       </c>
       <c r="D11">
-        <v>2.148080529812282</v>
+        <v>2.148346146262153</v>
       </c>
       <c r="E11">
-        <v>2.147351018910137</v>
+        <v>2.147891282509959</v>
       </c>
       <c r="F11">
-        <v>2.147855378297125</v>
+        <v>2.148129718447739</v>
       </c>
       <c r="G11">
-        <v>2.147987784724509</v>
+        <v>2.148097846148703</v>
       </c>
       <c r="H11">
-        <v>2.147658414761472</v>
+        <v>2.147756030947023</v>
       </c>
       <c r="I11">
-        <v>2.148187721279552</v>
+        <v>2.148159141364875</v>
       </c>
       <c r="J11">
-        <v>2.147999747456856</v>
+        <v>2.147436942348215</v>
       </c>
       <c r="K11">
-        <v>2.14798778326946</v>
+        <v>2.147558505758274</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -837,34 +837,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9139612738735129</v>
+        <v>0.9139772165975671</v>
       </c>
       <c r="C12">
-        <v>0.9141308141535694</v>
+        <v>0.9141457440875383</v>
       </c>
       <c r="D12">
-        <v>0.9137570331794836</v>
+        <v>0.9138312621800739</v>
       </c>
       <c r="E12">
-        <v>0.9142453600793168</v>
+        <v>0.9139871782117261</v>
       </c>
       <c r="F12">
-        <v>0.9138734621969352</v>
+        <v>0.914051946331627</v>
       </c>
       <c r="G12">
-        <v>0.9139983384681722</v>
+        <v>0.914302973228477</v>
       </c>
       <c r="H12">
-        <v>0.9142160795722186</v>
+        <v>0.9140506423466492</v>
       </c>
       <c r="I12">
-        <v>0.913514465144264</v>
+        <v>0.9142077091995608</v>
       </c>
       <c r="J12">
-        <v>0.9137610718695441</v>
+        <v>0.9138909900399609</v>
       </c>
       <c r="K12">
-        <v>0.914148953896736</v>
+        <v>0.9143307422070915</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07883753746753003</v>
+        <v>0.07853833481992255</v>
       </c>
       <c r="C13">
-        <v>0.07878346463371405</v>
+        <v>0.07861817272536452</v>
       </c>
       <c r="D13">
-        <v>0.0783994454532482</v>
+        <v>0.07841600278424737</v>
       </c>
       <c r="E13">
-        <v>0.07846966065914462</v>
+        <v>0.07777917458271301</v>
       </c>
       <c r="F13">
-        <v>0.07851219254221967</v>
+        <v>0.07871781409027048</v>
       </c>
       <c r="G13">
-        <v>0.07834215430464123</v>
+        <v>0.07868380093850569</v>
       </c>
       <c r="H13">
-        <v>0.07814859624813368</v>
+        <v>0.07878864845778275</v>
       </c>
       <c r="I13">
-        <v>0.07855355496758679</v>
+        <v>0.07886209056618407</v>
       </c>
       <c r="J13">
-        <v>0.07872894157016369</v>
+        <v>0.07879170469206687</v>
       </c>
       <c r="K13">
-        <v>0.07867052785454667</v>
+        <v>0.07831237626461238</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -977,34 +977,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5576565864975382</v>
+        <v>0.5573914293617266</v>
       </c>
       <c r="C16">
-        <v>0.5633100609088539</v>
+        <v>0.5574819437438194</v>
       </c>
       <c r="D16">
-        <v>0.5588815115937749</v>
+        <v>0.5559152672228114</v>
       </c>
       <c r="E16">
-        <v>0.5576867962724614</v>
+        <v>0.5578127642838832</v>
       </c>
       <c r="F16">
-        <v>0.560422616376396</v>
+        <v>0.557194318724387</v>
       </c>
       <c r="G16">
-        <v>0.5588559601955254</v>
+        <v>0.5560378759442558</v>
       </c>
       <c r="H16">
-        <v>0.5572212847490884</v>
+        <v>0.5574108306746501</v>
       </c>
       <c r="I16">
-        <v>0.5601890530553552</v>
+        <v>0.5600151223014637</v>
       </c>
       <c r="J16">
-        <v>0.5585722765358336</v>
+        <v>0.5593414678296798</v>
       </c>
       <c r="K16">
-        <v>0.5564687248911931</v>
+        <v>0.5547791093697644</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1012,34 +1012,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1830040952688807</v>
+        <v>0.1765566216305918</v>
       </c>
       <c r="C17">
-        <v>0.1771381558664984</v>
+        <v>0.1790828072834728</v>
       </c>
       <c r="D17">
-        <v>0.1765992904134902</v>
+        <v>0.1768632443268893</v>
       </c>
       <c r="E17">
-        <v>0.1732303950356444</v>
+        <v>0.1755092347525782</v>
       </c>
       <c r="F17">
-        <v>0.1773587591978944</v>
+        <v>0.1813022432812508</v>
       </c>
       <c r="G17">
-        <v>0.1799261370085826</v>
+        <v>0.1755682698221086</v>
       </c>
       <c r="H17">
-        <v>0.1784917558264351</v>
+        <v>0.1786419316875567</v>
       </c>
       <c r="I17">
-        <v>0.1786046820764243</v>
+        <v>0.1787515149482427</v>
       </c>
       <c r="J17">
-        <v>0.1774204624625202</v>
+        <v>0.1793819466262752</v>
       </c>
       <c r="K17">
-        <v>0.1800391234001976</v>
+        <v>0.1781278540065145</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1047,34 +1047,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1268943294111833</v>
+        <v>0.1287221680001877</v>
       </c>
       <c r="C18">
-        <v>0.1232629646916496</v>
+        <v>0.1255264507806259</v>
       </c>
       <c r="D18">
-        <v>0.1249704558363358</v>
+        <v>0.1259292100341978</v>
       </c>
       <c r="E18">
-        <v>0.1270583826580347</v>
+        <v>0.1251207486136789</v>
       </c>
       <c r="F18">
-        <v>0.1274516940911052</v>
+        <v>0.1292148721073986</v>
       </c>
       <c r="G18">
-        <v>0.1299268904040515</v>
+        <v>0.1267313761644601</v>
       </c>
       <c r="H18">
-        <v>0.1245316678432441</v>
+        <v>0.1243981675619309</v>
       </c>
       <c r="I18">
-        <v>0.1276538861124042</v>
+        <v>0.1311479043933923</v>
       </c>
       <c r="J18">
-        <v>0.1268456107855451</v>
+        <v>0.125248699610824</v>
       </c>
       <c r="K18">
-        <v>0.1237322334651028</v>
+        <v>0.1283314698565677</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1082,34 +1082,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.109179684782307</v>
+        <v>5.105778973152722</v>
       </c>
       <c r="C19">
-        <v>5.106024282484106</v>
+        <v>5.109442297168108</v>
       </c>
       <c r="D19">
-        <v>5.111998841183548</v>
+        <v>5.108964955443522</v>
       </c>
       <c r="E19">
-        <v>5.108910908645012</v>
+        <v>5.107837790213064</v>
       </c>
       <c r="F19">
-        <v>5.109631830802771</v>
+        <v>5.113076611127469</v>
       </c>
       <c r="G19">
-        <v>5.11193395428767</v>
+        <v>5.107342658957783</v>
       </c>
       <c r="H19">
-        <v>5.111053666298283</v>
+        <v>5.106851266750354</v>
       </c>
       <c r="I19">
-        <v>5.109588203232128</v>
+        <v>5.108736476894448</v>
       </c>
       <c r="J19">
-        <v>5.107810953061803</v>
+        <v>5.110864059677319</v>
       </c>
       <c r="K19">
-        <v>5.10922941857446</v>
+        <v>5.106624826647602</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1117,34 +1117,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1324133553472293</v>
+        <v>0.03498530696886858</v>
       </c>
       <c r="C20">
-        <v>0.1328371572755871</v>
+        <v>0.04610574957989958</v>
       </c>
       <c r="D20">
-        <v>0.05118762380836428</v>
+        <v>0.01811912589879062</v>
       </c>
       <c r="E20">
-        <v>-0.09633486754725967</v>
+        <v>0.19490294959918</v>
       </c>
       <c r="F20">
-        <v>-0.03904123956900606</v>
+        <v>0.0119782390300526</v>
       </c>
       <c r="G20">
-        <v>0.0524745477309605</v>
+        <v>-0.1735601647493568</v>
       </c>
       <c r="H20">
-        <v>-0.0112566915984915</v>
+        <v>0.1159149686986259</v>
       </c>
       <c r="I20">
-        <v>0.2504562101824461</v>
+        <v>0.008905986893584577</v>
       </c>
       <c r="J20">
-        <v>-0.007056925270282208</v>
+        <v>-0.02052641133729731</v>
       </c>
       <c r="K20">
-        <v>0.07969269348340677</v>
+        <v>-0.1335436431116351</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1152,34 +1152,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4700157997264651</v>
+        <v>0.4717701502357043</v>
       </c>
       <c r="C21">
-        <v>0.4701253495676302</v>
+        <v>0.4673506793146259</v>
       </c>
       <c r="D21">
-        <v>0.4671535042294674</v>
+        <v>0.4696720409254531</v>
       </c>
       <c r="E21">
-        <v>0.4685985151338783</v>
+        <v>0.4677877521550363</v>
       </c>
       <c r="F21">
-        <v>0.4665790770971511</v>
+        <v>0.4690655900286287</v>
       </c>
       <c r="G21">
-        <v>0.4714427342763881</v>
+        <v>0.4688643044983773</v>
       </c>
       <c r="H21">
-        <v>0.4674770048893905</v>
+        <v>0.4676974214842532</v>
       </c>
       <c r="I21">
-        <v>0.4725311305288477</v>
+        <v>0.4704527467522187</v>
       </c>
       <c r="J21">
-        <v>0.4694740432228472</v>
+        <v>0.4662722521868444</v>
       </c>
       <c r="K21">
-        <v>0.4697261907720746</v>
+        <v>0.4676686963059437</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1187,34 +1187,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3503960865675</v>
+        <v>28.34777339226817</v>
       </c>
       <c r="C22">
-        <v>28.34974647385031</v>
+        <v>28.35274637830266</v>
       </c>
       <c r="D22">
-        <v>28.34717887525746</v>
+        <v>28.35219107947395</v>
       </c>
       <c r="E22">
-        <v>28.34994216741114</v>
+        <v>28.35472398239264</v>
       </c>
       <c r="F22">
-        <v>28.34775950250226</v>
+        <v>28.34942630968719</v>
       </c>
       <c r="G22">
-        <v>28.35249943762241</v>
+        <v>28.35337801944043</v>
       </c>
       <c r="H22">
-        <v>28.34746248936294</v>
+        <v>28.34793007244464</v>
       </c>
       <c r="I22">
-        <v>28.34938640843791</v>
+        <v>28.35152330430449</v>
       </c>
       <c r="J22">
-        <v>28.34854767964319</v>
+        <v>28.34854285970777</v>
       </c>
       <c r="K22">
-        <v>28.35046137697946</v>
+        <v>28.35073385585933</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1222,34 +1222,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.29949725238135</v>
+        <v>29.29981278272576</v>
       </c>
       <c r="C23">
-        <v>29.29981193341716</v>
+        <v>29.30003614354623</v>
       </c>
       <c r="D23">
-        <v>29.2993891657513</v>
+        <v>29.29969333681713</v>
       </c>
       <c r="E23">
-        <v>29.29990086160204</v>
+        <v>29.29936336139002</v>
       </c>
       <c r="F23">
-        <v>29.2995960721451</v>
+        <v>29.29979820362986</v>
       </c>
       <c r="G23">
-        <v>29.29982115425189</v>
+        <v>29.29973687814825</v>
       </c>
       <c r="H23">
-        <v>29.29974150688724</v>
+        <v>29.29955298175352</v>
       </c>
       <c r="I23">
-        <v>29.29995811040562</v>
+        <v>29.30012856157847</v>
       </c>
       <c r="J23">
-        <v>29.29974324671636</v>
+        <v>29.30003950881936</v>
       </c>
       <c r="K23">
-        <v>29.299574704669</v>
+        <v>29.30002670310249</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1257,34 +1257,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08174658975315266</v>
+        <v>0.08224020047053716</v>
       </c>
       <c r="C24">
-        <v>0.08170380220051141</v>
+        <v>0.08194636649499315</v>
       </c>
       <c r="D24">
-        <v>0.08169140504162738</v>
+        <v>0.08186422590092685</v>
       </c>
       <c r="E24">
-        <v>0.08179647306975586</v>
+        <v>0.08164065438815642</v>
       </c>
       <c r="F24">
-        <v>0.0815718403828106</v>
+        <v>0.0818511814526624</v>
       </c>
       <c r="G24">
-        <v>0.08176535651592352</v>
+        <v>0.08179044892640952</v>
       </c>
       <c r="H24">
-        <v>0.08171513684382919</v>
+        <v>0.08182374031526424</v>
       </c>
       <c r="I24">
-        <v>0.08179026338080976</v>
+        <v>0.08154988090471246</v>
       </c>
       <c r="J24">
-        <v>0.08202508220162838</v>
+        <v>0.08155819761380108</v>
       </c>
       <c r="K24">
-        <v>0.08179395886351161</v>
+        <v>0.08180848758817866</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1292,34 +1292,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4547600079597479</v>
+        <v>0.454874150029585</v>
       </c>
       <c r="C25">
-        <v>0.4544831086340252</v>
+        <v>0.4545835476838459</v>
       </c>
       <c r="D25">
-        <v>0.4546530017005919</v>
+        <v>0.4546264619438994</v>
       </c>
       <c r="E25">
-        <v>0.4545503793727729</v>
+        <v>0.4545633222288285</v>
       </c>
       <c r="F25">
-        <v>0.4549104392728964</v>
+        <v>0.4547887067399076</v>
       </c>
       <c r="G25">
-        <v>0.4549378254922268</v>
+        <v>0.4549442585330364</v>
       </c>
       <c r="H25">
-        <v>0.4547018354555909</v>
+        <v>0.4546211175806204</v>
       </c>
       <c r="I25">
-        <v>0.4546528606764303</v>
+        <v>0.4547563877505353</v>
       </c>
       <c r="J25">
-        <v>0.454801514652259</v>
+        <v>0.4544312934530398</v>
       </c>
       <c r="K25">
-        <v>0.4544479986248605</v>
+        <v>0.4549797119701208</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1327,34 +1327,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.707703506651509</v>
+        <v>1.705118640554433</v>
       </c>
       <c r="C26">
-        <v>1.707691745726056</v>
+        <v>1.705723267727757</v>
       </c>
       <c r="D26">
-        <v>1.706117019046336</v>
+        <v>1.707485448234782</v>
       </c>
       <c r="E26">
-        <v>1.707515585143704</v>
+        <v>1.705621248318673</v>
       </c>
       <c r="F26">
-        <v>1.707332040637464</v>
+        <v>1.70682642231767</v>
       </c>
       <c r="G26">
-        <v>1.706727093906057</v>
+        <v>1.705593589127088</v>
       </c>
       <c r="H26">
-        <v>1.706213745649687</v>
+        <v>1.706185120607468</v>
       </c>
       <c r="I26">
-        <v>1.705094302734099</v>
+        <v>1.706366849841732</v>
       </c>
       <c r="J26">
-        <v>1.707396743575549</v>
+        <v>1.70677684862712</v>
       </c>
       <c r="K26">
-        <v>1.707522414691627</v>
+        <v>1.706176330402858</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1362,34 +1362,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.593481302831767</v>
+        <v>3.597729040931274</v>
       </c>
       <c r="C27">
-        <v>3.597590800280476</v>
+        <v>3.597175614431924</v>
       </c>
       <c r="D27">
-        <v>3.598657451636681</v>
+        <v>3.593129072449697</v>
       </c>
       <c r="E27">
-        <v>3.597470665698645</v>
+        <v>3.595088140299688</v>
       </c>
       <c r="F27">
-        <v>3.598732142913191</v>
+        <v>3.598501945693067</v>
       </c>
       <c r="G27">
-        <v>3.59844521142618</v>
+        <v>3.597435947351289</v>
       </c>
       <c r="H27">
-        <v>3.595291464888065</v>
+        <v>3.596697499929983</v>
       </c>
       <c r="I27">
-        <v>3.596205275631936</v>
+        <v>3.5909230147504</v>
       </c>
       <c r="J27">
-        <v>3.596863413265817</v>
+        <v>3.598891063330766</v>
       </c>
       <c r="K27">
-        <v>3.596291359354466</v>
+        <v>3.596479512886261</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1397,34 +1397,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.06383534319114</v>
+        <v>12.066180680864</v>
       </c>
       <c r="C28">
-        <v>12.06521140626647</v>
+        <v>12.06544430953787</v>
       </c>
       <c r="D28">
-        <v>12.06587994686345</v>
+        <v>12.06510201034599</v>
       </c>
       <c r="E28">
-        <v>12.0682876407224</v>
+        <v>12.06534929841172</v>
       </c>
       <c r="F28">
-        <v>12.06630324778098</v>
+        <v>12.06598123951287</v>
       </c>
       <c r="G28">
-        <v>12.06660757437342</v>
+        <v>12.06605208944585</v>
       </c>
       <c r="H28">
-        <v>12.06543645307338</v>
+        <v>12.06489323244117</v>
       </c>
       <c r="I28">
-        <v>12.06688977781208</v>
+        <v>12.06586595339339</v>
       </c>
       <c r="J28">
-        <v>12.06720934196149</v>
+        <v>12.06681303230606</v>
       </c>
       <c r="K28">
-        <v>12.06491220049909</v>
+        <v>12.06605055274717</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1432,34 +1432,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>34.14603570461778</v>
+        <v>33.86776796434634</v>
       </c>
       <c r="C29">
-        <v>32.26978402882249</v>
+        <v>34.1073979171316</v>
       </c>
       <c r="D29">
-        <v>33.81107365568219</v>
+        <v>33.47609118997086</v>
       </c>
       <c r="E29">
-        <v>33.13077653649592</v>
+        <v>33.58289528355159</v>
       </c>
       <c r="F29">
-        <v>33.22928466163405</v>
+        <v>33.21084359972032</v>
       </c>
       <c r="G29">
-        <v>32.88684030288837</v>
+        <v>34.2432549357861</v>
       </c>
       <c r="H29">
-        <v>33.34493675625605</v>
+        <v>34.08796274080287</v>
       </c>
       <c r="I29">
-        <v>34.05497754656431</v>
+        <v>33.45285365052489</v>
       </c>
       <c r="J29">
-        <v>33.69985762877778</v>
+        <v>33.24261212657254</v>
       </c>
       <c r="K29">
-        <v>33.62311331744729</v>
+        <v>33.36581112764438</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1467,34 +1467,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73829.71093252071</v>
+        <v>73826.62712876595</v>
       </c>
       <c r="C30">
-        <v>73829.63604058954</v>
+        <v>73830.8632851734</v>
       </c>
       <c r="D30">
-        <v>73828.41793003421</v>
+        <v>73828.07639414954</v>
       </c>
       <c r="E30">
-        <v>73830.92313660288</v>
+        <v>73830.74848240045</v>
       </c>
       <c r="F30">
-        <v>73828.7040099259</v>
+        <v>73827.17590826476</v>
       </c>
       <c r="G30">
-        <v>73828.50699865502</v>
+        <v>73829.79154578631</v>
       </c>
       <c r="H30">
-        <v>73830.36091516042</v>
+        <v>73830.12926429899</v>
       </c>
       <c r="I30">
-        <v>73828.17861904409</v>
+        <v>73826.53576813792</v>
       </c>
       <c r="J30">
-        <v>73829.8527951484</v>
+        <v>73828.99813538382</v>
       </c>
       <c r="K30">
-        <v>73826.12022631608</v>
+        <v>73830.99813201187</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1502,34 +1502,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.094284955736032</v>
+        <v>6.090583347802331</v>
       </c>
       <c r="C31">
-        <v>6.096754348103729</v>
+        <v>6.096809103034817</v>
       </c>
       <c r="D31">
-        <v>6.095241783170121</v>
+        <v>6.094375516301245</v>
       </c>
       <c r="E31">
-        <v>6.097225077345534</v>
+        <v>6.09504423246972</v>
       </c>
       <c r="F31">
-        <v>6.094347217377899</v>
+        <v>6.092399715646361</v>
       </c>
       <c r="G31">
-        <v>6.096035433667985</v>
+        <v>6.092528228495246</v>
       </c>
       <c r="H31">
-        <v>6.097752705844488</v>
+        <v>6.094957554487915</v>
       </c>
       <c r="I31">
-        <v>6.097612954487511</v>
+        <v>6.095546975854501</v>
       </c>
       <c r="J31">
-        <v>6.097786880259595</v>
+        <v>6.098578235393386</v>
       </c>
       <c r="K31">
-        <v>6.096403344119373</v>
+        <v>6.097861709576327</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88.57855820089982</v>
+        <v>87.66473788957597</v>
       </c>
       <c r="C32">
-        <v>88.05621252861096</v>
+        <v>88.10452110964768</v>
       </c>
       <c r="D32">
-        <v>87.93719225694664</v>
+        <v>87.69285093873057</v>
       </c>
       <c r="E32">
-        <v>87.6703527526241</v>
+        <v>88.13813779289703</v>
       </c>
       <c r="F32">
-        <v>88.00296975414125</v>
+        <v>88.29599320998808</v>
       </c>
       <c r="G32">
-        <v>87.73528691898473</v>
+        <v>88.37249115381557</v>
       </c>
       <c r="H32">
-        <v>88.00974678569146</v>
+        <v>87.79372876961028</v>
       </c>
       <c r="I32">
-        <v>87.90290950038045</v>
+        <v>87.9820387070034</v>
       </c>
       <c r="J32">
-        <v>87.96722779893344</v>
+        <v>88.25966293931403</v>
       </c>
       <c r="K32">
-        <v>88.24183443303092</v>
+        <v>88.18128768123452</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1572,34 +1572,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>49.99843517431462</v>
+        <v>50.00164019261909</v>
       </c>
       <c r="C33">
-        <v>49.99739473707395</v>
+        <v>49.99850087994426</v>
       </c>
       <c r="D33">
-        <v>49.99802655984951</v>
+        <v>49.99925892340833</v>
       </c>
       <c r="E33">
-        <v>50.00056769089787</v>
+        <v>49.9996273942193</v>
       </c>
       <c r="F33">
-        <v>49.99704119433527</v>
+        <v>50.0037324980015</v>
       </c>
       <c r="G33">
-        <v>49.99913638477914</v>
+        <v>50.00149993752392</v>
       </c>
       <c r="H33">
-        <v>50.00168968657443</v>
+        <v>49.9990622328394</v>
       </c>
       <c r="I33">
-        <v>49.99960672183818</v>
+        <v>49.99963059861378</v>
       </c>
       <c r="J33">
-        <v>50.00734347802332</v>
+        <v>49.99714851794409</v>
       </c>
       <c r="K33">
-        <v>50.00066299428491</v>
+        <v>49.99862495360775</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>radius_rocket</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>main_drag</t>
+  </si>
+  <si>
+    <t>main_deployment</t>
   </si>
   <si>
     <t>power_off_drag</t>
@@ -441,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,154 +610,154 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07859338888187045</v>
+        <v>0.07815728748372577</v>
       </c>
       <c r="C2">
-        <v>0.07833521312440594</v>
+        <v>0.07816118826630511</v>
       </c>
       <c r="D2">
-        <v>0.07862395233090201</v>
+        <v>0.078469017891878</v>
       </c>
       <c r="E2">
-        <v>0.07873246897833644</v>
+        <v>0.07898776843221299</v>
       </c>
       <c r="F2">
-        <v>0.07845723778550058</v>
+        <v>0.07801456887245894</v>
       </c>
       <c r="G2">
-        <v>0.07806964829607843</v>
+        <v>0.07871185130325933</v>
       </c>
       <c r="H2">
-        <v>0.07812706774024533</v>
+        <v>0.0787615888756249</v>
       </c>
       <c r="I2">
-        <v>0.07836141928615174</v>
+        <v>0.0781400466269845</v>
       </c>
       <c r="J2">
-        <v>0.07818030169922074</v>
+        <v>0.07819484202505511</v>
       </c>
       <c r="K2">
-        <v>0.07796318955214483</v>
+        <v>0.07909585885405659</v>
       </c>
       <c r="L2">
-        <v>0.07847014771350613</v>
+        <v>0.07934315190999786</v>
       </c>
       <c r="M2">
-        <v>0.07936652266268937</v>
+        <v>0.07908807418997399</v>
       </c>
       <c r="N2">
-        <v>0.07842215448724603</v>
+        <v>0.07832184733418657</v>
       </c>
       <c r="O2">
-        <v>0.07847624904976423</v>
+        <v>0.07859806327842511</v>
       </c>
       <c r="P2">
-        <v>0.07855401320463755</v>
+        <v>0.07845419955124038</v>
       </c>
       <c r="Q2">
-        <v>0.07882754917088927</v>
+        <v>0.07842375248062644</v>
       </c>
       <c r="R2">
-        <v>0.0791212141044122</v>
+        <v>0.07827423472572681</v>
       </c>
       <c r="S2">
-        <v>0.07846076283961986</v>
+        <v>0.07840467822035295</v>
       </c>
       <c r="T2">
-        <v>0.07745874357866074</v>
+        <v>0.07830921650996844</v>
       </c>
       <c r="U2">
-        <v>0.07935373567090831</v>
+        <v>0.07855113529695844</v>
       </c>
       <c r="V2">
-        <v>0.07874957811659213</v>
+        <v>0.07858980271341333</v>
       </c>
       <c r="W2">
-        <v>0.07834579453148176</v>
+        <v>0.07877465310808324</v>
       </c>
       <c r="X2">
-        <v>0.07831843925486076</v>
+        <v>0.07861513925687102</v>
       </c>
       <c r="Y2">
-        <v>0.07874166207559544</v>
+        <v>0.07862074869593942</v>
       </c>
       <c r="Z2">
-        <v>0.07862300853104587</v>
+        <v>0.07852600490404972</v>
       </c>
       <c r="AA2">
-        <v>0.07861131856819265</v>
+        <v>0.07812425214740028</v>
       </c>
       <c r="AB2">
-        <v>0.07902683629431927</v>
+        <v>0.07892598993951983</v>
       </c>
       <c r="AC2">
-        <v>0.07840617156720907</v>
+        <v>0.07850782607766058</v>
       </c>
       <c r="AD2">
-        <v>0.07898253503928669</v>
+        <v>0.07843049753440513</v>
       </c>
       <c r="AE2">
-        <v>0.07831483520572773</v>
+        <v>0.0788148023528399</v>
       </c>
       <c r="AF2">
-        <v>0.07831533467861064</v>
+        <v>0.07841065770143937</v>
       </c>
       <c r="AG2">
-        <v>0.07880927534635951</v>
+        <v>0.07875847700593142</v>
       </c>
       <c r="AH2">
-        <v>0.07848113112421555</v>
+        <v>0.0785181949392324</v>
       </c>
       <c r="AI2">
-        <v>0.07829035845442275</v>
+        <v>0.07870956234071252</v>
       </c>
       <c r="AJ2">
-        <v>0.079401347518351</v>
+        <v>0.07902495257406462</v>
       </c>
       <c r="AK2">
-        <v>0.07871284208285359</v>
+        <v>0.07850059658272922</v>
       </c>
       <c r="AL2">
-        <v>0.07881129601816694</v>
+        <v>0.07842738894572618</v>
       </c>
       <c r="AM2">
-        <v>0.07793917032890273</v>
+        <v>0.07858621368181813</v>
       </c>
       <c r="AN2">
-        <v>0.07874402700150875</v>
+        <v>0.07852062623517883</v>
       </c>
       <c r="AO2">
-        <v>0.07903566511224691</v>
+        <v>0.0788793091693195</v>
       </c>
       <c r="AP2">
-        <v>0.07860755111229845</v>
+        <v>0.07827999215877356</v>
       </c>
       <c r="AQ2">
-        <v>0.07868532732287049</v>
+        <v>0.07876010663466382</v>
       </c>
       <c r="AR2">
-        <v>0.07825567573514808</v>
+        <v>0.07886439195643662</v>
       </c>
       <c r="AS2">
-        <v>0.07872785368954485</v>
+        <v>0.07880816687164113</v>
       </c>
       <c r="AT2">
-        <v>0.07868218803759573</v>
+        <v>0.07843285111211837</v>
       </c>
       <c r="AU2">
-        <v>0.07877965143786393</v>
+        <v>0.07860727719062688</v>
       </c>
       <c r="AV2">
-        <v>0.07864283309488249</v>
+        <v>0.07857980239692114</v>
       </c>
       <c r="AW2">
-        <v>0.07848683920494912</v>
+        <v>0.07788350117307834</v>
       </c>
       <c r="AX2">
-        <v>0.0786922054431554</v>
+        <v>0.0779395052402329</v>
       </c>
       <c r="AY2">
-        <v>0.07871643976428951</v>
+        <v>0.07813920681800635</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -762,154 +765,154 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.84983367866176</v>
+        <v>25.84983217387407</v>
       </c>
       <c r="C3">
-        <v>25.85065203106572</v>
+        <v>25.85191634129615</v>
       </c>
       <c r="D3">
-        <v>25.84961022104522</v>
+        <v>25.84942716244412</v>
       </c>
       <c r="E3">
-        <v>25.85192241808855</v>
+        <v>25.85037831939002</v>
       </c>
       <c r="F3">
-        <v>25.84963491687165</v>
+        <v>25.84952071322322</v>
       </c>
       <c r="G3">
-        <v>25.85049436353846</v>
+        <v>25.85081818599696</v>
       </c>
       <c r="H3">
-        <v>25.84903140182335</v>
+        <v>25.85011880480082</v>
       </c>
       <c r="I3">
-        <v>25.85166388018735</v>
+        <v>25.85106456430662</v>
       </c>
       <c r="J3">
-        <v>25.85128706555211</v>
+        <v>25.84981435765132</v>
       </c>
       <c r="K3">
-        <v>25.85268234994411</v>
+        <v>25.84848706728149</v>
       </c>
       <c r="L3">
-        <v>25.85064654401039</v>
+        <v>25.85115542644554</v>
       </c>
       <c r="M3">
-        <v>25.85113374868381</v>
+        <v>25.84916915527908</v>
       </c>
       <c r="N3">
-        <v>25.85111615530742</v>
+        <v>25.84924607539812</v>
       </c>
       <c r="O3">
-        <v>25.84876020893075</v>
+        <v>25.84932384586316</v>
       </c>
       <c r="P3">
-        <v>25.8503644517607</v>
+        <v>25.85017035639055</v>
       </c>
       <c r="Q3">
-        <v>25.85105424477559</v>
+        <v>25.84952563729638</v>
       </c>
       <c r="R3">
-        <v>25.84898651213111</v>
+        <v>25.85187441212058</v>
       </c>
       <c r="S3">
-        <v>25.84968832591088</v>
+        <v>25.84946325847193</v>
       </c>
       <c r="T3">
-        <v>25.85029275410282</v>
+        <v>25.84786208217672</v>
       </c>
       <c r="U3">
-        <v>25.85144874754369</v>
+        <v>25.84979723901379</v>
       </c>
       <c r="V3">
-        <v>25.85064149654584</v>
+        <v>25.85106996535752</v>
       </c>
       <c r="W3">
-        <v>25.85082827560639</v>
+        <v>25.8487788850014</v>
       </c>
       <c r="X3">
-        <v>25.84925696343108</v>
+        <v>25.84974254655569</v>
       </c>
       <c r="Y3">
-        <v>25.84867081649261</v>
+        <v>25.85013579638289</v>
       </c>
       <c r="Z3">
-        <v>25.85178413459625</v>
+        <v>25.85024702991574</v>
       </c>
       <c r="AA3">
-        <v>25.84825242643364</v>
+        <v>25.85084725648382</v>
       </c>
       <c r="AB3">
-        <v>25.84993950567541</v>
+        <v>25.85113242223724</v>
       </c>
       <c r="AC3">
-        <v>25.85049942343203</v>
+        <v>25.85029048091464</v>
       </c>
       <c r="AD3">
-        <v>25.84890589723226</v>
+        <v>25.85031503423097</v>
       </c>
       <c r="AE3">
-        <v>25.85016015220348</v>
+        <v>25.85033468652437</v>
       </c>
       <c r="AF3">
-        <v>25.84982456349869</v>
+        <v>25.84964537540992</v>
       </c>
       <c r="AG3">
-        <v>25.84977896393353</v>
+        <v>25.84921915543299</v>
       </c>
       <c r="AH3">
-        <v>25.85072135869273</v>
+        <v>25.85102111537579</v>
       </c>
       <c r="AI3">
-        <v>25.8475219441235</v>
+        <v>25.84998371179693</v>
       </c>
       <c r="AJ3">
-        <v>25.85047682678706</v>
+        <v>25.85086673604941</v>
       </c>
       <c r="AK3">
-        <v>25.84941731518124</v>
+        <v>25.8504380417925</v>
       </c>
       <c r="AL3">
-        <v>25.84960566552467</v>
+        <v>25.84795157501556</v>
       </c>
       <c r="AM3">
-        <v>25.85001455891505</v>
+        <v>25.84888478654123</v>
       </c>
       <c r="AN3">
-        <v>25.8503396744697</v>
+        <v>25.84845846915423</v>
       </c>
       <c r="AO3">
-        <v>25.84849580214774</v>
+        <v>25.8502305365977</v>
       </c>
       <c r="AP3">
-        <v>25.85083025049429</v>
+        <v>25.85051255496747</v>
       </c>
       <c r="AQ3">
-        <v>25.8504993779439</v>
+        <v>25.84944310722928</v>
       </c>
       <c r="AR3">
-        <v>25.84996943267661</v>
+        <v>25.8486147786703</v>
       </c>
       <c r="AS3">
-        <v>25.85081108248991</v>
+        <v>25.85049959459139</v>
       </c>
       <c r="AT3">
-        <v>25.85003823065578</v>
+        <v>25.84868458380454</v>
       </c>
       <c r="AU3">
-        <v>25.84957825778459</v>
+        <v>25.84996423802309</v>
       </c>
       <c r="AV3">
-        <v>25.85173767987694</v>
+        <v>25.8510500998986</v>
       </c>
       <c r="AW3">
-        <v>25.84928298454696</v>
+        <v>25.8501356040069</v>
       </c>
       <c r="AX3">
-        <v>25.84837592130417</v>
+        <v>25.85022206547546</v>
       </c>
       <c r="AY3">
-        <v>25.85057079455366</v>
+        <v>25.84918414379637</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -917,154 +920,154 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7000090097885</v>
+        <v>151.6999834658716</v>
       </c>
       <c r="C4">
-        <v>151.6999559934885</v>
+        <v>151.6998072018205</v>
       </c>
       <c r="D4">
-        <v>151.700079024027</v>
+        <v>151.7001181581645</v>
       </c>
       <c r="E4">
-        <v>151.700187111221</v>
+        <v>151.6997776198587</v>
       </c>
       <c r="F4">
-        <v>151.6998410199353</v>
+        <v>151.6999262122997</v>
       </c>
       <c r="G4">
-        <v>151.6999247633626</v>
+        <v>151.7000936142443</v>
       </c>
       <c r="H4">
-        <v>151.7000385727352</v>
+        <v>151.7000244798954</v>
       </c>
       <c r="I4">
-        <v>151.7001264444842</v>
+        <v>151.700149524667</v>
       </c>
       <c r="J4">
-        <v>151.7001510393495</v>
+        <v>151.7000934265127</v>
       </c>
       <c r="K4">
-        <v>151.6998793303882</v>
+        <v>151.6997643451819</v>
       </c>
       <c r="L4">
-        <v>151.6998901952041</v>
+        <v>151.7000821478602</v>
       </c>
       <c r="M4">
-        <v>151.7002214666373</v>
+        <v>151.7003901482749</v>
       </c>
       <c r="N4">
-        <v>151.6999136386687</v>
+        <v>151.7000623362968</v>
       </c>
       <c r="O4">
-        <v>151.700128484905</v>
+        <v>151.7000257629161</v>
       </c>
       <c r="P4">
-        <v>151.7000789887516</v>
+        <v>151.7000946716745</v>
       </c>
       <c r="Q4">
-        <v>151.6998214420103</v>
+        <v>151.6998342441149</v>
       </c>
       <c r="R4">
-        <v>151.7000884008751</v>
+        <v>151.6999888020989</v>
       </c>
       <c r="S4">
-        <v>151.7001666844376</v>
+        <v>151.6999103692022</v>
       </c>
       <c r="T4">
-        <v>151.7000155057782</v>
+        <v>151.7002283361175</v>
       </c>
       <c r="U4">
-        <v>151.6997969092409</v>
+        <v>151.6997579980768</v>
       </c>
       <c r="V4">
-        <v>151.6997729664243</v>
+        <v>151.7002399981374</v>
       </c>
       <c r="W4">
-        <v>151.6997982917736</v>
+        <v>151.7001026622948</v>
       </c>
       <c r="X4">
-        <v>151.6998287541855</v>
+        <v>151.7001373282166</v>
       </c>
       <c r="Y4">
-        <v>151.7001489217285</v>
+        <v>151.7001694318759</v>
       </c>
       <c r="Z4">
-        <v>151.6997950287325</v>
+        <v>151.6997818875206</v>
       </c>
       <c r="AA4">
-        <v>151.7001224933645</v>
+        <v>151.6998687128416</v>
       </c>
       <c r="AB4">
-        <v>151.7000341666049</v>
+        <v>151.699991351964</v>
       </c>
       <c r="AC4">
-        <v>151.7002675695456</v>
+        <v>151.7002276249345</v>
       </c>
       <c r="AD4">
-        <v>151.7001070856156</v>
+        <v>151.7002625930675</v>
       </c>
       <c r="AE4">
-        <v>151.6999932142895</v>
+        <v>151.6999384868716</v>
       </c>
       <c r="AF4">
-        <v>151.6999032522877</v>
+        <v>151.6999549376906</v>
       </c>
       <c r="AG4">
-        <v>151.7002319267379</v>
+        <v>151.7000728209995</v>
       </c>
       <c r="AH4">
-        <v>151.6998140270219</v>
+        <v>151.699912524053</v>
       </c>
       <c r="AI4">
-        <v>151.7000129470558</v>
+        <v>151.6998870644691</v>
       </c>
       <c r="AJ4">
-        <v>151.6997905629082</v>
+        <v>151.7000265315341</v>
       </c>
       <c r="AK4">
-        <v>151.7000497166403</v>
+        <v>151.6996954383617</v>
       </c>
       <c r="AL4">
-        <v>151.7000819757827</v>
+        <v>151.7002027026792</v>
       </c>
       <c r="AM4">
-        <v>151.7002302236882</v>
+        <v>151.6999695178618</v>
       </c>
       <c r="AN4">
-        <v>151.7001785541078</v>
+        <v>151.6996355307934</v>
       </c>
       <c r="AO4">
-        <v>151.7000206206514</v>
+        <v>151.6999392319501</v>
       </c>
       <c r="AP4">
-        <v>151.7002846627013</v>
+        <v>151.7001680547823</v>
       </c>
       <c r="AQ4">
-        <v>151.700151319701</v>
+        <v>151.7000741944696</v>
       </c>
       <c r="AR4">
-        <v>151.7000152308203</v>
+        <v>151.7000799706622</v>
       </c>
       <c r="AS4">
-        <v>151.7001118022077</v>
+        <v>151.7000934888048</v>
       </c>
       <c r="AT4">
-        <v>151.699750442832</v>
+        <v>151.6997730934102</v>
       </c>
       <c r="AU4">
-        <v>151.7000969638881</v>
+        <v>151.7001181971029</v>
       </c>
       <c r="AV4">
-        <v>151.6998303853815</v>
+        <v>151.700173849707</v>
       </c>
       <c r="AW4">
-        <v>151.7000653838466</v>
+        <v>151.7001573891164</v>
       </c>
       <c r="AX4">
-        <v>151.7000803944952</v>
+        <v>151.6999794634424</v>
       </c>
       <c r="AY4">
-        <v>151.7001061941044</v>
+        <v>151.7002010931511</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1072,154 +1075,154 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1861785948744821</v>
+        <v>0.1862189504158588</v>
       </c>
       <c r="C5">
-        <v>0.1857363186169981</v>
+        <v>0.1859830680804112</v>
       </c>
       <c r="D5">
-        <v>0.1863009772864084</v>
+        <v>0.1860076474388482</v>
       </c>
       <c r="E5">
-        <v>0.1857940531543273</v>
+        <v>0.1857272467970327</v>
       </c>
       <c r="F5">
-        <v>0.1858670333774891</v>
+        <v>0.1861431214621297</v>
       </c>
       <c r="G5">
-        <v>0.1859823537310797</v>
+        <v>0.1859966804751738</v>
       </c>
       <c r="H5">
-        <v>0.1857704560180322</v>
+        <v>0.1861323683987914</v>
       </c>
       <c r="I5">
-        <v>0.185535679313352</v>
+        <v>0.1860918432526581</v>
       </c>
       <c r="J5">
-        <v>0.1862311428326343</v>
+        <v>0.1860800405862275</v>
       </c>
       <c r="K5">
-        <v>0.1860039557494756</v>
+        <v>0.1859795860937353</v>
       </c>
       <c r="L5">
-        <v>0.1861968281729954</v>
+        <v>0.1860340131163071</v>
       </c>
       <c r="M5">
-        <v>0.1861130835430639</v>
+        <v>0.1862553980595445</v>
       </c>
       <c r="N5">
-        <v>0.1860460498898815</v>
+        <v>0.1861423677413533</v>
       </c>
       <c r="O5">
-        <v>0.186073113093164</v>
+        <v>0.1861428915493274</v>
       </c>
       <c r="P5">
-        <v>0.1858764393158319</v>
+        <v>0.1861342449171255</v>
       </c>
       <c r="Q5">
-        <v>0.1861266908333458</v>
+        <v>0.1861565528479327</v>
       </c>
       <c r="R5">
-        <v>0.1858330409487992</v>
+        <v>0.186245263337305</v>
       </c>
       <c r="S5">
-        <v>0.1857627351448634</v>
+        <v>0.1861762499844048</v>
       </c>
       <c r="T5">
-        <v>0.1861536594495017</v>
+        <v>0.1857071894410201</v>
       </c>
       <c r="U5">
-        <v>0.1858793908154934</v>
+        <v>0.1858353856005955</v>
       </c>
       <c r="V5">
-        <v>0.1858767383393462</v>
+        <v>0.1862494359059637</v>
       </c>
       <c r="W5">
-        <v>0.1860919759019203</v>
+        <v>0.1857601720151235</v>
       </c>
       <c r="X5">
-        <v>0.1859819198406449</v>
+        <v>0.186040097364732</v>
       </c>
       <c r="Y5">
-        <v>0.185933776782767</v>
+        <v>0.1857575159182282</v>
       </c>
       <c r="Z5">
-        <v>0.1861294119962194</v>
+        <v>0.1859176736407072</v>
       </c>
       <c r="AA5">
-        <v>0.1859500728227003</v>
+        <v>0.1862614166299305</v>
       </c>
       <c r="AB5">
-        <v>0.1859418432702989</v>
+        <v>0.1859308788042486</v>
       </c>
       <c r="AC5">
-        <v>0.1857745050542937</v>
+        <v>0.1860060503221911</v>
       </c>
       <c r="AD5">
-        <v>0.1859128339357327</v>
+        <v>0.1859914490215601</v>
       </c>
       <c r="AE5">
-        <v>0.1859406135658889</v>
+        <v>0.1863507014904953</v>
       </c>
       <c r="AF5">
-        <v>0.1858747716775326</v>
+        <v>0.1861271859450949</v>
       </c>
       <c r="AG5">
-        <v>0.1857688239547251</v>
+        <v>0.1859335663613944</v>
       </c>
       <c r="AH5">
-        <v>0.185977213393737</v>
+        <v>0.1858845651959099</v>
       </c>
       <c r="AI5">
-        <v>0.1860360119751342</v>
+        <v>0.1858776113555017</v>
       </c>
       <c r="AJ5">
-        <v>0.186058176298571</v>
+        <v>0.1858214083710436</v>
       </c>
       <c r="AK5">
-        <v>0.1858392126538843</v>
+        <v>0.1861687667655515</v>
       </c>
       <c r="AL5">
-        <v>0.1862388668496288</v>
+        <v>0.186052118225523</v>
       </c>
       <c r="AM5">
-        <v>0.1861038327849815</v>
+        <v>0.1859722489248772</v>
       </c>
       <c r="AN5">
-        <v>0.1861336420021828</v>
+        <v>0.1861651931547135</v>
       </c>
       <c r="AO5">
-        <v>0.1862312626511293</v>
+        <v>0.1859776243314782</v>
       </c>
       <c r="AP5">
-        <v>0.1860782586621881</v>
+        <v>0.1861168485330919</v>
       </c>
       <c r="AQ5">
-        <v>0.1858460359787896</v>
+        <v>0.1860582437292515</v>
       </c>
       <c r="AR5">
-        <v>0.1860006851715912</v>
+        <v>0.1860558654820227</v>
       </c>
       <c r="AS5">
-        <v>0.1860777969178874</v>
+        <v>0.1861395162427506</v>
       </c>
       <c r="AT5">
-        <v>0.1860922261812951</v>
+        <v>0.18584531324136</v>
       </c>
       <c r="AU5">
-        <v>0.1859525301524759</v>
+        <v>0.1859157772861276</v>
       </c>
       <c r="AV5">
-        <v>0.1859501174739941</v>
+        <v>0.1859362514140218</v>
       </c>
       <c r="AW5">
-        <v>0.1862070748924034</v>
+        <v>0.1857537318051008</v>
       </c>
       <c r="AX5">
-        <v>0.185822621455974</v>
+        <v>0.1857175905016877</v>
       </c>
       <c r="AY5">
-        <v>0.1859534592993753</v>
+        <v>0.1859189589857513</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1227,154 +1230,154 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.259957982998598</v>
+        <v>2.260036460834944</v>
       </c>
       <c r="C6">
-        <v>2.259975395485259</v>
+        <v>2.259968692618093</v>
       </c>
       <c r="D6">
-        <v>2.259980906786341</v>
+        <v>2.260018627141909</v>
       </c>
       <c r="E6">
-        <v>2.260032296764817</v>
+        <v>2.260019303134224</v>
       </c>
       <c r="F6">
-        <v>2.260006791006051</v>
+        <v>2.25999197779534</v>
       </c>
       <c r="G6">
-        <v>2.260032022953919</v>
+        <v>2.260004910899945</v>
       </c>
       <c r="H6">
-        <v>2.259945988919402</v>
+        <v>2.259994036060365</v>
       </c>
       <c r="I6">
-        <v>2.259975392127768</v>
+        <v>2.260026713202544</v>
       </c>
       <c r="J6">
-        <v>2.259971959187859</v>
+        <v>2.259997343490752</v>
       </c>
       <c r="K6">
-        <v>2.260008806850396</v>
+        <v>2.259994458612387</v>
       </c>
       <c r="L6">
-        <v>2.259993025735548</v>
+        <v>2.259959807429156</v>
       </c>
       <c r="M6">
-        <v>2.259988271790733</v>
+        <v>2.260015289432813</v>
       </c>
       <c r="N6">
-        <v>2.260069023911348</v>
+        <v>2.260002154935663</v>
       </c>
       <c r="O6">
-        <v>2.260005434132668</v>
+        <v>2.260006818089422</v>
       </c>
       <c r="P6">
-        <v>2.259998115008759</v>
+        <v>2.259952920191189</v>
       </c>
       <c r="Q6">
-        <v>2.259969770049336</v>
+        <v>2.260008291121275</v>
       </c>
       <c r="R6">
-        <v>2.259979156370333</v>
+        <v>2.259992130527648</v>
       </c>
       <c r="S6">
-        <v>2.260007242861404</v>
+        <v>2.260040367187699</v>
       </c>
       <c r="T6">
-        <v>2.25999924356068</v>
+        <v>2.260004316340605</v>
       </c>
       <c r="U6">
-        <v>2.26001179415007</v>
+        <v>2.260006756303062</v>
       </c>
       <c r="V6">
-        <v>2.260030003063956</v>
+        <v>2.260014631551813</v>
       </c>
       <c r="W6">
-        <v>2.259947566354859</v>
+        <v>2.260030899017679</v>
       </c>
       <c r="X6">
-        <v>2.259996470607505</v>
+        <v>2.259993895480853</v>
       </c>
       <c r="Y6">
-        <v>2.260027694257961</v>
+        <v>2.260029123014449</v>
       </c>
       <c r="Z6">
-        <v>2.260021015638302</v>
+        <v>2.260007078470698</v>
       </c>
       <c r="AA6">
-        <v>2.260015654231169</v>
+        <v>2.260006865876491</v>
       </c>
       <c r="AB6">
-        <v>2.259976954848605</v>
+        <v>2.260003130877263</v>
       </c>
       <c r="AC6">
-        <v>2.259991637366031</v>
+        <v>2.259986740203985</v>
       </c>
       <c r="AD6">
-        <v>2.259972428860143</v>
+        <v>2.260008524353586</v>
       </c>
       <c r="AE6">
-        <v>2.260006201952476</v>
+        <v>2.260009928684985</v>
       </c>
       <c r="AF6">
-        <v>2.260003333032097</v>
+        <v>2.260029350532851</v>
       </c>
       <c r="AG6">
-        <v>2.259980350814106</v>
+        <v>2.259968192287498</v>
       </c>
       <c r="AH6">
-        <v>2.259976864747038</v>
+        <v>2.260007820607945</v>
       </c>
       <c r="AI6">
-        <v>2.259983873158192</v>
+        <v>2.259975201742265</v>
       </c>
       <c r="AJ6">
-        <v>2.259975769909285</v>
+        <v>2.259970153246979</v>
       </c>
       <c r="AK6">
-        <v>2.260021436904385</v>
+        <v>2.260010943340808</v>
       </c>
       <c r="AL6">
-        <v>2.259966014164114</v>
+        <v>2.260014847279398</v>
       </c>
       <c r="AM6">
-        <v>2.259975573206191</v>
+        <v>2.260000959494963</v>
       </c>
       <c r="AN6">
-        <v>2.259969165399072</v>
+        <v>2.259959865165905</v>
       </c>
       <c r="AO6">
-        <v>2.260020780959997</v>
+        <v>2.260002409783383</v>
       </c>
       <c r="AP6">
-        <v>2.260017002271117</v>
+        <v>2.259999059560817</v>
       </c>
       <c r="AQ6">
-        <v>2.259970674103659</v>
+        <v>2.260035044457093</v>
       </c>
       <c r="AR6">
-        <v>2.260007304753475</v>
+        <v>2.260012276583111</v>
       </c>
       <c r="AS6">
-        <v>2.259990456958705</v>
+        <v>2.260013779036325</v>
       </c>
       <c r="AT6">
-        <v>2.260033224721453</v>
+        <v>2.260008213836717</v>
       </c>
       <c r="AU6">
-        <v>2.259970220757058</v>
+        <v>2.260021849515311</v>
       </c>
       <c r="AV6">
-        <v>2.259946457628774</v>
+        <v>2.2599912331346</v>
       </c>
       <c r="AW6">
-        <v>2.260003975546384</v>
+        <v>2.260023561321376</v>
       </c>
       <c r="AX6">
-        <v>2.259981607704154</v>
+        <v>2.260027050594243</v>
       </c>
       <c r="AY6">
-        <v>2.259992364626431</v>
+        <v>2.259984713230536</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1382,154 +1385,154 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.083761554681758</v>
+        <v>7.081815735134365</v>
       </c>
       <c r="C7">
-        <v>7.075607625377505</v>
+        <v>7.082742133824494</v>
       </c>
       <c r="D7">
-        <v>7.071774341990702</v>
+        <v>7.078726015045195</v>
       </c>
       <c r="E7">
-        <v>7.079375314519388</v>
+        <v>7.082977586306962</v>
       </c>
       <c r="F7">
-        <v>7.084177704873516</v>
+        <v>7.074879426292958</v>
       </c>
       <c r="G7">
-        <v>7.09144134279217</v>
+        <v>7.077033726324503</v>
       </c>
       <c r="H7">
-        <v>7.081169663048197</v>
+        <v>7.088494744856219</v>
       </c>
       <c r="I7">
-        <v>7.074282552452414</v>
+        <v>7.070403852138654</v>
       </c>
       <c r="J7">
-        <v>7.079482742672151</v>
+        <v>7.080290446713619</v>
       </c>
       <c r="K7">
-        <v>7.084130056982291</v>
+        <v>7.08184040589998</v>
       </c>
       <c r="L7">
-        <v>7.076599620332381</v>
+        <v>7.080007570804319</v>
       </c>
       <c r="M7">
-        <v>7.080344645973038</v>
+        <v>7.08827945602168</v>
       </c>
       <c r="N7">
-        <v>7.075762403180408</v>
+        <v>7.077888275589597</v>
       </c>
       <c r="O7">
-        <v>7.07861904481157</v>
+        <v>7.086619159966283</v>
       </c>
       <c r="P7">
-        <v>7.074986029681287</v>
+        <v>7.073692538262765</v>
       </c>
       <c r="Q7">
-        <v>7.082894764289282</v>
+        <v>7.082074654222875</v>
       </c>
       <c r="R7">
-        <v>7.080380003949102</v>
+        <v>7.082233648178261</v>
       </c>
       <c r="S7">
-        <v>7.072371729626727</v>
+        <v>7.08148938312224</v>
       </c>
       <c r="T7">
-        <v>7.073121970214406</v>
+        <v>7.069189406901985</v>
       </c>
       <c r="U7">
-        <v>7.078930834324254</v>
+        <v>7.082209830513765</v>
       </c>
       <c r="V7">
-        <v>7.084859641935512</v>
+        <v>7.075919729267994</v>
       </c>
       <c r="W7">
-        <v>7.072861256144039</v>
+        <v>7.075786874535082</v>
       </c>
       <c r="X7">
-        <v>7.078253711985123</v>
+        <v>7.080652475668983</v>
       </c>
       <c r="Y7">
-        <v>7.077554452770539</v>
+        <v>7.075781466675614</v>
       </c>
       <c r="Z7">
-        <v>7.08164635151021</v>
+        <v>7.078831265403959</v>
       </c>
       <c r="AA7">
-        <v>7.084147329463347</v>
+        <v>7.080681738030693</v>
       </c>
       <c r="AB7">
-        <v>7.07542000773867</v>
+        <v>7.075380622712525</v>
       </c>
       <c r="AC7">
-        <v>7.072453157250406</v>
+        <v>7.080730138534286</v>
       </c>
       <c r="AD7">
-        <v>7.084049296631226</v>
+        <v>7.071873198994529</v>
       </c>
       <c r="AE7">
-        <v>7.080337191321691</v>
+        <v>7.080950088853227</v>
       </c>
       <c r="AF7">
-        <v>7.073637325383076</v>
+        <v>7.075034710593764</v>
       </c>
       <c r="AG7">
-        <v>7.079155584979061</v>
+        <v>7.070834938680364</v>
       </c>
       <c r="AH7">
-        <v>7.080160880214122</v>
+        <v>7.070611665372008</v>
       </c>
       <c r="AI7">
-        <v>7.075351338369204</v>
+        <v>7.07379046396141</v>
       </c>
       <c r="AJ7">
-        <v>7.070181755796097</v>
+        <v>7.079778362278361</v>
       </c>
       <c r="AK7">
-        <v>7.0798032610121</v>
+        <v>7.080252904470438</v>
       </c>
       <c r="AL7">
-        <v>7.083695778456665</v>
+        <v>7.078839058966634</v>
       </c>
       <c r="AM7">
-        <v>7.082156681322525</v>
+        <v>7.078828203376538</v>
       </c>
       <c r="AN7">
-        <v>7.078004426334954</v>
+        <v>7.085753947743717</v>
       </c>
       <c r="AO7">
-        <v>7.081729628502713</v>
+        <v>7.080384102004454</v>
       </c>
       <c r="AP7">
-        <v>7.074655460373322</v>
+        <v>7.07454552760806</v>
       </c>
       <c r="AQ7">
-        <v>7.08603705451263</v>
+        <v>7.07732361442813</v>
       </c>
       <c r="AR7">
-        <v>7.07400468057295</v>
+        <v>7.08052280883861</v>
       </c>
       <c r="AS7">
-        <v>7.06300386707908</v>
+        <v>7.068524524760028</v>
       </c>
       <c r="AT7">
-        <v>7.076471116094418</v>
+        <v>7.074403013166677</v>
       </c>
       <c r="AU7">
-        <v>7.078030810373016</v>
+        <v>7.070615729347812</v>
       </c>
       <c r="AV7">
-        <v>7.078241200818355</v>
+        <v>7.077921966076947</v>
       </c>
       <c r="AW7">
-        <v>7.087336060019041</v>
+        <v>7.081686908588037</v>
       </c>
       <c r="AX7">
-        <v>7.081032796415577</v>
+        <v>7.073012068095624</v>
       </c>
       <c r="AY7">
-        <v>7.079011599393341</v>
+        <v>7.079808899499795</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -1537,154 +1540,154 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>113.1978372798698</v>
+        <v>113.1922241459584</v>
       </c>
       <c r="C8">
-        <v>113.2053815136158</v>
+        <v>113.1977201523691</v>
       </c>
       <c r="D8">
-        <v>113.2108626297175</v>
+        <v>113.1991758261903</v>
       </c>
       <c r="E8">
-        <v>113.1993897476464</v>
+        <v>113.2014743054444</v>
       </c>
       <c r="F8">
-        <v>113.2021994797159</v>
+        <v>113.1994891435073</v>
       </c>
       <c r="G8">
-        <v>113.1954091052335</v>
+        <v>113.1946323897687</v>
       </c>
       <c r="H8">
-        <v>113.2012298241742</v>
+        <v>113.197904224384</v>
       </c>
       <c r="I8">
-        <v>113.1887990912588</v>
+        <v>113.1931974667709</v>
       </c>
       <c r="J8">
-        <v>113.2024771464192</v>
+        <v>113.2056448118676</v>
       </c>
       <c r="K8">
-        <v>113.2039184785645</v>
+        <v>113.2086951291898</v>
       </c>
       <c r="L8">
-        <v>113.1927817465848</v>
+        <v>113.2097520432444</v>
       </c>
       <c r="M8">
-        <v>113.2036054995562</v>
+        <v>113.2016508438515</v>
       </c>
       <c r="N8">
-        <v>113.2055622003951</v>
+        <v>113.2026115393263</v>
       </c>
       <c r="O8">
-        <v>113.2045748644318</v>
+        <v>113.1908792985873</v>
       </c>
       <c r="P8">
-        <v>113.206163348646</v>
+        <v>113.1931140066273</v>
       </c>
       <c r="Q8">
-        <v>113.1938965117763</v>
+        <v>113.1979980979637</v>
       </c>
       <c r="R8">
-        <v>113.1994485095195</v>
+        <v>113.2009024724442</v>
       </c>
       <c r="S8">
-        <v>113.2036413253248</v>
+        <v>113.2067720010998</v>
       </c>
       <c r="T8">
-        <v>113.1963799776647</v>
+        <v>113.2076662571386</v>
       </c>
       <c r="U8">
-        <v>113.1987511791631</v>
+        <v>113.1999220061022</v>
       </c>
       <c r="V8">
-        <v>113.1983939738988</v>
+        <v>113.2022475575467</v>
       </c>
       <c r="W8">
-        <v>113.2038412179145</v>
+        <v>113.1986173133057</v>
       </c>
       <c r="X8">
-        <v>113.1879852882648</v>
+        <v>113.1982895447248</v>
       </c>
       <c r="Y8">
-        <v>113.2104465042593</v>
+        <v>113.1957355831965</v>
       </c>
       <c r="Z8">
-        <v>113.2046761684388</v>
+        <v>113.2021145236557</v>
       </c>
       <c r="AA8">
-        <v>113.2041406934641</v>
+        <v>113.1982780314987</v>
       </c>
       <c r="AB8">
-        <v>113.2022678720593</v>
+        <v>113.1926296522426</v>
       </c>
       <c r="AC8">
-        <v>113.1953296184591</v>
+        <v>113.2048341060263</v>
       </c>
       <c r="AD8">
-        <v>113.1979733777237</v>
+        <v>113.2009698076183</v>
       </c>
       <c r="AE8">
-        <v>113.203492874885</v>
+        <v>113.1997100240554</v>
       </c>
       <c r="AF8">
-        <v>113.1994170245403</v>
+        <v>113.2028652839825</v>
       </c>
       <c r="AG8">
-        <v>113.2053536724617</v>
+        <v>113.2020013109724</v>
       </c>
       <c r="AH8">
-        <v>113.206109104708</v>
+        <v>113.1944057758149</v>
       </c>
       <c r="AI8">
-        <v>113.2009793914305</v>
+        <v>113.2059998052872</v>
       </c>
       <c r="AJ8">
-        <v>113.2024700988308</v>
+        <v>113.2085032271463</v>
       </c>
       <c r="AK8">
-        <v>113.1919870002312</v>
+        <v>113.1985483189231</v>
       </c>
       <c r="AL8">
-        <v>113.2047300449491</v>
+        <v>113.2054602047788</v>
       </c>
       <c r="AM8">
-        <v>113.200523760864</v>
+        <v>113.2007828744367</v>
       </c>
       <c r="AN8">
-        <v>113.1992495998966</v>
+        <v>113.2011648665813</v>
       </c>
       <c r="AO8">
-        <v>113.1984243840118</v>
+        <v>113.2065888320265</v>
       </c>
       <c r="AP8">
-        <v>113.2064649348975</v>
+        <v>113.1938939633088</v>
       </c>
       <c r="AQ8">
-        <v>113.2048308434153</v>
+        <v>113.1931275656432</v>
       </c>
       <c r="AR8">
-        <v>113.2026713315478</v>
+        <v>113.2043366843617</v>
       </c>
       <c r="AS8">
-        <v>113.2125706952591</v>
+        <v>113.188067068688</v>
       </c>
       <c r="AT8">
-        <v>113.1956102488218</v>
+        <v>113.1987692558029</v>
       </c>
       <c r="AU8">
-        <v>113.2070164288728</v>
+        <v>113.1900250828393</v>
       </c>
       <c r="AV8">
-        <v>113.2042578397413</v>
+        <v>113.1952899836189</v>
       </c>
       <c r="AW8">
-        <v>113.2048062620385</v>
+        <v>113.2045316329583</v>
       </c>
       <c r="AX8">
-        <v>113.2008089267253</v>
+        <v>113.2055521042215</v>
       </c>
       <c r="AY8">
-        <v>113.2000438292053</v>
+        <v>113.2107626529746</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -1692,154 +1695,154 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.041088838361075</v>
+        <v>899.5420668904464</v>
       </c>
       <c r="C9">
-        <v>0.9701642678763925</v>
+        <v>912.8667966087592</v>
       </c>
       <c r="D9">
-        <v>0.9589719660277209</v>
+        <v>910.4894018773615</v>
       </c>
       <c r="E9">
-        <v>0.9750708445802286</v>
+        <v>910.0982287399137</v>
       </c>
       <c r="F9">
-        <v>1.097201993675185</v>
+        <v>921.5437656417785</v>
       </c>
       <c r="G9">
-        <v>1.01640586853826</v>
+        <v>915.5324664416531</v>
       </c>
       <c r="H9">
-        <v>0.9810263993040744</v>
+        <v>907.2141667098635</v>
       </c>
       <c r="I9">
-        <v>1.064551675186771</v>
+        <v>910.8228874697785</v>
       </c>
       <c r="J9">
-        <v>1.015475038771616</v>
+        <v>912.3956087310426</v>
       </c>
       <c r="K9">
-        <v>0.9518155463726624</v>
+        <v>912.978687272521</v>
       </c>
       <c r="L9">
-        <v>0.936549872291044</v>
+        <v>903.6497879860802</v>
       </c>
       <c r="M9">
-        <v>1.028699508631193</v>
+        <v>912.7745096559047</v>
       </c>
       <c r="N9">
-        <v>0.9957990866900838</v>
+        <v>914.2550217772639</v>
       </c>
       <c r="O9">
-        <v>0.9798512278131155</v>
+        <v>916.5762611339069</v>
       </c>
       <c r="P9">
-        <v>0.9734301189906257</v>
+        <v>914.0125224361994</v>
       </c>
       <c r="Q9">
-        <v>1.011178410903049</v>
+        <v>908.8883185417309</v>
       </c>
       <c r="R9">
-        <v>1.051497783036242</v>
+        <v>917.11246986758</v>
       </c>
       <c r="S9">
-        <v>1.044364141165449</v>
+        <v>922.3740027869023</v>
       </c>
       <c r="T9">
-        <v>0.9643588439235955</v>
+        <v>912.623513475417</v>
       </c>
       <c r="U9">
-        <v>0.9934030272104841</v>
+        <v>910.2092640657867</v>
       </c>
       <c r="V9">
-        <v>1.012848940220807</v>
+        <v>913.080198258551</v>
       </c>
       <c r="W9">
-        <v>1.025544676613744</v>
+        <v>915.4639911433248</v>
       </c>
       <c r="X9">
-        <v>1.056203805357719</v>
+        <v>912.1687379754264</v>
       </c>
       <c r="Y9">
-        <v>1.021702758861162</v>
+        <v>909.0165359565898</v>
       </c>
       <c r="Z9">
-        <v>0.9312184297828208</v>
+        <v>909.1575839851957</v>
       </c>
       <c r="AA9">
-        <v>1.038441482094288</v>
+        <v>916.5483996502005</v>
       </c>
       <c r="AB9">
-        <v>1.026243215215241</v>
+        <v>921.38030208997</v>
       </c>
       <c r="AC9">
-        <v>0.974386955745445</v>
+        <v>914.4284104632399</v>
       </c>
       <c r="AD9">
-        <v>0.9270812237671827</v>
+        <v>917.0577501528303</v>
       </c>
       <c r="AE9">
-        <v>0.9484051207917303</v>
+        <v>912.3082992861732</v>
       </c>
       <c r="AF9">
-        <v>1.011414204447941</v>
+        <v>920.1757574432584</v>
       </c>
       <c r="AG9">
-        <v>1.024666771390518</v>
+        <v>903.7499528435191</v>
       </c>
       <c r="AH9">
-        <v>0.9931038527507576</v>
+        <v>911.5757365656501</v>
       </c>
       <c r="AI9">
-        <v>0.9803156138140383</v>
+        <v>906.8340851945985</v>
       </c>
       <c r="AJ9">
-        <v>0.9991189440388016</v>
+        <v>906.8900638312554</v>
       </c>
       <c r="AK9">
-        <v>0.9547432470728365</v>
+        <v>916.320318557168</v>
       </c>
       <c r="AL9">
-        <v>0.9382123525446959</v>
+        <v>907.3185395975669</v>
       </c>
       <c r="AM9">
-        <v>1.016454593486808</v>
+        <v>911.2700628469307</v>
       </c>
       <c r="AN9">
-        <v>0.9911921616294136</v>
+        <v>917.1794237602097</v>
       </c>
       <c r="AO9">
-        <v>1.020155146977532</v>
+        <v>907.9297163476355</v>
       </c>
       <c r="AP9">
-        <v>1.100698966612105</v>
+        <v>915.5749652506406</v>
       </c>
       <c r="AQ9">
-        <v>0.9810464260750779</v>
+        <v>916.1718218305936</v>
       </c>
       <c r="AR9">
-        <v>1.050374194071237</v>
+        <v>912.6022600095646</v>
       </c>
       <c r="AS9">
-        <v>0.9880820800996136</v>
+        <v>921.9157512387447</v>
       </c>
       <c r="AT9">
-        <v>0.9816664496361669</v>
+        <v>923.0546960817303</v>
       </c>
       <c r="AU9">
-        <v>1.023402976798151</v>
+        <v>911.8783838403531</v>
       </c>
       <c r="AV9">
-        <v>0.9993859585198965</v>
+        <v>912.2652831332279</v>
       </c>
       <c r="AW9">
-        <v>0.9958558432511629</v>
+        <v>919.520530375043</v>
       </c>
       <c r="AX9">
-        <v>1.024869833870626</v>
+        <v>916.4921123124058</v>
       </c>
       <c r="AY9">
-        <v>1.076557018890951</v>
+        <v>912.4855678433056</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -1847,154 +1850,154 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9702531579874993</v>
+        <v>1.013511788993437</v>
       </c>
       <c r="C10">
-        <v>1.033787015754055</v>
+        <v>1.014266500594885</v>
       </c>
       <c r="D10">
-        <v>1.023217072132455</v>
+        <v>1.016750939713666</v>
       </c>
       <c r="E10">
-        <v>0.9890622290060351</v>
+        <v>0.9434696835820658</v>
       </c>
       <c r="F10">
-        <v>1.046191703925368</v>
+        <v>0.9826837520119905</v>
       </c>
       <c r="G10">
-        <v>0.9401544828657316</v>
+        <v>0.9860187852101602</v>
       </c>
       <c r="H10">
-        <v>1.076436932925767</v>
+        <v>1.088310876131855</v>
       </c>
       <c r="I10">
-        <v>0.9441270530402964</v>
+        <v>1.029172353434717</v>
       </c>
       <c r="J10">
-        <v>0.9137238224535591</v>
+        <v>1.003894457667021</v>
       </c>
       <c r="K10">
-        <v>0.9852685745167652</v>
+        <v>1.000429219242083</v>
       </c>
       <c r="L10">
-        <v>1.032008775979782</v>
+        <v>1.032017454494496</v>
       </c>
       <c r="M10">
-        <v>0.9700061484111557</v>
+        <v>1.015352956551413</v>
       </c>
       <c r="N10">
-        <v>1.010095008407204</v>
+        <v>1.00893725971649</v>
       </c>
       <c r="O10">
-        <v>1.101511410790255</v>
+        <v>0.9984880090128327</v>
       </c>
       <c r="P10">
-        <v>1.016646121782961</v>
+        <v>0.9916091324839331</v>
       </c>
       <c r="Q10">
-        <v>0.9377019156435928</v>
+        <v>1.062025720195017</v>
       </c>
       <c r="R10">
-        <v>1.025630506663834</v>
+        <v>1.022284761331524</v>
       </c>
       <c r="S10">
-        <v>0.9179972320596089</v>
+        <v>1.008401624487997</v>
       </c>
       <c r="T10">
-        <v>1.061261600835529</v>
+        <v>1.027955622000639</v>
       </c>
       <c r="U10">
-        <v>1.063167479857865</v>
+        <v>1.008694476248035</v>
       </c>
       <c r="V10">
-        <v>1.004273511768466</v>
+        <v>0.9317416731221828</v>
       </c>
       <c r="W10">
-        <v>0.9887176690560411</v>
+        <v>0.9578388283696903</v>
       </c>
       <c r="X10">
-        <v>1.042610033553513</v>
+        <v>1.016115617521589</v>
       </c>
       <c r="Y10">
-        <v>1.025952051517269</v>
+        <v>1.078040417545592</v>
       </c>
       <c r="Z10">
-        <v>1.052497532429878</v>
+        <v>0.9853371980853527</v>
       </c>
       <c r="AA10">
-        <v>1.008419246824643</v>
+        <v>0.9825063432858941</v>
       </c>
       <c r="AB10">
-        <v>1.027775695521055</v>
+        <v>0.9780228686114946</v>
       </c>
       <c r="AC10">
-        <v>1.003878028366282</v>
+        <v>0.9255499707953729</v>
       </c>
       <c r="AD10">
-        <v>0.9718217791135398</v>
+        <v>0.9368047058391482</v>
       </c>
       <c r="AE10">
-        <v>1.012314653001689</v>
+        <v>0.9361103585912056</v>
       </c>
       <c r="AF10">
-        <v>0.9916663779864604</v>
+        <v>1.034943610042154</v>
       </c>
       <c r="AG10">
-        <v>0.9684235401198108</v>
+        <v>1.021477626677575</v>
       </c>
       <c r="AH10">
-        <v>0.9508988991838254</v>
+        <v>0.9775169055695327</v>
       </c>
       <c r="AI10">
-        <v>0.978755427079091</v>
+        <v>1.052466708677601</v>
       </c>
       <c r="AJ10">
-        <v>1.119724831846909</v>
+        <v>1.034986193833213</v>
       </c>
       <c r="AK10">
-        <v>1.02136794126071</v>
+        <v>0.9943963804554008</v>
       </c>
       <c r="AL10">
-        <v>0.9941125709213241</v>
+        <v>0.9847551642443796</v>
       </c>
       <c r="AM10">
-        <v>1.042289665016054</v>
+        <v>0.9713033956334078</v>
       </c>
       <c r="AN10">
-        <v>1.00480785193233</v>
+        <v>0.9776121094951772</v>
       </c>
       <c r="AO10">
-        <v>0.9691239242597777</v>
+        <v>0.9880550114804395</v>
       </c>
       <c r="AP10">
-        <v>0.9719873418139986</v>
+        <v>0.9890127604184739</v>
       </c>
       <c r="AQ10">
-        <v>0.9806602377915641</v>
+        <v>1.035885068484657</v>
       </c>
       <c r="AR10">
-        <v>1.041058868176455</v>
+        <v>1.023664304553812</v>
       </c>
       <c r="AS10">
-        <v>0.8918166341616418</v>
+        <v>0.9766519535426709</v>
       </c>
       <c r="AT10">
-        <v>0.9732798021797867</v>
+        <v>1.044537917949997</v>
       </c>
       <c r="AU10">
-        <v>1.007109776994948</v>
+        <v>1.029323855483245</v>
       </c>
       <c r="AV10">
-        <v>1.017675182379393</v>
+        <v>1.051670675769379</v>
       </c>
       <c r="AW10">
-        <v>0.9681968377455347</v>
+        <v>1.033071118163384</v>
       </c>
       <c r="AX10">
-        <v>0.9983454436604026</v>
+        <v>0.90981291934828</v>
       </c>
       <c r="AY10">
-        <v>1.007155920631099</v>
+        <v>0.987361070211383</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2002,154 +2005,154 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.148207604868239</v>
+        <v>1.020021697494057</v>
       </c>
       <c r="C11">
-        <v>2.147469543785399</v>
+        <v>0.9891495620066858</v>
       </c>
       <c r="D11">
-        <v>2.147917006398888</v>
+        <v>1.03833897649471</v>
       </c>
       <c r="E11">
-        <v>2.147311601571714</v>
+        <v>1.026187353019806</v>
       </c>
       <c r="F11">
-        <v>2.147506034398643</v>
+        <v>1.060213108366628</v>
       </c>
       <c r="G11">
-        <v>2.148566831718113</v>
+        <v>0.915414402831214</v>
       </c>
       <c r="H11">
-        <v>2.148313891900794</v>
+        <v>0.9000899541818133</v>
       </c>
       <c r="I11">
-        <v>2.148116875570106</v>
+        <v>0.9965522391749039</v>
       </c>
       <c r="J11">
-        <v>2.148156416332299</v>
+        <v>0.9572995471420361</v>
       </c>
       <c r="K11">
-        <v>2.148138269072749</v>
+        <v>1.049609507634003</v>
       </c>
       <c r="L11">
-        <v>2.148012135706771</v>
+        <v>1.008147817181846</v>
       </c>
       <c r="M11">
-        <v>2.148257921460533</v>
+        <v>1.040180651641195</v>
       </c>
       <c r="N11">
-        <v>2.147577496247172</v>
+        <v>0.9113798208345218</v>
       </c>
       <c r="O11">
-        <v>2.148215961130007</v>
+        <v>0.9162456085023835</v>
       </c>
       <c r="P11">
-        <v>2.148118939789617</v>
+        <v>1.044784663934525</v>
       </c>
       <c r="Q11">
-        <v>2.148036396946622</v>
+        <v>1.058282367461508</v>
       </c>
       <c r="R11">
-        <v>2.148155871837923</v>
+        <v>0.8986251520591485</v>
       </c>
       <c r="S11">
-        <v>2.147838962602339</v>
+        <v>0.9650317077260463</v>
       </c>
       <c r="T11">
-        <v>2.147609939682551</v>
+        <v>0.9697906625203371</v>
       </c>
       <c r="U11">
-        <v>2.14811171252517</v>
+        <v>0.969056372899266</v>
       </c>
       <c r="V11">
-        <v>2.147787520534443</v>
+        <v>0.9211627094864363</v>
       </c>
       <c r="W11">
-        <v>2.148259243289321</v>
+        <v>0.9835663312281231</v>
       </c>
       <c r="X11">
-        <v>2.148061673370798</v>
+        <v>1.104897392056125</v>
       </c>
       <c r="Y11">
-        <v>2.147963854578764</v>
+        <v>0.9979056288746998</v>
       </c>
       <c r="Z11">
-        <v>2.148180485098148</v>
+        <v>0.9797922679799003</v>
       </c>
       <c r="AA11">
-        <v>2.148204292249806</v>
+        <v>0.8828893811909911</v>
       </c>
       <c r="AB11">
-        <v>2.147914988627952</v>
+        <v>0.9287964962955965</v>
       </c>
       <c r="AC11">
-        <v>2.14766944695543</v>
+        <v>1.00369894197688</v>
       </c>
       <c r="AD11">
-        <v>2.148092846989549</v>
+        <v>0.9973148256601313</v>
       </c>
       <c r="AE11">
-        <v>2.147772160035908</v>
+        <v>0.9346366962527862</v>
       </c>
       <c r="AF11">
-        <v>2.146950609469348</v>
+        <v>0.9918142655815879</v>
       </c>
       <c r="AG11">
-        <v>2.14794813194591</v>
+        <v>1.009959984250153</v>
       </c>
       <c r="AH11">
-        <v>2.147777424538921</v>
+        <v>0.9889976717272813</v>
       </c>
       <c r="AI11">
-        <v>2.148419530449549</v>
+        <v>0.9822262977272532</v>
       </c>
       <c r="AJ11">
-        <v>2.148043066849513</v>
+        <v>1.059970610403971</v>
       </c>
       <c r="AK11">
-        <v>2.148211300308076</v>
+        <v>0.9487780784757091</v>
       </c>
       <c r="AL11">
-        <v>2.147838390133736</v>
+        <v>1.001547252727357</v>
       </c>
       <c r="AM11">
-        <v>2.147936287493017</v>
+        <v>0.9726695421436125</v>
       </c>
       <c r="AN11">
-        <v>2.148148357735483</v>
+        <v>0.9499367608815517</v>
       </c>
       <c r="AO11">
-        <v>2.148039035595079</v>
+        <v>0.9991590124968005</v>
       </c>
       <c r="AP11">
-        <v>2.14814802045878</v>
+        <v>1.017480553900479</v>
       </c>
       <c r="AQ11">
-        <v>2.148081946828307</v>
+        <v>1.048666940448796</v>
       </c>
       <c r="AR11">
-        <v>2.148213206981804</v>
+        <v>0.9328633901510927</v>
       </c>
       <c r="AS11">
-        <v>2.147809541683078</v>
+        <v>0.8795417704118008</v>
       </c>
       <c r="AT11">
-        <v>2.147813946925173</v>
+        <v>0.9605427623103461</v>
       </c>
       <c r="AU11">
-        <v>2.148184580288653</v>
+        <v>1.003684149993038</v>
       </c>
       <c r="AV11">
-        <v>2.148083699799003</v>
+        <v>1.0126393716396</v>
       </c>
       <c r="AW11">
-        <v>2.148331406733343</v>
+        <v>0.9894673921553132</v>
       </c>
       <c r="AX11">
-        <v>2.147691843220612</v>
+        <v>1.008963710246679</v>
       </c>
       <c r="AY11">
-        <v>2.147747038726296</v>
+        <v>0.9553946291304083</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2157,154 +2160,154 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9138454157815468</v>
+        <v>2.147875169143592</v>
       </c>
       <c r="C12">
-        <v>0.9141944838121475</v>
+        <v>2.148563935323112</v>
       </c>
       <c r="D12">
-        <v>0.9138270207331125</v>
+        <v>2.147519412168875</v>
       </c>
       <c r="E12">
-        <v>0.9141200927538753</v>
+        <v>2.148133641595189</v>
       </c>
       <c r="F12">
-        <v>0.9141731524086099</v>
+        <v>2.148099655484085</v>
       </c>
       <c r="G12">
-        <v>0.9137931776665246</v>
+        <v>2.147990082787986</v>
       </c>
       <c r="H12">
-        <v>0.9141057735639273</v>
+        <v>2.14741672466941</v>
       </c>
       <c r="I12">
-        <v>0.9136688014835781</v>
+        <v>2.148116701690682</v>
       </c>
       <c r="J12">
-        <v>0.9140872449123917</v>
+        <v>2.148091376045422</v>
       </c>
       <c r="K12">
-        <v>0.9140879637030124</v>
+        <v>2.147709636409332</v>
       </c>
       <c r="L12">
-        <v>0.9137960827123045</v>
+        <v>2.147930743960941</v>
       </c>
       <c r="M12">
-        <v>0.9140944160006933</v>
+        <v>2.148214658413433</v>
       </c>
       <c r="N12">
-        <v>0.9138639742974421</v>
+        <v>2.148068791012819</v>
       </c>
       <c r="O12">
-        <v>0.9136687687558186</v>
+        <v>2.148216388563581</v>
       </c>
       <c r="P12">
-        <v>0.9138328940591057</v>
+        <v>2.148156175383005</v>
       </c>
       <c r="Q12">
-        <v>0.9137809502014889</v>
+        <v>2.148270930006614</v>
       </c>
       <c r="R12">
-        <v>0.9138588610488876</v>
+        <v>2.148251976324213</v>
       </c>
       <c r="S12">
-        <v>0.9138884717835469</v>
+        <v>2.148003688809402</v>
       </c>
       <c r="T12">
-        <v>0.9140762076620751</v>
+        <v>2.147944266948633</v>
       </c>
       <c r="U12">
-        <v>0.9140713171238091</v>
+        <v>2.147850864463821</v>
       </c>
       <c r="V12">
-        <v>0.914093788179885</v>
+        <v>2.147886271498057</v>
       </c>
       <c r="W12">
-        <v>0.9136411162150873</v>
+        <v>2.147790625247422</v>
       </c>
       <c r="X12">
-        <v>0.914228883796638</v>
+        <v>2.147937949816096</v>
       </c>
       <c r="Y12">
-        <v>0.9140248008970572</v>
+        <v>2.148527415018466</v>
       </c>
       <c r="Z12">
-        <v>0.9141068524685821</v>
+        <v>2.148470287901044</v>
       </c>
       <c r="AA12">
-        <v>0.9143687820854323</v>
+        <v>2.148354583411002</v>
       </c>
       <c r="AB12">
-        <v>0.9143960128781584</v>
+        <v>2.148144893073078</v>
       </c>
       <c r="AC12">
-        <v>0.913941232257926</v>
+        <v>2.148392898321876</v>
       </c>
       <c r="AD12">
-        <v>0.9141383335747694</v>
+        <v>2.147694890546068</v>
       </c>
       <c r="AE12">
-        <v>0.9139463290570414</v>
+        <v>2.147999837829201</v>
       </c>
       <c r="AF12">
-        <v>0.9139281023632535</v>
+        <v>2.148513962930667</v>
       </c>
       <c r="AG12">
-        <v>0.9139345958716011</v>
+        <v>2.147527961942441</v>
       </c>
       <c r="AH12">
-        <v>0.914407216116475</v>
+        <v>2.147696287237973</v>
       </c>
       <c r="AI12">
-        <v>0.9139393852852916</v>
+        <v>2.148520166873498</v>
       </c>
       <c r="AJ12">
-        <v>0.9137175422244423</v>
+        <v>2.14793806779109</v>
       </c>
       <c r="AK12">
-        <v>0.9134978477414061</v>
+        <v>2.147960734137862</v>
       </c>
       <c r="AL12">
-        <v>0.9137761183111839</v>
+        <v>2.147348254746806</v>
       </c>
       <c r="AM12">
-        <v>0.9139030220317959</v>
+        <v>2.14837639761659</v>
       </c>
       <c r="AN12">
-        <v>0.9139141644107985</v>
+        <v>2.147929044867757</v>
       </c>
       <c r="AO12">
-        <v>0.913502035727129</v>
+        <v>2.147981952035964</v>
       </c>
       <c r="AP12">
-        <v>0.9139263118657631</v>
+        <v>2.147733813761385</v>
       </c>
       <c r="AQ12">
-        <v>0.9135976112347987</v>
+        <v>2.147649912086858</v>
       </c>
       <c r="AR12">
-        <v>0.9142437124036566</v>
+        <v>2.148132023285809</v>
       </c>
       <c r="AS12">
-        <v>0.914129224293059</v>
+        <v>2.147722928568946</v>
       </c>
       <c r="AT12">
-        <v>0.9137757011759218</v>
+        <v>2.148210281129281</v>
       </c>
       <c r="AU12">
-        <v>0.9141142057485966</v>
+        <v>2.147842250110696</v>
       </c>
       <c r="AV12">
-        <v>0.9137370862046129</v>
+        <v>2.14823467534389</v>
       </c>
       <c r="AW12">
-        <v>0.9141010547984245</v>
+        <v>2.148661905859808</v>
       </c>
       <c r="AX12">
-        <v>0.9140161002212173</v>
+        <v>2.148010820310783</v>
       </c>
       <c r="AY12">
-        <v>0.9135996316095838</v>
+        <v>2.147358252278865</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2312,154 +2315,154 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07840424369767547</v>
+        <v>0.9140465949845752</v>
       </c>
       <c r="C13">
-        <v>0.07804561218807265</v>
+        <v>0.9137017049740493</v>
       </c>
       <c r="D13">
-        <v>0.07845054607160194</v>
+        <v>0.9142857826692518</v>
       </c>
       <c r="E13">
-        <v>0.07844465470038151</v>
+        <v>0.914235938752018</v>
       </c>
       <c r="F13">
-        <v>0.07895595317320689</v>
+        <v>0.9138547847085491</v>
       </c>
       <c r="G13">
-        <v>0.07830445080458245</v>
+        <v>0.9141275569772481</v>
       </c>
       <c r="H13">
-        <v>0.07822501035400121</v>
+        <v>0.914147460046224</v>
       </c>
       <c r="I13">
-        <v>0.07857231963157692</v>
+        <v>0.9138950318395509</v>
       </c>
       <c r="J13">
-        <v>0.0787657692657299</v>
+        <v>0.9137800350491464</v>
       </c>
       <c r="K13">
-        <v>0.0789952563374058</v>
+        <v>0.9143171830133972</v>
       </c>
       <c r="L13">
-        <v>0.0786161790033687</v>
+        <v>0.9142417456967783</v>
       </c>
       <c r="M13">
-        <v>0.07815676580497193</v>
+        <v>0.9137501506985835</v>
       </c>
       <c r="N13">
-        <v>0.0788224887555614</v>
+        <v>0.9137328348325519</v>
       </c>
       <c r="O13">
-        <v>0.07886464593430315</v>
+        <v>0.913882457387329</v>
       </c>
       <c r="P13">
-        <v>0.07870770402837896</v>
+        <v>0.913711100287764</v>
       </c>
       <c r="Q13">
-        <v>0.07845573694391249</v>
+        <v>0.9138406442758423</v>
       </c>
       <c r="R13">
-        <v>0.07868553002558396</v>
+        <v>0.9136206643290125</v>
       </c>
       <c r="S13">
-        <v>0.07840277896091649</v>
+        <v>0.9139958281167178</v>
       </c>
       <c r="T13">
-        <v>0.07902509027730049</v>
+        <v>0.9139555327693585</v>
       </c>
       <c r="U13">
-        <v>0.07833920198608153</v>
+        <v>0.9141083807590991</v>
       </c>
       <c r="V13">
-        <v>0.07780656078004432</v>
+        <v>0.9141214874046932</v>
       </c>
       <c r="W13">
-        <v>0.07868420231576941</v>
+        <v>0.9139370347903492</v>
       </c>
       <c r="X13">
-        <v>0.07823013075883337</v>
+        <v>0.914053715451832</v>
       </c>
       <c r="Y13">
-        <v>0.07902056040263926</v>
+        <v>0.9138369420906872</v>
       </c>
       <c r="Z13">
-        <v>0.07877401714622077</v>
+        <v>0.9139344320963653</v>
       </c>
       <c r="AA13">
-        <v>0.0789510016439499</v>
+        <v>0.9139595894835806</v>
       </c>
       <c r="AB13">
-        <v>0.07906946482560459</v>
+        <v>0.9139216049069371</v>
       </c>
       <c r="AC13">
-        <v>0.07874871950873583</v>
+        <v>0.9142231482460029</v>
       </c>
       <c r="AD13">
-        <v>0.0789403221338565</v>
+        <v>0.9140127945022943</v>
       </c>
       <c r="AE13">
-        <v>0.0777379852227344</v>
+        <v>0.9138591554016603</v>
       </c>
       <c r="AF13">
-        <v>0.0784150435765784</v>
+        <v>0.9139796218653916</v>
       </c>
       <c r="AG13">
-        <v>0.0782669003104801</v>
+        <v>0.9140702106726929</v>
       </c>
       <c r="AH13">
-        <v>0.07871007788275639</v>
+        <v>0.9141131921983523</v>
       </c>
       <c r="AI13">
-        <v>0.07866269973456888</v>
+        <v>0.9143208062794907</v>
       </c>
       <c r="AJ13">
-        <v>0.07904451142935426</v>
+        <v>0.913949271022489</v>
       </c>
       <c r="AK13">
-        <v>0.07858627510477258</v>
+        <v>0.9142477838524413</v>
       </c>
       <c r="AL13">
-        <v>0.07841973270554131</v>
+        <v>0.9139322282766109</v>
       </c>
       <c r="AM13">
-        <v>0.07844632070812839</v>
+        <v>0.9140895848384223</v>
       </c>
       <c r="AN13">
-        <v>0.0781633780079429</v>
+        <v>0.9142311735075442</v>
       </c>
       <c r="AO13">
-        <v>0.07927144636799711</v>
+        <v>0.9138184665741806</v>
       </c>
       <c r="AP13">
-        <v>0.07907232466121417</v>
+        <v>0.9139842355429012</v>
       </c>
       <c r="AQ13">
-        <v>0.07839147665100295</v>
+        <v>0.9138600853328143</v>
       </c>
       <c r="AR13">
-        <v>0.07844904942814358</v>
+        <v>0.9139097812366143</v>
       </c>
       <c r="AS13">
-        <v>0.07879048235859848</v>
+        <v>0.9141081159812317</v>
       </c>
       <c r="AT13">
-        <v>0.07818003334544311</v>
+        <v>0.913958644954283</v>
       </c>
       <c r="AU13">
-        <v>0.07880567345094383</v>
+        <v>0.9144398576208385</v>
       </c>
       <c r="AV13">
-        <v>0.07809601576127469</v>
+        <v>0.9138870548310184</v>
       </c>
       <c r="AW13">
-        <v>0.07833447328609278</v>
+        <v>0.9139349938747976</v>
       </c>
       <c r="AX13">
-        <v>0.07825839432570311</v>
+        <v>0.9135599973118446</v>
       </c>
       <c r="AY13">
-        <v>0.07797555952342208</v>
+        <v>0.9137115629404804</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2467,154 +2470,154 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.0781328135551948</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.07793128925238632</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.07865435446064875</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.07895272730625945</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.07798146628507097</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.07853330602862973</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.07870085840207719</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.07842514002744681</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07871135566464389</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.07904471881613732</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07855014529909403</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07846784211698164</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0787270268679037</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.0788756627700479</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07860955790692989</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.07811238960254584</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.07850206259386133</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.07871467837646791</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.07865396169185347</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.07867257626279302</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.07881224554950868</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.07845046591783753</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.07858182810651734</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.07871821204185038</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.07854694679545017</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>0.07840386377701197</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.07841479551270725</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.07900838906963892</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.07847166641689296</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>0.07857421390391796</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>0.07860035951495724</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>0.07803703062142732</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.07883558599640708</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>0.07848705312443591</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>0.07853034275385691</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>0.07838174722350782</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>0.07848286541790642</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>0.07844846366290846</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.07861734095677837</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.07873368179045535</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>0.07869112193523616</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.07844745575490671</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>0.07857769070424156</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>0.07864546862623839</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>0.07854472368434927</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>0.07873755530187086</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>0.07869240617929656</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>0.0786328024180155</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>0.07807236401691027</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>0.07893794591325026</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -2622,154 +2625,154 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -2777,154 +2780,154 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5578448949773619</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0.5550189439061809</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>0.5555990200896098</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>0.5631187394120722</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0.5593222115118168</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>0.5567857925169007</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>0.5596985105374662</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>0.560205741014166</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>0.5641513742734807</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>0.5608042781007131</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>0.561155255265573</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.5585991221195153</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>0.5556676556340782</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>0.5610692237082827</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>0.5582277050371084</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0.5608084866979601</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>0.5613431145337562</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>0.5569998225731893</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>0.5602841250134641</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>0.5623633156621576</v>
+        <v>4</v>
       </c>
       <c r="V16">
-        <v>0.5584045865500504</v>
+        <v>4</v>
       </c>
       <c r="W16">
-        <v>0.5589285497606893</v>
+        <v>4</v>
       </c>
       <c r="X16">
-        <v>0.5597587505031549</v>
+        <v>4</v>
       </c>
       <c r="Y16">
-        <v>0.5604199810079674</v>
+        <v>4</v>
       </c>
       <c r="Z16">
-        <v>0.5596540254181218</v>
+        <v>4</v>
       </c>
       <c r="AA16">
-        <v>0.5609601764224855</v>
+        <v>4</v>
       </c>
       <c r="AB16">
-        <v>0.5561437967218354</v>
+        <v>4</v>
       </c>
       <c r="AC16">
-        <v>0.5563796358550894</v>
+        <v>4</v>
       </c>
       <c r="AD16">
-        <v>0.5600563113358826</v>
+        <v>4</v>
       </c>
       <c r="AE16">
-        <v>0.5587494883485677</v>
+        <v>4</v>
       </c>
       <c r="AF16">
-        <v>0.5600336402957524</v>
+        <v>4</v>
       </c>
       <c r="AG16">
-        <v>0.557860006168028</v>
+        <v>4</v>
       </c>
       <c r="AH16">
-        <v>0.5617464842758277</v>
+        <v>4</v>
       </c>
       <c r="AI16">
-        <v>0.5598206816010471</v>
+        <v>4</v>
       </c>
       <c r="AJ16">
-        <v>0.5581929591209038</v>
+        <v>4</v>
       </c>
       <c r="AK16">
-        <v>0.5564677459630931</v>
+        <v>4</v>
       </c>
       <c r="AL16">
-        <v>0.5583790537224805</v>
+        <v>4</v>
       </c>
       <c r="AM16">
-        <v>0.5630942413796467</v>
+        <v>4</v>
       </c>
       <c r="AN16">
-        <v>0.5611014772389675</v>
+        <v>4</v>
       </c>
       <c r="AO16">
-        <v>0.5595418574189116</v>
+        <v>4</v>
       </c>
       <c r="AP16">
-        <v>0.5584333622245606</v>
+        <v>4</v>
       </c>
       <c r="AQ16">
-        <v>0.5584856826288666</v>
+        <v>4</v>
       </c>
       <c r="AR16">
-        <v>0.5617689818742275</v>
+        <v>4</v>
       </c>
       <c r="AS16">
-        <v>0.5595955243433413</v>
+        <v>4</v>
       </c>
       <c r="AT16">
-        <v>0.5590872695918021</v>
+        <v>4</v>
       </c>
       <c r="AU16">
-        <v>0.5592187869716122</v>
+        <v>4</v>
       </c>
       <c r="AV16">
-        <v>0.5594532289601657</v>
+        <v>4</v>
       </c>
       <c r="AW16">
-        <v>0.5584146077119301</v>
+        <v>4</v>
       </c>
       <c r="AX16">
-        <v>0.5600635341704898</v>
+        <v>4</v>
       </c>
       <c r="AY16">
-        <v>0.559015914912122</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -2932,154 +2935,154 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1767920726920182</v>
+        <v>0.5607292043094538</v>
       </c>
       <c r="C17">
-        <v>0.1778000881860936</v>
+        <v>0.5632079776854406</v>
       </c>
       <c r="D17">
-        <v>0.1804945853186798</v>
+        <v>0.5587796723259504</v>
       </c>
       <c r="E17">
-        <v>0.1772278164543675</v>
+        <v>0.5578614226653222</v>
       </c>
       <c r="F17">
-        <v>0.1784276379202086</v>
+        <v>0.5597206776534523</v>
       </c>
       <c r="G17">
-        <v>0.1762518077145812</v>
+        <v>0.5588348745889956</v>
       </c>
       <c r="H17">
-        <v>0.1774914736950961</v>
+        <v>0.5557291775269833</v>
       </c>
       <c r="I17">
-        <v>0.1778055820219885</v>
+        <v>0.5564069338821086</v>
       </c>
       <c r="J17">
-        <v>0.1803996149103656</v>
+        <v>0.5593715250555998</v>
       </c>
       <c r="K17">
-        <v>0.177435601088951</v>
+        <v>0.5580803335216846</v>
       </c>
       <c r="L17">
-        <v>0.1815749030201332</v>
+        <v>0.5572187446366302</v>
       </c>
       <c r="M17">
-        <v>0.1804550915255728</v>
+        <v>0.5582127497702658</v>
       </c>
       <c r="N17">
-        <v>0.1760859826936856</v>
+        <v>0.5577577835413539</v>
       </c>
       <c r="O17">
-        <v>0.1776049149383056</v>
+        <v>0.5614659675124749</v>
       </c>
       <c r="P17">
-        <v>0.1793843009610697</v>
+        <v>0.5602140530264494</v>
       </c>
       <c r="Q17">
-        <v>0.1809785600902903</v>
+        <v>0.5581879976862265</v>
       </c>
       <c r="R17">
-        <v>0.1776961055217407</v>
+        <v>0.5555839906418866</v>
       </c>
       <c r="S17">
-        <v>0.1797794661296461</v>
+        <v>0.5584993965390287</v>
       </c>
       <c r="T17">
-        <v>0.180480448729515</v>
+        <v>0.5569242256039806</v>
       </c>
       <c r="U17">
-        <v>0.1778597868311335</v>
+        <v>0.5654371543932366</v>
       </c>
       <c r="V17">
-        <v>0.1809157625703897</v>
+        <v>0.5580935606140852</v>
       </c>
       <c r="W17">
-        <v>0.1774715176602443</v>
+        <v>0.5604677398360718</v>
       </c>
       <c r="X17">
-        <v>0.1741929376241569</v>
+        <v>0.5575221796779646</v>
       </c>
       <c r="Y17">
-        <v>0.1775444399416693</v>
+        <v>0.5587957670559399</v>
       </c>
       <c r="Z17">
-        <v>0.1810971337685681</v>
+        <v>0.5592639394250341</v>
       </c>
       <c r="AA17">
-        <v>0.1786885380939986</v>
+        <v>0.5615753886113561</v>
       </c>
       <c r="AB17">
-        <v>0.175478380490641</v>
+        <v>0.5600017988258628</v>
       </c>
       <c r="AC17">
-        <v>0.176632789864817</v>
+        <v>0.5595017059073657</v>
       </c>
       <c r="AD17">
-        <v>0.1788007250924883</v>
+        <v>0.5585984108635682</v>
       </c>
       <c r="AE17">
-        <v>0.1800998919034365</v>
+        <v>0.5561801065570205</v>
       </c>
       <c r="AF17">
-        <v>0.1731437599196345</v>
+        <v>0.559303260699015</v>
       </c>
       <c r="AG17">
-        <v>0.1772213548373158</v>
+        <v>0.5597906491857289</v>
       </c>
       <c r="AH17">
-        <v>0.1809154218845152</v>
+        <v>0.5600878507752782</v>
       </c>
       <c r="AI17">
-        <v>0.1747063945100362</v>
+        <v>0.5591779966962184</v>
       </c>
       <c r="AJ17">
-        <v>0.1801132978223653</v>
+        <v>0.5599593368922327</v>
       </c>
       <c r="AK17">
-        <v>0.1781522801910565</v>
+        <v>0.5568902695792859</v>
       </c>
       <c r="AL17">
-        <v>0.1774412457288414</v>
+        <v>0.5593610063588469</v>
       </c>
       <c r="AM17">
-        <v>0.1745716820994506</v>
+        <v>0.560228500800912</v>
       </c>
       <c r="AN17">
-        <v>0.178759791431481</v>
+        <v>0.5556460795643393</v>
       </c>
       <c r="AO17">
-        <v>0.1766808491332485</v>
+        <v>0.5595659603676303</v>
       </c>
       <c r="AP17">
-        <v>0.1754178074865018</v>
+        <v>0.5616036676759628</v>
       </c>
       <c r="AQ17">
-        <v>0.1781942467457151</v>
+        <v>0.5605966429260996</v>
       </c>
       <c r="AR17">
-        <v>0.1749549358858389</v>
+        <v>0.5585421205916102</v>
       </c>
       <c r="AS17">
-        <v>0.1793542194090575</v>
+        <v>0.5599628034740831</v>
       </c>
       <c r="AT17">
-        <v>0.1748647425049638</v>
+        <v>0.5581699863794766</v>
       </c>
       <c r="AU17">
-        <v>0.1796474842656831</v>
+        <v>0.558529291700395</v>
       </c>
       <c r="AV17">
-        <v>0.1777070804366448</v>
+        <v>0.5561374263445138</v>
       </c>
       <c r="AW17">
-        <v>0.1770308274088392</v>
+        <v>0.5605505708347944</v>
       </c>
       <c r="AX17">
-        <v>0.1779449976390406</v>
+        <v>0.5567970516156452</v>
       </c>
       <c r="AY17">
-        <v>0.1739523904286548</v>
+        <v>0.5601574200210369</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3087,154 +3090,154 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1281369222394641</v>
+        <v>0.1784453676078921</v>
       </c>
       <c r="C18">
-        <v>0.1280315838528194</v>
+        <v>0.1779677447272138</v>
       </c>
       <c r="D18">
-        <v>0.1282133649616616</v>
+        <v>0.1759706314784646</v>
       </c>
       <c r="E18">
-        <v>0.1235612653900604</v>
+        <v>0.1750944948334267</v>
       </c>
       <c r="F18">
-        <v>0.1275824763870214</v>
+        <v>0.1769018298319691</v>
       </c>
       <c r="G18">
-        <v>0.1281192951532316</v>
+        <v>0.1788077716866193</v>
       </c>
       <c r="H18">
-        <v>0.1273015733956673</v>
+        <v>0.1774377447402421</v>
       </c>
       <c r="I18">
-        <v>0.1280547837779863</v>
+        <v>0.18050508752346</v>
       </c>
       <c r="J18">
-        <v>0.1246227027585975</v>
+        <v>0.1795678561853823</v>
       </c>
       <c r="K18">
-        <v>0.1266306190082085</v>
+        <v>0.1768192519050414</v>
       </c>
       <c r="L18">
-        <v>0.1286640302712133</v>
+        <v>0.1750245444333882</v>
       </c>
       <c r="M18">
-        <v>0.1271605279277226</v>
+        <v>0.1774339586504083</v>
       </c>
       <c r="N18">
-        <v>0.1280770021582806</v>
+        <v>0.1788292836498133</v>
       </c>
       <c r="O18">
-        <v>0.1281230614984995</v>
+        <v>0.1775534322578238</v>
       </c>
       <c r="P18">
-        <v>0.1251408485860581</v>
+        <v>0.176968462867393</v>
       </c>
       <c r="Q18">
-        <v>0.125781472832127</v>
+        <v>0.1752460770669948</v>
       </c>
       <c r="R18">
-        <v>0.1276986533404104</v>
+        <v>0.1764705371590229</v>
       </c>
       <c r="S18">
-        <v>0.1292052372125809</v>
+        <v>0.1767214933127189</v>
       </c>
       <c r="T18">
-        <v>0.1281547988759622</v>
+        <v>0.1790623257651812</v>
       </c>
       <c r="U18">
-        <v>0.1309371113250303</v>
+        <v>0.1793705663190038</v>
       </c>
       <c r="V18">
-        <v>0.1252208449706542</v>
+        <v>0.1786934120090712</v>
       </c>
       <c r="W18">
-        <v>0.127764771633524</v>
+        <v>0.17852539869376</v>
       </c>
       <c r="X18">
-        <v>0.1274130004102864</v>
+        <v>0.1776387992982314</v>
       </c>
       <c r="Y18">
-        <v>0.1287628887919772</v>
+        <v>0.177207342694737</v>
       </c>
       <c r="Z18">
-        <v>0.1295700290580635</v>
+        <v>0.1781495824228931</v>
       </c>
       <c r="AA18">
-        <v>0.1307759923393929</v>
+        <v>0.180996336231664</v>
       </c>
       <c r="AB18">
-        <v>0.1299829458911175</v>
+        <v>0.1785411508837871</v>
       </c>
       <c r="AC18">
-        <v>0.1289673432663332</v>
+        <v>0.1786644988945592</v>
       </c>
       <c r="AD18">
-        <v>0.129708658427848</v>
+        <v>0.177897340457849</v>
       </c>
       <c r="AE18">
-        <v>0.1267145634856817</v>
+        <v>0.1795231517352414</v>
       </c>
       <c r="AF18">
-        <v>0.1277887980305041</v>
+        <v>0.1771394332137842</v>
       </c>
       <c r="AG18">
-        <v>0.1276357519342144</v>
+        <v>0.1757056331030882</v>
       </c>
       <c r="AH18">
-        <v>0.1244083249290179</v>
+        <v>0.1761548981286706</v>
       </c>
       <c r="AI18">
-        <v>0.1227769223733982</v>
+        <v>0.1759338593238497</v>
       </c>
       <c r="AJ18">
-        <v>0.1236372358928744</v>
+        <v>0.17923752033984</v>
       </c>
       <c r="AK18">
-        <v>0.1295659855678057</v>
+        <v>0.1766955051317939</v>
       </c>
       <c r="AL18">
-        <v>0.1267815911436448</v>
+        <v>0.1810630650453505</v>
       </c>
       <c r="AM18">
-        <v>0.1261986120371053</v>
+        <v>0.1801931397293442</v>
       </c>
       <c r="AN18">
-        <v>0.126092996158796</v>
+        <v>0.1781770686615882</v>
       </c>
       <c r="AO18">
-        <v>0.1247966824925643</v>
+        <v>0.1767376395437882</v>
       </c>
       <c r="AP18">
-        <v>0.1256573452116384</v>
+        <v>0.1781917146710465</v>
       </c>
       <c r="AQ18">
-        <v>0.1281385858999426</v>
+        <v>0.1772300549371967</v>
       </c>
       <c r="AR18">
-        <v>0.1277966119429312</v>
+        <v>0.1785942866952703</v>
       </c>
       <c r="AS18">
-        <v>0.1267760050017759</v>
+        <v>0.1815040486765596</v>
       </c>
       <c r="AT18">
-        <v>0.120280730664927</v>
+        <v>0.1771353774051923</v>
       </c>
       <c r="AU18">
-        <v>0.123952432628726</v>
+        <v>0.1789166777186867</v>
       </c>
       <c r="AV18">
-        <v>0.1259875594935804</v>
+        <v>0.1801212406023976</v>
       </c>
       <c r="AW18">
-        <v>0.1255912040275634</v>
+        <v>0.181886550899017</v>
       </c>
       <c r="AX18">
-        <v>0.1244129016524564</v>
+        <v>0.179225292836675</v>
       </c>
       <c r="AY18">
-        <v>0.1246620063436409</v>
+        <v>0.1753031032660984</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3242,154 +3245,154 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.110776545840607</v>
+        <v>0.1239287645376521</v>
       </c>
       <c r="C19">
-        <v>5.10765795718725</v>
+        <v>0.1268789733495342</v>
       </c>
       <c r="D19">
-        <v>5.108346130491574</v>
+        <v>0.1268508565450682</v>
       </c>
       <c r="E19">
-        <v>5.108159438205597</v>
+        <v>0.1301483908995215</v>
       </c>
       <c r="F19">
-        <v>5.112498520707513</v>
+        <v>0.129353730168856</v>
       </c>
       <c r="G19">
-        <v>5.106686752258206</v>
+        <v>0.1272516663569015</v>
       </c>
       <c r="H19">
-        <v>5.109533471808439</v>
+        <v>0.1301855294898328</v>
       </c>
       <c r="I19">
-        <v>5.110910238974448</v>
+        <v>0.1262724049346207</v>
       </c>
       <c r="J19">
-        <v>5.10812984521812</v>
+        <v>0.1270378253119231</v>
       </c>
       <c r="K19">
-        <v>5.108851726391473</v>
+        <v>0.1271505424580145</v>
       </c>
       <c r="L19">
-        <v>5.110534945321343</v>
+        <v>0.1332271271704321</v>
       </c>
       <c r="M19">
-        <v>5.109426276780879</v>
+        <v>0.1273807397028007</v>
       </c>
       <c r="N19">
-        <v>5.111214662693025</v>
+        <v>0.1256817151712243</v>
       </c>
       <c r="O19">
-        <v>5.107786478238643</v>
+        <v>0.1280356148740385</v>
       </c>
       <c r="P19">
-        <v>5.108233888718164</v>
+        <v>0.1229395682150223</v>
       </c>
       <c r="Q19">
-        <v>5.110466548272615</v>
+        <v>0.1273339909148446</v>
       </c>
       <c r="R19">
-        <v>5.107741394601205</v>
+        <v>0.1284807069457127</v>
       </c>
       <c r="S19">
-        <v>5.109032078504057</v>
+        <v>0.1292922211642873</v>
       </c>
       <c r="T19">
-        <v>5.10806996534948</v>
+        <v>0.1272120815321125</v>
       </c>
       <c r="U19">
-        <v>5.108764862646965</v>
+        <v>0.1262665172575224</v>
       </c>
       <c r="V19">
-        <v>5.104505247611581</v>
+        <v>0.1245556072767925</v>
       </c>
       <c r="W19">
-        <v>5.106236106175355</v>
+        <v>0.1272771391714077</v>
       </c>
       <c r="X19">
-        <v>5.10603176181757</v>
+        <v>0.1285256743412451</v>
       </c>
       <c r="Y19">
-        <v>5.107733106825118</v>
+        <v>0.1247462447069055</v>
       </c>
       <c r="Z19">
-        <v>5.108736037959068</v>
+        <v>0.1295878969514611</v>
       </c>
       <c r="AA19">
-        <v>5.109756047847222</v>
+        <v>0.1259844280443646</v>
       </c>
       <c r="AB19">
-        <v>5.107609039356648</v>
+        <v>0.1261904103305599</v>
       </c>
       <c r="AC19">
-        <v>5.108212851307564</v>
+        <v>0.1252665511395555</v>
       </c>
       <c r="AD19">
-        <v>5.106409198307517</v>
+        <v>0.1278617109091907</v>
       </c>
       <c r="AE19">
-        <v>5.108115701664319</v>
+        <v>0.1266543864619389</v>
       </c>
       <c r="AF19">
-        <v>5.110823591025278</v>
+        <v>0.1274331982039749</v>
       </c>
       <c r="AG19">
-        <v>5.103875750465922</v>
+        <v>0.1275203398893428</v>
       </c>
       <c r="AH19">
-        <v>5.108486490744638</v>
+        <v>0.1269159315309907</v>
       </c>
       <c r="AI19">
-        <v>5.104612593680319</v>
+        <v>0.1261636165773672</v>
       </c>
       <c r="AJ19">
-        <v>5.107767248754183</v>
+        <v>0.1280657630770394</v>
       </c>
       <c r="AK19">
-        <v>5.105371396766265</v>
+        <v>0.1253888990735527</v>
       </c>
       <c r="AL19">
-        <v>5.108819218528426</v>
+        <v>0.1231768555877936</v>
       </c>
       <c r="AM19">
-        <v>5.108755547574017</v>
+        <v>0.1265338631044335</v>
       </c>
       <c r="AN19">
-        <v>5.107778223396379</v>
+        <v>0.1256480876993798</v>
       </c>
       <c r="AO19">
-        <v>5.109426825715999</v>
+        <v>0.1267649416064326</v>
       </c>
       <c r="AP19">
-        <v>5.109997266121974</v>
+        <v>0.1261588858728643</v>
       </c>
       <c r="AQ19">
-        <v>5.109629843448086</v>
+        <v>0.1273218664444675</v>
       </c>
       <c r="AR19">
-        <v>5.107799243765298</v>
+        <v>0.127218427927241</v>
       </c>
       <c r="AS19">
-        <v>5.110109740977538</v>
+        <v>0.1273083088221935</v>
       </c>
       <c r="AT19">
-        <v>5.108680769645424</v>
+        <v>0.1265104103562242</v>
       </c>
       <c r="AU19">
-        <v>5.108850149968885</v>
+        <v>0.1258945218828148</v>
       </c>
       <c r="AV19">
-        <v>5.107236198706757</v>
+        <v>0.123853094556489</v>
       </c>
       <c r="AW19">
-        <v>5.112889318726152</v>
+        <v>0.1244955609650067</v>
       </c>
       <c r="AX19">
-        <v>5.111292243611453</v>
+        <v>0.1264642340016502</v>
       </c>
       <c r="AY19">
-        <v>5.110363986232653</v>
+        <v>0.1308357682001297</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3397,154 +3400,154 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.04991268452345306</v>
+        <v>5.107236499289026</v>
       </c>
       <c r="C20">
-        <v>0.06932838198335976</v>
+        <v>5.107713719515137</v>
       </c>
       <c r="D20">
-        <v>-0.125245979789639</v>
+        <v>5.109235589531605</v>
       </c>
       <c r="E20">
-        <v>0.06889600724596341</v>
+        <v>5.109482638362713</v>
       </c>
       <c r="F20">
-        <v>0.02296746846634404</v>
+        <v>5.10936693575236</v>
       </c>
       <c r="G20">
-        <v>0.071170271150007</v>
+        <v>5.112257913502055</v>
       </c>
       <c r="H20">
-        <v>-0.01732273552458269</v>
+        <v>5.106121617412374</v>
       </c>
       <c r="I20">
-        <v>0.1046384466723758</v>
+        <v>5.108657953199564</v>
       </c>
       <c r="J20">
-        <v>0.00165565758777424</v>
+        <v>5.108612629556293</v>
       </c>
       <c r="K20">
-        <v>-0.01047945205400856</v>
+        <v>5.109776128108241</v>
       </c>
       <c r="L20">
-        <v>0.1470575670328831</v>
+        <v>5.105689998194166</v>
       </c>
       <c r="M20">
-        <v>-0.05833610591513303</v>
+        <v>5.112050593212892</v>
       </c>
       <c r="N20">
-        <v>-0.04730302837282047</v>
+        <v>5.106949042463844</v>
       </c>
       <c r="O20">
-        <v>0.03847439425337913</v>
+        <v>5.108243261580422</v>
       </c>
       <c r="P20">
-        <v>0.02101406243258691</v>
+        <v>5.110694473240423</v>
       </c>
       <c r="Q20">
-        <v>-0.0001532845124292726</v>
+        <v>5.106863868557965</v>
       </c>
       <c r="R20">
-        <v>0.07268938268064633</v>
+        <v>5.109746277195743</v>
       </c>
       <c r="S20">
-        <v>0.03508905755541968</v>
+        <v>5.109364263781488</v>
       </c>
       <c r="T20">
-        <v>0.07561287224192387</v>
+        <v>5.111745401324859</v>
       </c>
       <c r="U20">
-        <v>0.1068232717005543</v>
+        <v>5.110289994772674</v>
       </c>
       <c r="V20">
-        <v>0.1157995068602439</v>
+        <v>5.110880037981227</v>
       </c>
       <c r="W20">
-        <v>-0.07226430652538947</v>
+        <v>5.110069407800004</v>
       </c>
       <c r="X20">
-        <v>0.08658047283970062</v>
+        <v>5.108281639281295</v>
       </c>
       <c r="Y20">
-        <v>0.01903044440231261</v>
+        <v>5.111357906428185</v>
       </c>
       <c r="Z20">
-        <v>-0.1115274161420508</v>
+        <v>5.107867266515111</v>
       </c>
       <c r="AA20">
-        <v>0.06371586387759161</v>
+        <v>5.107058346043457</v>
       </c>
       <c r="AB20">
-        <v>-0.03271576153410916</v>
+        <v>5.109373979718546</v>
       </c>
       <c r="AC20">
-        <v>0.1217970121720095</v>
+        <v>5.109002728765946</v>
       </c>
       <c r="AD20">
-        <v>-0.01802004557671122</v>
+        <v>5.111040437218397</v>
       </c>
       <c r="AE20">
-        <v>0.1796134357063329</v>
+        <v>5.110426169024042</v>
       </c>
       <c r="AF20">
-        <v>0.04001113600920232</v>
+        <v>5.109303833819635</v>
       </c>
       <c r="AG20">
-        <v>0.1440598469756763</v>
+        <v>5.108565117765203</v>
       </c>
       <c r="AH20">
-        <v>-0.0468751644300346</v>
+        <v>5.111312790994128</v>
       </c>
       <c r="AI20">
-        <v>0.09870096830265204</v>
+        <v>5.109198680581302</v>
       </c>
       <c r="AJ20">
-        <v>0.009114534770883871</v>
+        <v>5.108900223077535</v>
       </c>
       <c r="AK20">
-        <v>0.000402051990256151</v>
+        <v>5.109942835131609</v>
       </c>
       <c r="AL20">
-        <v>0.1821395057412535</v>
+        <v>5.11105861493672</v>
       </c>
       <c r="AM20">
-        <v>0.09632385578407009</v>
+        <v>5.111378035991799</v>
       </c>
       <c r="AN20">
-        <v>0.2847188877601061</v>
+        <v>5.110962334772188</v>
       </c>
       <c r="AO20">
-        <v>0.02426670647059714</v>
+        <v>5.108496180761802</v>
       </c>
       <c r="AP20">
-        <v>0.02545023511194928</v>
+        <v>5.108444512833027</v>
       </c>
       <c r="AQ20">
-        <v>0.1833092279138775</v>
+        <v>5.105718327217622</v>
       </c>
       <c r="AR20">
-        <v>-0.0704820316012566</v>
+        <v>5.10873390635653</v>
       </c>
       <c r="AS20">
-        <v>-0.05694024965123795</v>
+        <v>5.110732013588269</v>
       </c>
       <c r="AT20">
-        <v>0.07000911841222758</v>
+        <v>5.107412459571329</v>
       </c>
       <c r="AU20">
-        <v>0.01345686535811886</v>
+        <v>5.114119934154339</v>
       </c>
       <c r="AV20">
-        <v>0.1339655690281629</v>
+        <v>5.107714488056634</v>
       </c>
       <c r="AW20">
-        <v>0.08137043655890647</v>
+        <v>5.109556560742949</v>
       </c>
       <c r="AX20">
-        <v>0.06674111668353898</v>
+        <v>5.107264436463808</v>
       </c>
       <c r="AY20">
-        <v>-0.08418105945731531</v>
+        <v>5.109619118521127</v>
       </c>
     </row>
     <row r="21" spans="1:51">
@@ -3552,154 +3555,154 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.469314491862668</v>
+        <v>-0.08977519453833011</v>
       </c>
       <c r="C21">
-        <v>0.4695138201914495</v>
+        <v>-0.1271621678897804</v>
       </c>
       <c r="D21">
-        <v>0.4681467034903499</v>
+        <v>0.01935024945032819</v>
       </c>
       <c r="E21">
-        <v>0.4679735275149888</v>
+        <v>-0.05061676425730393</v>
       </c>
       <c r="F21">
-        <v>0.4674928114720582</v>
+        <v>-0.009548653817583595</v>
       </c>
       <c r="G21">
-        <v>0.4696355512950036</v>
+        <v>-0.006989900888332607</v>
       </c>
       <c r="H21">
-        <v>0.4665599562400687</v>
+        <v>-0.1280404543472206</v>
       </c>
       <c r="I21">
-        <v>0.4671135343797878</v>
+        <v>0.04603289309625646</v>
       </c>
       <c r="J21">
-        <v>0.4672026790518136</v>
+        <v>-0.09466209273511296</v>
       </c>
       <c r="K21">
-        <v>0.4705981430650717</v>
+        <v>0.03832540368602352</v>
       </c>
       <c r="L21">
-        <v>0.4683491844851782</v>
+        <v>0.01024046285373422</v>
       </c>
       <c r="M21">
-        <v>0.4693387798529502</v>
+        <v>0.1643032507866445</v>
       </c>
       <c r="N21">
-        <v>0.4679280044615114</v>
+        <v>-0.06412854590301453</v>
       </c>
       <c r="O21">
-        <v>0.471944230215478</v>
+        <v>0.156244728376691</v>
       </c>
       <c r="P21">
-        <v>0.4689276784972092</v>
+        <v>0.03603494695511987</v>
       </c>
       <c r="Q21">
-        <v>0.4674350205190209</v>
+        <v>-0.1386622308395271</v>
       </c>
       <c r="R21">
-        <v>0.4719111808053593</v>
+        <v>-0.02523851390163354</v>
       </c>
       <c r="S21">
-        <v>0.4667858856074059</v>
+        <v>0.03556851942522009</v>
       </c>
       <c r="T21">
-        <v>0.4669136908265026</v>
+        <v>-0.01198106992821558</v>
       </c>
       <c r="U21">
-        <v>0.4682311932857994</v>
+        <v>-0.09129775871926371</v>
       </c>
       <c r="V21">
-        <v>0.465484644552837</v>
+        <v>-0.04117735821706067</v>
       </c>
       <c r="W21">
-        <v>0.4676409669854439</v>
+        <v>-0.2185818584090209</v>
       </c>
       <c r="X21">
-        <v>0.468288727677901</v>
+        <v>-0.03760081714328509</v>
       </c>
       <c r="Y21">
-        <v>0.4671428479912861</v>
+        <v>0.05993800532719788</v>
       </c>
       <c r="Z21">
-        <v>0.470938408326121</v>
+        <v>-0.03379100677026049</v>
       </c>
       <c r="AA21">
-        <v>0.4668230630114758</v>
+        <v>-0.08884777238457967</v>
       </c>
       <c r="AB21">
-        <v>0.4679059734140676</v>
+        <v>-0.04188313669426098</v>
       </c>
       <c r="AC21">
-        <v>0.4717260859874584</v>
+        <v>-0.07136919370415286</v>
       </c>
       <c r="AD21">
-        <v>0.4706086562956616</v>
+        <v>-0.2379923655582871</v>
       </c>
       <c r="AE21">
-        <v>0.4735838683882752</v>
+        <v>-0.01940770649277017</v>
       </c>
       <c r="AF21">
-        <v>0.4720742030023863</v>
+        <v>0.1736528842343185</v>
       </c>
       <c r="AG21">
-        <v>0.4675226308462269</v>
+        <v>0.001256003937983488</v>
       </c>
       <c r="AH21">
-        <v>0.4695112964365213</v>
+        <v>-0.1204474308986135</v>
       </c>
       <c r="AI21">
-        <v>0.4685647289859688</v>
+        <v>0.1242861460296598</v>
       </c>
       <c r="AJ21">
-        <v>0.4725303686760574</v>
+        <v>-0.08464834330946365</v>
       </c>
       <c r="AK21">
-        <v>0.471036143280651</v>
+        <v>-0.0543715850474006</v>
       </c>
       <c r="AL21">
-        <v>0.4711873300359619</v>
+        <v>-0.1435263738609697</v>
       </c>
       <c r="AM21">
-        <v>0.4689343594734514</v>
+        <v>-0.06253803640726037</v>
       </c>
       <c r="AN21">
-        <v>0.4701707341948522</v>
+        <v>-0.07939581817748681</v>
       </c>
       <c r="AO21">
-        <v>0.4685593087627638</v>
+        <v>-0.1574094433984428</v>
       </c>
       <c r="AP21">
-        <v>0.4710902368659963</v>
+        <v>0.1061097256252252</v>
       </c>
       <c r="AQ21">
-        <v>0.4674901605808763</v>
+        <v>0.1131314078003295</v>
       </c>
       <c r="AR21">
-        <v>0.4703365662139907</v>
+        <v>0.1133298588169907</v>
       </c>
       <c r="AS21">
-        <v>0.4695700580155102</v>
+        <v>0.1519532838758518</v>
       </c>
       <c r="AT21">
-        <v>0.4685647281841784</v>
+        <v>0.05581902516060024</v>
       </c>
       <c r="AU21">
-        <v>0.4692284462237364</v>
+        <v>0.008036599636505531</v>
       </c>
       <c r="AV21">
-        <v>0.4724081188038066</v>
+        <v>0.03962713160351372</v>
       </c>
       <c r="AW21">
-        <v>0.4672042570142456</v>
+        <v>0.03675568959332709</v>
       </c>
       <c r="AX21">
-        <v>0.4685776875677394</v>
+        <v>-0.0071383117370237</v>
       </c>
       <c r="AY21">
-        <v>0.4694593911935681</v>
+        <v>-0.0428015835646543</v>
       </c>
     </row>
     <row r="22" spans="1:51">
@@ -3707,154 +3710,154 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.34860290024936</v>
+        <v>0.4696865166838073</v>
       </c>
       <c r="C22">
-        <v>28.34851452779987</v>
+        <v>0.4696742673111817</v>
       </c>
       <c r="D22">
-        <v>28.35197514595173</v>
+        <v>0.4657012198802432</v>
       </c>
       <c r="E22">
-        <v>28.34844258203762</v>
+        <v>0.4688213849162217</v>
       </c>
       <c r="F22">
-        <v>28.35144288518503</v>
+        <v>0.467900163031561</v>
       </c>
       <c r="G22">
-        <v>28.35140933018347</v>
+        <v>0.4686116541043182</v>
       </c>
       <c r="H22">
-        <v>28.34994242390935</v>
+        <v>0.4675043415410173</v>
       </c>
       <c r="I22">
-        <v>28.34869079885601</v>
+        <v>0.4684997821816013</v>
       </c>
       <c r="J22">
-        <v>28.3467390719018</v>
+        <v>0.4706905826440507</v>
       </c>
       <c r="K22">
-        <v>28.35130012278857</v>
+        <v>0.4658491378391171</v>
       </c>
       <c r="L22">
-        <v>28.35015521107126</v>
+        <v>0.4711181167763558</v>
       </c>
       <c r="M22">
-        <v>28.35166397650006</v>
+        <v>0.4701702557638576</v>
       </c>
       <c r="N22">
-        <v>28.34737314205127</v>
+        <v>0.4678633054855302</v>
       </c>
       <c r="O22">
-        <v>28.35030919100117</v>
+        <v>0.4668466445510007</v>
       </c>
       <c r="P22">
-        <v>28.35123103108732</v>
+        <v>0.4681019784316694</v>
       </c>
       <c r="Q22">
-        <v>28.35236957021643</v>
+        <v>0.4693912460306377</v>
       </c>
       <c r="R22">
-        <v>28.34746701838416</v>
+        <v>0.4681227378515972</v>
       </c>
       <c r="S22">
-        <v>28.34769224054286</v>
+        <v>0.4667950411213307</v>
       </c>
       <c r="T22">
-        <v>28.34839646959516</v>
+        <v>0.4681985091385346</v>
       </c>
       <c r="U22">
-        <v>28.35196898858055</v>
+        <v>0.4686243838395009</v>
       </c>
       <c r="V22">
-        <v>28.34961390016856</v>
+        <v>0.4697283707414541</v>
       </c>
       <c r="W22">
-        <v>28.35161245317505</v>
+        <v>0.4694806408134933</v>
       </c>
       <c r="X22">
-        <v>28.34633419221466</v>
+        <v>0.4721415885303604</v>
       </c>
       <c r="Y22">
-        <v>28.35052939113481</v>
+        <v>0.4666700112856715</v>
       </c>
       <c r="Z22">
-        <v>28.34948990256485</v>
+        <v>0.4674664374881059</v>
       </c>
       <c r="AA22">
-        <v>28.3510140098808</v>
+        <v>0.467906581996331</v>
       </c>
       <c r="AB22">
-        <v>28.34889875553905</v>
+        <v>0.4746452963238795</v>
       </c>
       <c r="AC22">
-        <v>28.34891942674924</v>
+        <v>0.4699370274824495</v>
       </c>
       <c r="AD22">
-        <v>28.34796131825933</v>
+        <v>0.4685897585891372</v>
       </c>
       <c r="AE22">
-        <v>28.34998572259467</v>
+        <v>0.470263744037769</v>
       </c>
       <c r="AF22">
-        <v>28.35175720369074</v>
+        <v>0.4697147213211751</v>
       </c>
       <c r="AG22">
-        <v>28.35060890811155</v>
+        <v>0.4705684334355312</v>
       </c>
       <c r="AH22">
-        <v>28.35186072307315</v>
+        <v>0.4679224294091772</v>
       </c>
       <c r="AI22">
-        <v>28.35042702457052</v>
+        <v>0.468983536087154</v>
       </c>
       <c r="AJ22">
-        <v>28.34991049392513</v>
+        <v>0.4690137366144776</v>
       </c>
       <c r="AK22">
-        <v>28.35118119240752</v>
+        <v>0.4700750144082886</v>
       </c>
       <c r="AL22">
-        <v>28.34906333011076</v>
+        <v>0.4674991617934498</v>
       </c>
       <c r="AM22">
-        <v>28.34820092079239</v>
+        <v>0.4686213586985809</v>
       </c>
       <c r="AN22">
-        <v>28.34957619616078</v>
+        <v>0.4691092374208785</v>
       </c>
       <c r="AO22">
-        <v>28.3530868856253</v>
+        <v>0.4697817012978137</v>
       </c>
       <c r="AP22">
-        <v>28.35377954447819</v>
+        <v>0.4663017157473651</v>
       </c>
       <c r="AQ22">
-        <v>28.34886574601616</v>
+        <v>0.4675805086537407</v>
       </c>
       <c r="AR22">
-        <v>28.34686948245275</v>
+        <v>0.4671152789547623</v>
       </c>
       <c r="AS22">
-        <v>28.35003829258176</v>
+        <v>0.4688530342696476</v>
       </c>
       <c r="AT22">
-        <v>28.34846015160905</v>
+        <v>0.4684315634310806</v>
       </c>
       <c r="AU22">
-        <v>28.34589271850734</v>
+        <v>0.4671440072446839</v>
       </c>
       <c r="AV22">
-        <v>28.3510559536651</v>
+        <v>0.4673685623156649</v>
       </c>
       <c r="AW22">
-        <v>28.3516831318002</v>
+        <v>0.4696214944063954</v>
       </c>
       <c r="AX22">
-        <v>28.35080830221086</v>
+        <v>0.4663436264299374</v>
       </c>
       <c r="AY22">
-        <v>28.35048660576171</v>
+        <v>0.4702480012327659</v>
       </c>
     </row>
     <row r="23" spans="1:51">
@@ -3862,154 +3865,154 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.29992821631333</v>
+        <v>28.35083043098022</v>
       </c>
       <c r="C23">
-        <v>29.29975278478858</v>
+        <v>28.35123468905601</v>
       </c>
       <c r="D23">
-        <v>29.299657121706</v>
+        <v>28.34878805429094</v>
       </c>
       <c r="E23">
-        <v>29.29958788242547</v>
+        <v>28.35160923836329</v>
       </c>
       <c r="F23">
-        <v>29.2998706232661</v>
+        <v>28.35196866481648</v>
       </c>
       <c r="G23">
-        <v>29.30003889108963</v>
+        <v>28.35093442992626</v>
       </c>
       <c r="H23">
-        <v>29.29951860264035</v>
+        <v>28.35086909375712</v>
       </c>
       <c r="I23">
-        <v>29.30014086488796</v>
+        <v>28.35080926172069</v>
       </c>
       <c r="J23">
-        <v>29.29991190586544</v>
+        <v>28.35258024007869</v>
       </c>
       <c r="K23">
-        <v>29.29981282061343</v>
+        <v>28.34863125620199</v>
       </c>
       <c r="L23">
-        <v>29.30006007177604</v>
+        <v>28.35063299206111</v>
       </c>
       <c r="M23">
-        <v>29.29935055589454</v>
+        <v>28.35295743699946</v>
       </c>
       <c r="N23">
-        <v>29.29997030199563</v>
+        <v>28.35069699290374</v>
       </c>
       <c r="O23">
-        <v>29.29987918290585</v>
+        <v>28.35269687948881</v>
       </c>
       <c r="P23">
-        <v>29.29984335848277</v>
+        <v>28.35096179228681</v>
       </c>
       <c r="Q23">
-        <v>29.29992024531399</v>
+        <v>28.34905584998376</v>
       </c>
       <c r="R23">
-        <v>29.29953361324071</v>
+        <v>28.349803584279</v>
       </c>
       <c r="S23">
-        <v>29.29946014534384</v>
+        <v>28.34718069914933</v>
       </c>
       <c r="T23">
-        <v>29.29998403431395</v>
+        <v>28.35045175443132</v>
       </c>
       <c r="U23">
-        <v>29.29982343374665</v>
+        <v>28.35193683238094</v>
       </c>
       <c r="V23">
-        <v>29.29952095642405</v>
+        <v>28.34921155041527</v>
       </c>
       <c r="W23">
-        <v>29.29989048335679</v>
+        <v>28.35138274332568</v>
       </c>
       <c r="X23">
-        <v>29.30000927395198</v>
+        <v>28.34714278079948</v>
       </c>
       <c r="Y23">
-        <v>29.29977836302218</v>
+        <v>28.35074213309677</v>
       </c>
       <c r="Z23">
-        <v>29.29995172413719</v>
+        <v>28.35111206180493</v>
       </c>
       <c r="AA23">
-        <v>29.29985113992429</v>
+        <v>28.35025181727938</v>
       </c>
       <c r="AB23">
-        <v>29.29976860944143</v>
+        <v>28.34973229675229</v>
       </c>
       <c r="AC23">
-        <v>29.29962415045951</v>
+        <v>28.35125711726245</v>
       </c>
       <c r="AD23">
-        <v>29.29983115486857</v>
+        <v>28.35174228060491</v>
       </c>
       <c r="AE23">
-        <v>29.29991187358874</v>
+        <v>28.35172841474152</v>
       </c>
       <c r="AF23">
-        <v>29.2999722016803</v>
+        <v>28.34856798310831</v>
       </c>
       <c r="AG23">
-        <v>29.30016975990452</v>
+        <v>28.35062369142819</v>
       </c>
       <c r="AH23">
-        <v>29.29961574354687</v>
+        <v>28.35395602609436</v>
       </c>
       <c r="AI23">
-        <v>29.29995962539457</v>
+        <v>28.35271542300761</v>
       </c>
       <c r="AJ23">
-        <v>29.29975825088641</v>
+        <v>28.34935576938686</v>
       </c>
       <c r="AK23">
-        <v>29.29986294293682</v>
+        <v>28.35252176111319</v>
       </c>
       <c r="AL23">
-        <v>29.29989146927019</v>
+        <v>28.35107406410393</v>
       </c>
       <c r="AM23">
-        <v>29.30002805267048</v>
+        <v>28.34899936296658</v>
       </c>
       <c r="AN23">
-        <v>29.29980347190928</v>
+        <v>28.35006748154244</v>
       </c>
       <c r="AO23">
-        <v>29.29989175505277</v>
+        <v>28.3508401766227</v>
       </c>
       <c r="AP23">
-        <v>29.29995682399013</v>
+        <v>28.35100999488839</v>
       </c>
       <c r="AQ23">
-        <v>29.299783517742</v>
+        <v>28.35058402742015</v>
       </c>
       <c r="AR23">
-        <v>29.29979233937173</v>
+        <v>28.34896483021158</v>
       </c>
       <c r="AS23">
-        <v>29.29962241143923</v>
+        <v>28.34939241701099</v>
       </c>
       <c r="AT23">
-        <v>29.29965199096301</v>
+        <v>28.35195117822777</v>
       </c>
       <c r="AU23">
-        <v>29.29984275623894</v>
+        <v>28.34845272707011</v>
       </c>
       <c r="AV23">
-        <v>29.29998247011303</v>
+        <v>28.34879297759807</v>
       </c>
       <c r="AW23">
-        <v>29.29978086880713</v>
+        <v>28.35179855180509</v>
       </c>
       <c r="AX23">
-        <v>29.29962972661258</v>
+        <v>28.34899376606299</v>
       </c>
       <c r="AY23">
-        <v>29.29949677469727</v>
+        <v>28.3506632767847</v>
       </c>
     </row>
     <row r="24" spans="1:51">
@@ -4017,154 +4020,154 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08191834631911296</v>
+        <v>29.29978019289721</v>
       </c>
       <c r="C24">
-        <v>0.0819224163977802</v>
+        <v>29.29974478353797</v>
       </c>
       <c r="D24">
-        <v>0.08216802638192211</v>
+        <v>29.29977848624744</v>
       </c>
       <c r="E24">
-        <v>0.08193464479704918</v>
+        <v>29.29968343464907</v>
       </c>
       <c r="F24">
-        <v>0.08142150804297492</v>
+        <v>29.29993752521469</v>
       </c>
       <c r="G24">
-        <v>0.08174197513573259</v>
+        <v>29.30004876839429</v>
       </c>
       <c r="H24">
-        <v>0.08214712995742304</v>
+        <v>29.29959570389668</v>
       </c>
       <c r="I24">
-        <v>0.08196387642316361</v>
+        <v>29.30002387416471</v>
       </c>
       <c r="J24">
-        <v>0.08207790740681292</v>
+        <v>29.29993167686597</v>
       </c>
       <c r="K24">
-        <v>0.08194731156361831</v>
+        <v>29.29978362099105</v>
       </c>
       <c r="L24">
-        <v>0.08188609632941458</v>
+        <v>29.29957636185566</v>
       </c>
       <c r="M24">
-        <v>0.08219555290273116</v>
+        <v>29.29971555272548</v>
       </c>
       <c r="N24">
-        <v>0.08157532816737199</v>
+        <v>29.29973518443688</v>
       </c>
       <c r="O24">
-        <v>0.08167009393602064</v>
+        <v>29.29962194169873</v>
       </c>
       <c r="P24">
-        <v>0.08213446366122221</v>
+        <v>29.29980175746578</v>
       </c>
       <c r="Q24">
-        <v>0.08208023537214665</v>
+        <v>29.30005205459763</v>
       </c>
       <c r="R24">
-        <v>0.08186983291918742</v>
+        <v>29.29966413486614</v>
       </c>
       <c r="S24">
-        <v>0.08169383230698359</v>
+        <v>29.29995661861501</v>
       </c>
       <c r="T24">
-        <v>0.08165158321619193</v>
+        <v>29.29998807293679</v>
       </c>
       <c r="U24">
-        <v>0.0822649902370073</v>
+        <v>29.29999404143546</v>
       </c>
       <c r="V24">
-        <v>0.0820113968951353</v>
+        <v>29.29979936748475</v>
       </c>
       <c r="W24">
-        <v>0.08187526486760753</v>
+        <v>29.29983726819787</v>
       </c>
       <c r="X24">
-        <v>0.08173876698656518</v>
+        <v>29.29985984383913</v>
       </c>
       <c r="Y24">
-        <v>0.08206780031081141</v>
+        <v>29.30000739972582</v>
       </c>
       <c r="Z24">
-        <v>0.0816888124199741</v>
+        <v>29.29969070025749</v>
       </c>
       <c r="AA24">
-        <v>0.08164213783941611</v>
+        <v>29.29936954490737</v>
       </c>
       <c r="AB24">
-        <v>0.08176855806499672</v>
+        <v>29.29970828574539</v>
       </c>
       <c r="AC24">
-        <v>0.08182063607458057</v>
+        <v>29.2998760113053</v>
       </c>
       <c r="AD24">
-        <v>0.08184330839068868</v>
+        <v>29.29996149899032</v>
       </c>
       <c r="AE24">
-        <v>0.08219210084461549</v>
+        <v>29.29984038999165</v>
       </c>
       <c r="AF24">
-        <v>0.08208551215450728</v>
+        <v>29.29977985147928</v>
       </c>
       <c r="AG24">
-        <v>0.08181474589006044</v>
+        <v>29.29985362980746</v>
       </c>
       <c r="AH24">
-        <v>0.0818907118743598</v>
+        <v>29.29955412685377</v>
       </c>
       <c r="AI24">
-        <v>0.08162489568728579</v>
+        <v>29.3001857148836</v>
       </c>
       <c r="AJ24">
-        <v>0.08199759018895822</v>
+        <v>29.29975182705134</v>
       </c>
       <c r="AK24">
-        <v>0.08188343510102802</v>
+        <v>29.29931460868474</v>
       </c>
       <c r="AL24">
-        <v>0.08186896110511184</v>
+        <v>29.29992365861277</v>
       </c>
       <c r="AM24">
-        <v>0.08164262198337768</v>
+        <v>29.30029938336025</v>
       </c>
       <c r="AN24">
-        <v>0.0819078894603633</v>
+        <v>29.29973351898916</v>
       </c>
       <c r="AO24">
-        <v>0.08174522151869733</v>
+        <v>29.29995939854874</v>
       </c>
       <c r="AP24">
-        <v>0.08166750797344616</v>
+        <v>29.29993937934201</v>
       </c>
       <c r="AQ24">
-        <v>0.08228626647271481</v>
+        <v>29.29967345445306</v>
       </c>
       <c r="AR24">
-        <v>0.08169106253782209</v>
+        <v>29.29998111087884</v>
       </c>
       <c r="AS24">
-        <v>0.08142206152141815</v>
+        <v>29.29987553837788</v>
       </c>
       <c r="AT24">
-        <v>0.08173706242858447</v>
+        <v>29.29962796457163</v>
       </c>
       <c r="AU24">
-        <v>0.08181494430896223</v>
+        <v>29.29993845775218</v>
       </c>
       <c r="AV24">
-        <v>0.08185205729539198</v>
+        <v>29.29964351674508</v>
       </c>
       <c r="AW24">
-        <v>0.0815653206906379</v>
+        <v>29.2996186682628</v>
       </c>
       <c r="AX24">
-        <v>0.081778785338666</v>
+        <v>29.30029709216664</v>
       </c>
       <c r="AY24">
-        <v>0.08202797007546687</v>
+        <v>29.29965466530826</v>
       </c>
     </row>
     <row r="25" spans="1:51">
@@ -4172,154 +4175,154 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4550668309793356</v>
+        <v>0.0819120366937604</v>
       </c>
       <c r="C25">
-        <v>0.4545866620943688</v>
+        <v>0.08196872521315247</v>
       </c>
       <c r="D25">
-        <v>0.4548224734586993</v>
+        <v>0.08181112958193927</v>
       </c>
       <c r="E25">
-        <v>0.4548844288250264</v>
+        <v>0.08192951755150159</v>
       </c>
       <c r="F25">
-        <v>0.4545811912880699</v>
+        <v>0.08199187597895465</v>
       </c>
       <c r="G25">
-        <v>0.4546707089848871</v>
+        <v>0.08220192605753149</v>
       </c>
       <c r="H25">
-        <v>0.454637100732504</v>
+        <v>0.0816218296181556</v>
       </c>
       <c r="I25">
-        <v>0.4547191355112236</v>
+        <v>0.08128251378885194</v>
       </c>
       <c r="J25">
-        <v>0.4545702639108929</v>
+        <v>0.08176340990872513</v>
       </c>
       <c r="K25">
-        <v>0.4543030342570676</v>
+        <v>0.08123719641943082</v>
       </c>
       <c r="L25">
-        <v>0.4546292758896062</v>
+        <v>0.08171178604903667</v>
       </c>
       <c r="M25">
-        <v>0.4549592725173083</v>
+        <v>0.0817040020107538</v>
       </c>
       <c r="N25">
-        <v>0.4547411977934717</v>
+        <v>0.08214039342556437</v>
       </c>
       <c r="O25">
-        <v>0.4545321366749894</v>
+        <v>0.08184642255277232</v>
       </c>
       <c r="P25">
-        <v>0.4546741347841882</v>
+        <v>0.08186037228030743</v>
       </c>
       <c r="Q25">
-        <v>0.454764800287463</v>
+        <v>0.08207786368844995</v>
       </c>
       <c r="R25">
-        <v>0.4545685300891529</v>
+        <v>0.0821086995241599</v>
       </c>
       <c r="S25">
-        <v>0.4545257713401021</v>
+        <v>0.08161121040593204</v>
       </c>
       <c r="T25">
-        <v>0.454673608737114</v>
+        <v>0.08145727236391698</v>
       </c>
       <c r="U25">
-        <v>0.4542849490337668</v>
+        <v>0.08170222192581231</v>
       </c>
       <c r="V25">
-        <v>0.4546459796418051</v>
+        <v>0.08172649491354229</v>
       </c>
       <c r="W25">
-        <v>0.4546668367234321</v>
+        <v>0.08147374133598868</v>
       </c>
       <c r="X25">
-        <v>0.4550405479063962</v>
+        <v>0.08206758470315585</v>
       </c>
       <c r="Y25">
-        <v>0.454617118771195</v>
+        <v>0.08186159470435983</v>
       </c>
       <c r="Z25">
-        <v>0.4546129939901662</v>
+        <v>0.08154571865776476</v>
       </c>
       <c r="AA25">
-        <v>0.4545766985051191</v>
+        <v>0.08183905312925081</v>
       </c>
       <c r="AB25">
-        <v>0.4546011850773565</v>
+        <v>0.08187357523840375</v>
       </c>
       <c r="AC25">
-        <v>0.4545858718349302</v>
+        <v>0.08195875366644653</v>
       </c>
       <c r="AD25">
-        <v>0.4547263815685075</v>
+        <v>0.08168694318357235</v>
       </c>
       <c r="AE25">
-        <v>0.4543492873726421</v>
+        <v>0.08183325928777412</v>
       </c>
       <c r="AF25">
-        <v>0.4543990135179372</v>
+        <v>0.08197222721222558</v>
       </c>
       <c r="AG25">
-        <v>0.454649972320164</v>
+        <v>0.0819687043183026</v>
       </c>
       <c r="AH25">
-        <v>0.4549381161785589</v>
+        <v>0.08205702366957489</v>
       </c>
       <c r="AI25">
-        <v>0.4548595142727095</v>
+        <v>0.08190044224222164</v>
       </c>
       <c r="AJ25">
-        <v>0.4547594752960148</v>
+        <v>0.08191187544033048</v>
       </c>
       <c r="AK25">
-        <v>0.4547844285640702</v>
+        <v>0.08183934283521654</v>
       </c>
       <c r="AL25">
-        <v>0.4544641328628749</v>
+        <v>0.08186462052671907</v>
       </c>
       <c r="AM25">
-        <v>0.4549354169194063</v>
+        <v>0.08212260711639635</v>
       </c>
       <c r="AN25">
-        <v>0.4549848819056729</v>
+        <v>0.08183008696657847</v>
       </c>
       <c r="AO25">
-        <v>0.4547375128908058</v>
+        <v>0.08191905211466483</v>
       </c>
       <c r="AP25">
-        <v>0.4545557021897568</v>
+        <v>0.08143207537712301</v>
       </c>
       <c r="AQ25">
-        <v>0.4551009179221552</v>
+        <v>0.0818659144710482</v>
       </c>
       <c r="AR25">
-        <v>0.4543503204212105</v>
+        <v>0.0817184378206829</v>
       </c>
       <c r="AS25">
-        <v>0.454759327933087</v>
+        <v>0.08199814214066389</v>
       </c>
       <c r="AT25">
-        <v>0.4547701757571177</v>
+        <v>0.0815877266504003</v>
       </c>
       <c r="AU25">
-        <v>0.4543788828094408</v>
+        <v>0.08189868273803791</v>
       </c>
       <c r="AV25">
-        <v>0.4541531407086138</v>
+        <v>0.08178098811146119</v>
       </c>
       <c r="AW25">
-        <v>0.4547198461573992</v>
+        <v>0.08168641604141039</v>
       </c>
       <c r="AX25">
-        <v>0.4549408179375384</v>
+        <v>0.08206906688567603</v>
       </c>
       <c r="AY25">
-        <v>0.45415664620121</v>
+        <v>0.08190407705166367</v>
       </c>
     </row>
     <row r="26" spans="1:51">
@@ -4327,154 +4330,154 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.706340624147735</v>
+        <v>0.4549993975559605</v>
       </c>
       <c r="C26">
-        <v>1.707291539433055</v>
+        <v>0.4548799160120228</v>
       </c>
       <c r="D26">
-        <v>1.705734448516938</v>
+        <v>0.454867756392697</v>
       </c>
       <c r="E26">
-        <v>1.706860635371692</v>
+        <v>0.4546448098106216</v>
       </c>
       <c r="F26">
-        <v>1.706272114362852</v>
+        <v>0.4548881473142807</v>
       </c>
       <c r="G26">
-        <v>1.706417597646805</v>
+        <v>0.4542203637131925</v>
       </c>
       <c r="H26">
-        <v>1.708859121282617</v>
+        <v>0.4545644204978209</v>
       </c>
       <c r="I26">
-        <v>1.707398494416447</v>
+        <v>0.4546083246158112</v>
       </c>
       <c r="J26">
-        <v>1.706755219772045</v>
+        <v>0.4550351575933507</v>
       </c>
       <c r="K26">
-        <v>1.706868907254396</v>
+        <v>0.4544396058685805</v>
       </c>
       <c r="L26">
-        <v>1.704888741958061</v>
+        <v>0.4544847879142397</v>
       </c>
       <c r="M26">
-        <v>1.706556963835271</v>
+        <v>0.4545617792901968</v>
       </c>
       <c r="N26">
-        <v>1.706486461998688</v>
+        <v>0.4545100344055439</v>
       </c>
       <c r="O26">
-        <v>1.707730211849191</v>
+        <v>0.4546372821281368</v>
       </c>
       <c r="P26">
-        <v>1.708380962739833</v>
+        <v>0.4549312389213112</v>
       </c>
       <c r="Q26">
-        <v>1.705706364479538</v>
+        <v>0.4544841264215525</v>
       </c>
       <c r="R26">
-        <v>1.705715350758224</v>
+        <v>0.4546647796671716</v>
       </c>
       <c r="S26">
-        <v>1.70634738642602</v>
+        <v>0.4552688091914769</v>
       </c>
       <c r="T26">
-        <v>1.708030623021729</v>
+        <v>0.4547559342302145</v>
       </c>
       <c r="U26">
-        <v>1.704651945755366</v>
+        <v>0.4545251178847966</v>
       </c>
       <c r="V26">
-        <v>1.706537731607737</v>
+        <v>0.4547253462466185</v>
       </c>
       <c r="W26">
-        <v>1.707879016668772</v>
+        <v>0.4541455039491912</v>
       </c>
       <c r="X26">
-        <v>1.70669829134923</v>
+        <v>0.4545947432195977</v>
       </c>
       <c r="Y26">
-        <v>1.707408693854191</v>
+        <v>0.4549185482401746</v>
       </c>
       <c r="Z26">
-        <v>1.706350917459333</v>
+        <v>0.4546892418267122</v>
       </c>
       <c r="AA26">
-        <v>1.708152499588665</v>
+        <v>0.4545250159541337</v>
       </c>
       <c r="AB26">
-        <v>1.706873328324812</v>
+        <v>0.4545882692478647</v>
       </c>
       <c r="AC26">
-        <v>1.706076718394409</v>
+        <v>0.4548732903323772</v>
       </c>
       <c r="AD26">
-        <v>1.706871870582238</v>
+        <v>0.4546140077398876</v>
       </c>
       <c r="AE26">
-        <v>1.706510997587927</v>
+        <v>0.4548383671999335</v>
       </c>
       <c r="AF26">
-        <v>1.70634489228568</v>
+        <v>0.4547690055070469</v>
       </c>
       <c r="AG26">
-        <v>1.705963662928053</v>
+        <v>0.454513586961354</v>
       </c>
       <c r="AH26">
-        <v>1.706690218764216</v>
+        <v>0.4548146625553182</v>
       </c>
       <c r="AI26">
-        <v>1.705725816237649</v>
+        <v>0.4546449910988507</v>
       </c>
       <c r="AJ26">
-        <v>1.708489300262543</v>
+        <v>0.4546965083679785</v>
       </c>
       <c r="AK26">
-        <v>1.705803989272667</v>
+        <v>0.4547499151709716</v>
       </c>
       <c r="AL26">
-        <v>1.706215626882385</v>
+        <v>0.4545826436837793</v>
       </c>
       <c r="AM26">
-        <v>1.707145467661092</v>
+        <v>0.4546400003065393</v>
       </c>
       <c r="AN26">
-        <v>1.706369495661655</v>
+        <v>0.4546849650849668</v>
       </c>
       <c r="AO26">
-        <v>1.705969686219928</v>
+        <v>0.4549070772821681</v>
       </c>
       <c r="AP26">
-        <v>1.70698272693</v>
+        <v>0.45463089719331</v>
       </c>
       <c r="AQ26">
-        <v>1.708111563042252</v>
+        <v>0.4545480961621169</v>
       </c>
       <c r="AR26">
-        <v>1.707940246435681</v>
+        <v>0.4543050260724018</v>
       </c>
       <c r="AS26">
-        <v>1.707259164399973</v>
+        <v>0.4543328631988616</v>
       </c>
       <c r="AT26">
-        <v>1.707838900463054</v>
+        <v>0.4548672441830057</v>
       </c>
       <c r="AU26">
-        <v>1.706771089226302</v>
+        <v>0.4549488661477312</v>
       </c>
       <c r="AV26">
-        <v>1.707507014956959</v>
+        <v>0.4546122020734797</v>
       </c>
       <c r="AW26">
-        <v>1.706683101542315</v>
+        <v>0.4542182016689779</v>
       </c>
       <c r="AX26">
-        <v>1.706669803510676</v>
+        <v>0.4547658701701247</v>
       </c>
       <c r="AY26">
-        <v>1.706219507218141</v>
+        <v>0.4546458085168092</v>
       </c>
     </row>
     <row r="27" spans="1:51">
@@ -4482,154 +4485,154 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.597454214920888</v>
+        <v>1.705314057479569</v>
       </c>
       <c r="C27">
-        <v>3.598462066911484</v>
+        <v>1.706603425155733</v>
       </c>
       <c r="D27">
-        <v>3.595425608357946</v>
+        <v>1.706554179201237</v>
       </c>
       <c r="E27">
-        <v>3.595534405970634</v>
+        <v>1.707185682649484</v>
       </c>
       <c r="F27">
-        <v>3.597381488703286</v>
+        <v>1.707910860158753</v>
       </c>
       <c r="G27">
-        <v>3.59545534078545</v>
+        <v>1.706121658200085</v>
       </c>
       <c r="H27">
-        <v>3.596225460357413</v>
+        <v>1.705389885132974</v>
       </c>
       <c r="I27">
-        <v>3.596151095207397</v>
+        <v>1.706190656495489</v>
       </c>
       <c r="J27">
-        <v>3.599088393956594</v>
+        <v>1.706538244109458</v>
       </c>
       <c r="K27">
-        <v>3.592018666110778</v>
+        <v>1.706574991293359</v>
       </c>
       <c r="L27">
-        <v>3.594744638054804</v>
+        <v>1.707996136529725</v>
       </c>
       <c r="M27">
-        <v>3.59401312795081</v>
+        <v>1.705777900398762</v>
       </c>
       <c r="N27">
-        <v>3.594782624839893</v>
+        <v>1.703661364738605</v>
       </c>
       <c r="O27">
-        <v>3.599389761285455</v>
+        <v>1.706821910290175</v>
       </c>
       <c r="P27">
-        <v>3.594639454605969</v>
+        <v>1.706585437367806</v>
       </c>
       <c r="Q27">
-        <v>3.595440798117441</v>
+        <v>1.705901404409091</v>
       </c>
       <c r="R27">
-        <v>3.591763545570556</v>
+        <v>1.705921619933758</v>
       </c>
       <c r="S27">
-        <v>3.594669812485494</v>
+        <v>1.706981906785277</v>
       </c>
       <c r="T27">
-        <v>3.594648129969722</v>
+        <v>1.707083315215258</v>
       </c>
       <c r="U27">
-        <v>3.594881600658375</v>
+        <v>1.706681358316656</v>
       </c>
       <c r="V27">
-        <v>3.597891888112272</v>
+        <v>1.708468525519297</v>
       </c>
       <c r="W27">
-        <v>3.599036634066336</v>
+        <v>1.70636992056702</v>
       </c>
       <c r="X27">
-        <v>3.601008370986065</v>
+        <v>1.707393804340138</v>
       </c>
       <c r="Y27">
-        <v>3.596380272606802</v>
+        <v>1.706202217646139</v>
       </c>
       <c r="Z27">
-        <v>3.594936867238554</v>
+        <v>1.706318160217703</v>
       </c>
       <c r="AA27">
-        <v>3.597636672374206</v>
+        <v>1.706322676215813</v>
       </c>
       <c r="AB27">
-        <v>3.596801908776806</v>
+        <v>1.707598302345067</v>
       </c>
       <c r="AC27">
-        <v>3.599143794516157</v>
+        <v>1.707560685542929</v>
       </c>
       <c r="AD27">
-        <v>3.594428248999011</v>
+        <v>1.706187713945529</v>
       </c>
       <c r="AE27">
-        <v>3.594390048072048</v>
+        <v>1.706370189480142</v>
       </c>
       <c r="AF27">
-        <v>3.597644170624459</v>
+        <v>1.707158242953327</v>
       </c>
       <c r="AG27">
-        <v>3.595398505224241</v>
+        <v>1.707858396272036</v>
       </c>
       <c r="AH27">
-        <v>3.594399681145888</v>
+        <v>1.709247623931069</v>
       </c>
       <c r="AI27">
-        <v>3.596342101143487</v>
+        <v>1.707798490450047</v>
       </c>
       <c r="AJ27">
-        <v>3.596068370351564</v>
+        <v>1.706210891029135</v>
       </c>
       <c r="AK27">
-        <v>3.594518645913535</v>
+        <v>1.706988538845905</v>
       </c>
       <c r="AL27">
-        <v>3.593160529468937</v>
+        <v>1.706380421378381</v>
       </c>
       <c r="AM27">
-        <v>3.59573247520186</v>
+        <v>1.706084151851435</v>
       </c>
       <c r="AN27">
-        <v>3.595357476555691</v>
+        <v>1.705408579237373</v>
       </c>
       <c r="AO27">
-        <v>3.595396838647447</v>
+        <v>1.706680412746264</v>
       </c>
       <c r="AP27">
-        <v>3.595350132763579</v>
+        <v>1.705145732798736</v>
       </c>
       <c r="AQ27">
-        <v>3.595572539711267</v>
+        <v>1.707273970092628</v>
       </c>
       <c r="AR27">
-        <v>3.596900313386899</v>
+        <v>1.704793076029407</v>
       </c>
       <c r="AS27">
-        <v>3.591132250986282</v>
+        <v>1.707521601299059</v>
       </c>
       <c r="AT27">
-        <v>3.599074917728469</v>
+        <v>1.706481030161156</v>
       </c>
       <c r="AU27">
-        <v>3.598864184181496</v>
+        <v>1.70821115328463</v>
       </c>
       <c r="AV27">
-        <v>3.594823980033119</v>
+        <v>1.707019463926297</v>
       </c>
       <c r="AW27">
-        <v>3.597434666937763</v>
+        <v>1.705414079017962</v>
       </c>
       <c r="AX27">
-        <v>3.596126388619598</v>
+        <v>1.707328349168322</v>
       </c>
       <c r="AY27">
-        <v>3.59193243720684</v>
+        <v>1.705206084931828</v>
       </c>
     </row>
     <row r="28" spans="1:51">
@@ -4637,154 +4640,154 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12.06589474113067</v>
+        <v>3.599592409552832</v>
       </c>
       <c r="C28">
-        <v>12.06637561461566</v>
+        <v>3.595859527149057</v>
       </c>
       <c r="D28">
-        <v>12.06449836547575</v>
+        <v>3.595167127776773</v>
       </c>
       <c r="E28">
-        <v>12.0679050100406</v>
+        <v>3.595809320798836</v>
       </c>
       <c r="F28">
-        <v>12.06631439156644</v>
+        <v>3.595178698213593</v>
       </c>
       <c r="G28">
-        <v>12.06721993335582</v>
+        <v>3.59688715617769</v>
       </c>
       <c r="H28">
-        <v>12.06762099164222</v>
+        <v>3.599943927469559</v>
       </c>
       <c r="I28">
-        <v>12.06569877025196</v>
+        <v>3.597321882381182</v>
       </c>
       <c r="J28">
-        <v>12.06469837150689</v>
+        <v>3.596602323028223</v>
       </c>
       <c r="K28">
-        <v>12.0674924931185</v>
+        <v>3.592756870851356</v>
       </c>
       <c r="L28">
-        <v>12.0662664775786</v>
+        <v>3.596952422253785</v>
       </c>
       <c r="M28">
-        <v>12.06704487835839</v>
+        <v>3.596452461610935</v>
       </c>
       <c r="N28">
-        <v>12.06494630014455</v>
+        <v>3.59906366773905</v>
       </c>
       <c r="O28">
-        <v>12.06554591627058</v>
+        <v>3.600988204442015</v>
       </c>
       <c r="P28">
-        <v>12.06760640453791</v>
+        <v>3.595950795262419</v>
       </c>
       <c r="Q28">
-        <v>12.06530598179926</v>
+        <v>3.597348778655407</v>
       </c>
       <c r="R28">
-        <v>12.06505298317967</v>
+        <v>3.598822038651706</v>
       </c>
       <c r="S28">
-        <v>12.06553714214834</v>
+        <v>3.594466914485815</v>
       </c>
       <c r="T28">
-        <v>12.06549776632792</v>
+        <v>3.594414583159714</v>
       </c>
       <c r="U28">
-        <v>12.06428254480442</v>
+        <v>3.596745738736141</v>
       </c>
       <c r="V28">
-        <v>12.06628616942316</v>
+        <v>3.595954818248032</v>
       </c>
       <c r="W28">
-        <v>12.0666672258492</v>
+        <v>3.599278711018084</v>
       </c>
       <c r="X28">
-        <v>12.06720358703902</v>
+        <v>3.598729112526789</v>
       </c>
       <c r="Y28">
-        <v>12.06443015414186</v>
+        <v>3.596555647524387</v>
       </c>
       <c r="Z28">
-        <v>12.06601137869911</v>
+        <v>3.594541608395243</v>
       </c>
       <c r="AA28">
-        <v>12.06719399701276</v>
+        <v>3.595640530635411</v>
       </c>
       <c r="AB28">
-        <v>12.06613380238228</v>
+        <v>3.595573483105737</v>
       </c>
       <c r="AC28">
-        <v>12.06534423549191</v>
+        <v>3.59222132093534</v>
       </c>
       <c r="AD28">
-        <v>12.06617552485861</v>
+        <v>3.593734312624115</v>
       </c>
       <c r="AE28">
-        <v>12.06729890922748</v>
+        <v>3.59216962662747</v>
       </c>
       <c r="AF28">
-        <v>12.06515385121819</v>
+        <v>3.59688049114459</v>
       </c>
       <c r="AG28">
-        <v>12.06533443821584</v>
+        <v>3.599813957314434</v>
       </c>
       <c r="AH28">
-        <v>12.0659008807164</v>
+        <v>3.594551572563912</v>
       </c>
       <c r="AI28">
-        <v>12.06820902561533</v>
+        <v>3.591846105179263</v>
       </c>
       <c r="AJ28">
-        <v>12.06669290545461</v>
+        <v>3.592426281980973</v>
       </c>
       <c r="AK28">
-        <v>12.06624166653077</v>
+        <v>3.598470134179879</v>
       </c>
       <c r="AL28">
-        <v>12.06539691696951</v>
+        <v>3.594005168087462</v>
       </c>
       <c r="AM28">
-        <v>12.06600201359401</v>
+        <v>3.597654166791683</v>
       </c>
       <c r="AN28">
-        <v>12.0648268934959</v>
+        <v>3.597200435108149</v>
       </c>
       <c r="AO28">
-        <v>12.06531311820281</v>
+        <v>3.593933026136614</v>
       </c>
       <c r="AP28">
-        <v>12.06691577699098</v>
+        <v>3.590653145075072</v>
       </c>
       <c r="AQ28">
-        <v>12.06594507889259</v>
+        <v>3.593119070900107</v>
       </c>
       <c r="AR28">
-        <v>12.06536658825656</v>
+        <v>3.596855784234917</v>
       </c>
       <c r="AS28">
-        <v>12.06657563017226</v>
+        <v>3.593931906109387</v>
       </c>
       <c r="AT28">
-        <v>12.06564749190131</v>
+        <v>3.59683104307942</v>
       </c>
       <c r="AU28">
-        <v>12.06750861963789</v>
+        <v>3.594651689656137</v>
       </c>
       <c r="AV28">
-        <v>12.06516249573431</v>
+        <v>3.594079684837503</v>
       </c>
       <c r="AW28">
-        <v>12.06463600647428</v>
+        <v>3.601142419042387</v>
       </c>
       <c r="AX28">
-        <v>12.06597635189893</v>
+        <v>3.599051882228466</v>
       </c>
       <c r="AY28">
-        <v>12.06486475519742</v>
+        <v>3.592104397549963</v>
       </c>
     </row>
     <row r="29" spans="1:51">
@@ -4792,154 +4795,154 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.23603463725001</v>
+        <v>12.06449214965928</v>
       </c>
       <c r="C29">
-        <v>33.5549751752785</v>
+        <v>12.06743198044788</v>
       </c>
       <c r="D29">
-        <v>33.87584147911831</v>
+        <v>12.0674876632701</v>
       </c>
       <c r="E29">
-        <v>34.21013145305642</v>
+        <v>12.06560898459767</v>
       </c>
       <c r="F29">
-        <v>33.46042620780527</v>
+        <v>12.06665589080706</v>
       </c>
       <c r="G29">
-        <v>33.58537170910661</v>
+        <v>12.06655778241215</v>
       </c>
       <c r="H29">
-        <v>34.45687672552344</v>
+        <v>12.0669471206506</v>
       </c>
       <c r="I29">
-        <v>33.22649773316184</v>
+        <v>12.06650513022773</v>
       </c>
       <c r="J29">
-        <v>33.44685098794137</v>
+        <v>12.06596565707746</v>
       </c>
       <c r="K29">
-        <v>32.08455298867013</v>
+        <v>12.06670531930258</v>
       </c>
       <c r="L29">
-        <v>34.06863774262553</v>
+        <v>12.06619051429072</v>
       </c>
       <c r="M29">
-        <v>33.33691089212019</v>
+        <v>12.0672549595737</v>
       </c>
       <c r="N29">
-        <v>33.12426739445888</v>
+        <v>12.06422557002709</v>
       </c>
       <c r="O29">
-        <v>33.11164256192308</v>
+        <v>12.06549686534271</v>
       </c>
       <c r="P29">
-        <v>33.73380501603482</v>
+        <v>12.06478376546965</v>
       </c>
       <c r="Q29">
-        <v>33.37473515513436</v>
+        <v>12.06720515239879</v>
       </c>
       <c r="R29">
-        <v>33.5582608053283</v>
+        <v>12.06716446694583</v>
       </c>
       <c r="S29">
-        <v>33.44326974386599</v>
+        <v>12.06763020473289</v>
       </c>
       <c r="T29">
-        <v>33.16756082346382</v>
+        <v>12.06607285684871</v>
       </c>
       <c r="U29">
-        <v>32.70280089755473</v>
+        <v>12.06522496510012</v>
       </c>
       <c r="V29">
-        <v>33.51657052021494</v>
+        <v>12.06474556485043</v>
       </c>
       <c r="W29">
-        <v>32.85777739306537</v>
+        <v>12.0678878316967</v>
       </c>
       <c r="X29">
-        <v>32.73380799395205</v>
+        <v>12.06717982064288</v>
       </c>
       <c r="Y29">
-        <v>32.58379158824776</v>
+        <v>12.06518039184486</v>
       </c>
       <c r="Z29">
-        <v>34.51582869543393</v>
+        <v>12.06558405275604</v>
       </c>
       <c r="AA29">
-        <v>33.06231788992508</v>
+        <v>12.06680263115068</v>
       </c>
       <c r="AB29">
-        <v>33.18166696772033</v>
+        <v>12.06704075395307</v>
       </c>
       <c r="AC29">
-        <v>33.17183120832539</v>
+        <v>12.06518927335324</v>
       </c>
       <c r="AD29">
-        <v>33.37889147700252</v>
+        <v>12.06665468782668</v>
       </c>
       <c r="AE29">
-        <v>33.28807610537288</v>
+        <v>12.06552433497952</v>
       </c>
       <c r="AF29">
-        <v>33.51831227607259</v>
+        <v>12.06549003072085</v>
       </c>
       <c r="AG29">
-        <v>33.26987355010311</v>
+        <v>12.06568324440438</v>
       </c>
       <c r="AH29">
-        <v>33.54810427082</v>
+        <v>12.06602148685483</v>
       </c>
       <c r="AI29">
-        <v>33.16758735985219</v>
+        <v>12.06627451937969</v>
       </c>
       <c r="AJ29">
-        <v>33.37124109328741</v>
+        <v>12.06698198160977</v>
       </c>
       <c r="AK29">
-        <v>33.32647439847347</v>
+        <v>12.06754865946338</v>
       </c>
       <c r="AL29">
-        <v>33.43347680600268</v>
+        <v>12.06609244881639</v>
       </c>
       <c r="AM29">
-        <v>33.7185078986336</v>
+        <v>12.06667494844649</v>
       </c>
       <c r="AN29">
-        <v>34.26214862874058</v>
+        <v>12.06584866889216</v>
       </c>
       <c r="AO29">
-        <v>33.27244562174068</v>
+        <v>12.06638061910847</v>
       </c>
       <c r="AP29">
-        <v>32.94633539437446</v>
+        <v>12.06725874641849</v>
       </c>
       <c r="AQ29">
-        <v>33.71097792876692</v>
+        <v>12.0669993108141</v>
       </c>
       <c r="AR29">
-        <v>32.94997113103477</v>
+        <v>12.0659552527968</v>
       </c>
       <c r="AS29">
-        <v>33.6163036057277</v>
+        <v>12.06510576413151</v>
       </c>
       <c r="AT29">
-        <v>33.26868167295743</v>
+        <v>12.06585465836575</v>
       </c>
       <c r="AU29">
-        <v>33.10754176936905</v>
+        <v>12.06598695297762</v>
       </c>
       <c r="AV29">
-        <v>33.19757930658243</v>
+        <v>12.06563673841028</v>
       </c>
       <c r="AW29">
-        <v>34.022082615822</v>
+        <v>12.06421798871539</v>
       </c>
       <c r="AX29">
-        <v>32.84491642835317</v>
+        <v>12.0654652146008</v>
       </c>
       <c r="AY29">
-        <v>33.31312479207964</v>
+        <v>12.06593249616948</v>
       </c>
     </row>
     <row r="30" spans="1:51">
@@ -4947,154 +4950,154 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73814.79437180262</v>
+        <v>33.28052995782146</v>
       </c>
       <c r="C30">
-        <v>73822.81108659378</v>
+        <v>32.95217805988642</v>
       </c>
       <c r="D30">
-        <v>73792.52949325804</v>
+        <v>33.86668334814075</v>
       </c>
       <c r="E30">
-        <v>73833.03127664434</v>
+        <v>33.98108386230196</v>
       </c>
       <c r="F30">
-        <v>73814.31072394905</v>
+        <v>33.51864865075726</v>
       </c>
       <c r="G30">
-        <v>73796.68294699999</v>
+        <v>32.80359166968296</v>
       </c>
       <c r="H30">
-        <v>73747.18738092575</v>
+        <v>34.54153948625152</v>
       </c>
       <c r="I30">
-        <v>73843.59068602571</v>
+        <v>33.46313804884118</v>
       </c>
       <c r="J30">
-        <v>73835.10113306736</v>
+        <v>33.09363130710857</v>
       </c>
       <c r="K30">
-        <v>73818.87773693503</v>
+        <v>32.43379091338234</v>
       </c>
       <c r="L30">
-        <v>73820.2524857348</v>
+        <v>34.14956005682233</v>
       </c>
       <c r="M30">
-        <v>73836.63636793743</v>
+        <v>32.67422524416922</v>
       </c>
       <c r="N30">
-        <v>73832.75371397457</v>
+        <v>33.90852354847484</v>
       </c>
       <c r="O30">
-        <v>73854.72091613688</v>
+        <v>33.58685817413519</v>
       </c>
       <c r="P30">
-        <v>73842.29209751273</v>
+        <v>33.58520639278365</v>
       </c>
       <c r="Q30">
-        <v>73858.74922124755</v>
+        <v>33.72558801796273</v>
       </c>
       <c r="R30">
-        <v>73856.06095462298</v>
+        <v>33.80143920359938</v>
       </c>
       <c r="S30">
-        <v>73821.11432965007</v>
+        <v>33.66031829753471</v>
       </c>
       <c r="T30">
-        <v>73836.16572885266</v>
+        <v>33.49795773940991</v>
       </c>
       <c r="U30">
-        <v>73855.63982600467</v>
+        <v>33.48065723527282</v>
       </c>
       <c r="V30">
-        <v>73855.94524772755</v>
+        <v>33.57111440452625</v>
       </c>
       <c r="W30">
-        <v>73786.83860057456</v>
+        <v>33.59861366391615</v>
       </c>
       <c r="X30">
-        <v>73838.99940099586</v>
+        <v>33.01197446435742</v>
       </c>
       <c r="Y30">
-        <v>73842.65827496165</v>
+        <v>34.03316110699426</v>
       </c>
       <c r="Z30">
-        <v>73849.13696736442</v>
+        <v>33.14948294328276</v>
       </c>
       <c r="AA30">
-        <v>73879.54792535113</v>
+        <v>34.07608695183306</v>
       </c>
       <c r="AB30">
-        <v>73836.48972866626</v>
+        <v>34.21192781481567</v>
       </c>
       <c r="AC30">
-        <v>73884.78249723862</v>
+        <v>33.8357418079197</v>
       </c>
       <c r="AD30">
-        <v>73813.98969533696</v>
+        <v>33.10049114194728</v>
       </c>
       <c r="AE30">
-        <v>73827.17746110114</v>
+        <v>34.31012150542629</v>
       </c>
       <c r="AF30">
-        <v>73819.41572621799</v>
+        <v>33.55063852319338</v>
       </c>
       <c r="AG30">
-        <v>73808.25295974957</v>
+        <v>33.62390230393334</v>
       </c>
       <c r="AH30">
-        <v>73763.17396499349</v>
+        <v>33.34120239773038</v>
       </c>
       <c r="AI30">
-        <v>73824.09954185323</v>
+        <v>33.34473100296289</v>
       </c>
       <c r="AJ30">
-        <v>73857.2457214484</v>
+        <v>34.05057462511015</v>
       </c>
       <c r="AK30">
-        <v>73871.97303328576</v>
+        <v>34.13121692631843</v>
       </c>
       <c r="AL30">
-        <v>73797.75526180441</v>
+        <v>33.62725185557887</v>
       </c>
       <c r="AM30">
-        <v>73812.84260534565</v>
+        <v>33.62826985686736</v>
       </c>
       <c r="AN30">
-        <v>73813.28732476461</v>
+        <v>33.17583862301434</v>
       </c>
       <c r="AO30">
-        <v>73820.29166429087</v>
+        <v>34.1932912289537</v>
       </c>
       <c r="AP30">
-        <v>73797.67134518176</v>
+        <v>33.65758246265754</v>
       </c>
       <c r="AQ30">
-        <v>73858.97334973837</v>
+        <v>34.70442232041236</v>
       </c>
       <c r="AR30">
-        <v>73826.57307357085</v>
+        <v>33.94094825183379</v>
       </c>
       <c r="AS30">
-        <v>73829.27355222966</v>
+        <v>33.86182866216535</v>
       </c>
       <c r="AT30">
-        <v>73800.84361545325</v>
+        <v>33.25694837843176</v>
       </c>
       <c r="AU30">
-        <v>73866.45673267961</v>
+        <v>33.67218486182431</v>
       </c>
       <c r="AV30">
-        <v>73835.08603639687</v>
+        <v>33.46247653607866</v>
       </c>
       <c r="AW30">
-        <v>73814.53455573102</v>
+        <v>33.1283470637289</v>
       </c>
       <c r="AX30">
-        <v>73886.45507096748</v>
+        <v>33.90524529768341</v>
       </c>
       <c r="AY30">
-        <v>73805.62034898825</v>
+        <v>33.78119671755609</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -5102,154 +5105,154 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.001592458052979</v>
+        <v>73833.16104404935</v>
       </c>
       <c r="C31">
-        <v>9.001440161634902</v>
+        <v>73844.59812216678</v>
       </c>
       <c r="D31">
-        <v>8.99875355232521</v>
+        <v>73825.44224401181</v>
       </c>
       <c r="E31">
-        <v>9.002441248391241</v>
+        <v>73797.55560599767</v>
       </c>
       <c r="F31">
-        <v>8.99953364828986</v>
+        <v>73853.56877185848</v>
       </c>
       <c r="G31">
-        <v>9.001487784430571</v>
+        <v>73851.23235316847</v>
       </c>
       <c r="H31">
-        <v>9.003059790282057</v>
+        <v>73821.1622580611</v>
       </c>
       <c r="I31">
-        <v>8.99964131589333</v>
+        <v>73795.20249213293</v>
       </c>
       <c r="J31">
-        <v>8.997836332764955</v>
+        <v>73887.78604250294</v>
       </c>
       <c r="K31">
-        <v>8.996209045187747</v>
+        <v>73835.51715085492</v>
       </c>
       <c r="L31">
-        <v>9.000009737694921</v>
+        <v>73791.39361010191</v>
       </c>
       <c r="M31">
-        <v>8.998730712284008</v>
+        <v>73793.44093188333</v>
       </c>
       <c r="N31">
-        <v>8.998311636298155</v>
+        <v>73827.95391725957</v>
       </c>
       <c r="O31">
-        <v>8.999940039276618</v>
+        <v>73869.79146371711</v>
       </c>
       <c r="P31">
-        <v>9.000169481635712</v>
+        <v>73773.53329465198</v>
       </c>
       <c r="Q31">
-        <v>8.998552635539816</v>
+        <v>73858.25046224857</v>
       </c>
       <c r="R31">
-        <v>8.999425062803189</v>
+        <v>73804.77068539032</v>
       </c>
       <c r="S31">
-        <v>8.999607844115252</v>
+        <v>73842.12415815103</v>
       </c>
       <c r="T31">
-        <v>9.003625143430547</v>
+        <v>73856.19611529156</v>
       </c>
       <c r="U31">
-        <v>9.001039755227927</v>
+        <v>73819.3296454464</v>
       </c>
       <c r="V31">
-        <v>8.99854994024524</v>
+        <v>73862.35372659832</v>
       </c>
       <c r="W31">
-        <v>9.000718789782651</v>
+        <v>73839.9179682167</v>
       </c>
       <c r="X31">
-        <v>9.004154732603434</v>
+        <v>73746.89906919493</v>
       </c>
       <c r="Y31">
-        <v>9.001065313373642</v>
+        <v>73805.78535481721</v>
       </c>
       <c r="Z31">
-        <v>8.998950387281031</v>
+        <v>73829.80333612923</v>
       </c>
       <c r="AA31">
-        <v>9.002286002068685</v>
+        <v>73796.04845825446</v>
       </c>
       <c r="AB31">
-        <v>9.001145622832464</v>
+        <v>73840.0077356837</v>
       </c>
       <c r="AC31">
-        <v>8.99822128025558</v>
+        <v>73862.44983088764</v>
       </c>
       <c r="AD31">
-        <v>9.003027585634058</v>
+        <v>73819.79874545921</v>
       </c>
       <c r="AE31">
-        <v>9.000257865230409</v>
+        <v>73754.87574546618</v>
       </c>
       <c r="AF31">
-        <v>8.998702259638334</v>
+        <v>73815.12227344136</v>
       </c>
       <c r="AG31">
-        <v>8.998624110600828</v>
+        <v>73782.64711625698</v>
       </c>
       <c r="AH31">
-        <v>9.003156578694982</v>
+        <v>73831.55434167317</v>
       </c>
       <c r="AI31">
-        <v>9.00034031205227</v>
+        <v>73859.65937160392</v>
       </c>
       <c r="AJ31">
-        <v>8.999134182809108</v>
+        <v>73864.1421982</v>
       </c>
       <c r="AK31">
-        <v>8.999300466002477</v>
+        <v>73857.66148905002</v>
       </c>
       <c r="AL31">
-        <v>9.001296894289682</v>
+        <v>73811.22977230852</v>
       </c>
       <c r="AM31">
-        <v>9.002375302913311</v>
+        <v>73849.89593780122</v>
       </c>
       <c r="AN31">
-        <v>8.998916207986213</v>
+        <v>73807.70743936344</v>
       </c>
       <c r="AO31">
-        <v>8.9981679274415</v>
+        <v>73820.48113131565</v>
       </c>
       <c r="AP31">
-        <v>8.999614663145088</v>
+        <v>73818.0829468148</v>
       </c>
       <c r="AQ31">
-        <v>9.001102669554964</v>
+        <v>73792.75216518086</v>
       </c>
       <c r="AR31">
-        <v>8.997307256052261</v>
+        <v>73800.99017661909</v>
       </c>
       <c r="AS31">
-        <v>9.001102722318349</v>
+        <v>73820.53178324421</v>
       </c>
       <c r="AT31">
-        <v>8.9977292850993</v>
+        <v>73812.12057936867</v>
       </c>
       <c r="AU31">
-        <v>8.999458395954669</v>
+        <v>73791.78977269742</v>
       </c>
       <c r="AV31">
-        <v>8.999944100522669</v>
+        <v>73830.97741948727</v>
       </c>
       <c r="AW31">
-        <v>8.999391883001699</v>
+        <v>73828.97665530226</v>
       </c>
       <c r="AX31">
-        <v>9.002426054926358</v>
+        <v>73790.39060164749</v>
       </c>
       <c r="AY31">
-        <v>9.000036066647448</v>
+        <v>73859.55145081818</v>
       </c>
     </row>
     <row r="32" spans="1:51">
@@ -5257,154 +5260,154 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88.35126013528294</v>
+        <v>8.999845833509452</v>
       </c>
       <c r="C32">
-        <v>88.12330933678372</v>
+        <v>9.001772325493253</v>
       </c>
       <c r="D32">
-        <v>88.06221347448698</v>
+        <v>9.00294123038463</v>
       </c>
       <c r="E32">
-        <v>88.03116837051203</v>
+        <v>9.001749896150589</v>
       </c>
       <c r="F32">
-        <v>88.01603416378001</v>
+        <v>9.0001774865373</v>
       </c>
       <c r="G32">
-        <v>88.00498391660423</v>
+        <v>8.99867472280607</v>
       </c>
       <c r="H32">
-        <v>87.97406898109296</v>
+        <v>9.002175144527198</v>
       </c>
       <c r="I32">
-        <v>87.9081030933214</v>
+        <v>8.998116762497531</v>
       </c>
       <c r="J32">
-        <v>88.23342388137235</v>
+        <v>9.001234340404796</v>
       </c>
       <c r="K32">
-        <v>88.33600734040142</v>
+        <v>8.995606204426595</v>
       </c>
       <c r="L32">
-        <v>87.4263571660227</v>
+        <v>8.997957974292071</v>
       </c>
       <c r="M32">
-        <v>88.17066599507726</v>
+        <v>9.003009675264732</v>
       </c>
       <c r="N32">
-        <v>88.15234555935666</v>
+        <v>9.001239243181745</v>
       </c>
       <c r="O32">
-        <v>88.39889796361997</v>
+        <v>9.003147693448646</v>
       </c>
       <c r="P32">
-        <v>88.26212824932546</v>
+        <v>9.000498845173851</v>
       </c>
       <c r="Q32">
-        <v>87.95200017611997</v>
+        <v>8.998547391361532</v>
       </c>
       <c r="R32">
-        <v>88.06764208743468</v>
+        <v>9.001997411782389</v>
       </c>
       <c r="S32">
-        <v>87.35885187028714</v>
+        <v>9.000325725185576</v>
       </c>
       <c r="T32">
-        <v>88.42530359721835</v>
+        <v>9.000425738557713</v>
       </c>
       <c r="U32">
-        <v>87.37208543420462</v>
+        <v>9.000738171413969</v>
       </c>
       <c r="V32">
-        <v>88.29029912438163</v>
+        <v>8.995755794402767</v>
       </c>
       <c r="W32">
-        <v>88.22044328047204</v>
+        <v>8.996051385494816</v>
       </c>
       <c r="X32">
-        <v>87.93418562041872</v>
+        <v>9.000756286413509</v>
       </c>
       <c r="Y32">
-        <v>88.09180136570123</v>
+        <v>8.998341681532548</v>
       </c>
       <c r="Z32">
-        <v>87.73622357443679</v>
+        <v>8.998376700824659</v>
       </c>
       <c r="AA32">
-        <v>87.65316665129981</v>
+        <v>8.999208015954192</v>
       </c>
       <c r="AB32">
-        <v>88.05853886512558</v>
+        <v>8.997135312361095</v>
       </c>
       <c r="AC32">
-        <v>88.04713332579895</v>
+        <v>8.997964873678919</v>
       </c>
       <c r="AD32">
-        <v>87.95952382700371</v>
+        <v>8.9997690292063</v>
       </c>
       <c r="AE32">
-        <v>88.23832777900644</v>
+        <v>8.999962832754795</v>
       </c>
       <c r="AF32">
-        <v>88.10022810914536</v>
+        <v>9.000488224775317</v>
       </c>
       <c r="AG32">
-        <v>88.06739332144545</v>
+        <v>8.99991697317823</v>
       </c>
       <c r="AH32">
-        <v>88.10018954993693</v>
+        <v>9.000835897157321</v>
       </c>
       <c r="AI32">
-        <v>87.80219625223323</v>
+        <v>8.997776154464479</v>
       </c>
       <c r="AJ32">
-        <v>88.27455126321644</v>
+        <v>8.998483342784558</v>
       </c>
       <c r="AK32">
-        <v>88.29502444076455</v>
+        <v>9.001558694222551</v>
       </c>
       <c r="AL32">
-        <v>87.79493424593429</v>
+        <v>9.001637638323535</v>
       </c>
       <c r="AM32">
-        <v>87.85064412462232</v>
+        <v>9.002870741669005</v>
       </c>
       <c r="AN32">
-        <v>88.6649992313407</v>
+        <v>9.001668369839257</v>
       </c>
       <c r="AO32">
-        <v>87.81817397457478</v>
+        <v>8.999386822865247</v>
       </c>
       <c r="AP32">
-        <v>87.91759347846475</v>
+        <v>9.00362168883926</v>
       </c>
       <c r="AQ32">
-        <v>88.13251250598218</v>
+        <v>8.996607186968646</v>
       </c>
       <c r="AR32">
-        <v>88.06821473771167</v>
+        <v>8.99898977341125</v>
       </c>
       <c r="AS32">
-        <v>88.24266649234639</v>
+        <v>9.003522550424435</v>
       </c>
       <c r="AT32">
-        <v>88.02019674202137</v>
+        <v>9.000371482150308</v>
       </c>
       <c r="AU32">
-        <v>87.6669742961892</v>
+        <v>8.996287857363589</v>
       </c>
       <c r="AV32">
-        <v>88.00882430848739</v>
+        <v>8.996171291706267</v>
       </c>
       <c r="AW32">
-        <v>88.55867075676068</v>
+        <v>8.997441658536587</v>
       </c>
       <c r="AX32">
-        <v>87.86408412376258</v>
+        <v>8.998478856789335</v>
       </c>
       <c r="AY32">
-        <v>87.70715865674272</v>
+        <v>9.000612326986062</v>
       </c>
     </row>
     <row r="33" spans="1:51">
@@ -5412,154 +5415,309 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>183.852480668032</v>
+        <v>87.94187388900509</v>
       </c>
       <c r="C33">
-        <v>163.8852754634761</v>
+        <v>88.04104303817293</v>
       </c>
       <c r="D33">
-        <v>174.5319038611866</v>
+        <v>88.16174829949259</v>
       </c>
       <c r="E33">
-        <v>172.415918770673</v>
+        <v>87.98086116244218</v>
       </c>
       <c r="F33">
-        <v>185.6838245813621</v>
+        <v>87.76248260506863</v>
       </c>
       <c r="G33">
-        <v>161.2883593233299</v>
+        <v>87.84871884316669</v>
       </c>
       <c r="H33">
-        <v>167.8595472309785</v>
+        <v>87.70149399145861</v>
       </c>
       <c r="I33">
-        <v>182.6146167700226</v>
+        <v>87.74643600306409</v>
       </c>
       <c r="J33">
-        <v>188.7808633875105</v>
+        <v>87.64629342708619</v>
       </c>
       <c r="K33">
-        <v>199.9621941081932</v>
+        <v>88.14616325863319</v>
       </c>
       <c r="L33">
-        <v>162.6246330336382</v>
+        <v>87.7196812165258</v>
       </c>
       <c r="M33">
-        <v>196.912490436693</v>
+        <v>88.00766770876606</v>
       </c>
       <c r="N33">
-        <v>170.1576252334824</v>
+        <v>88.03706577076551</v>
       </c>
       <c r="O33">
-        <v>-41.28171403796435</v>
+        <v>88.23570641254304</v>
       </c>
       <c r="P33">
-        <v>173.0552944808296</v>
+        <v>87.88257291628624</v>
       </c>
       <c r="Q33">
-        <v>187.6538045361033</v>
+        <v>88.16053271377353</v>
       </c>
       <c r="R33">
-        <v>180.1342686773027</v>
+        <v>87.76948621491128</v>
       </c>
       <c r="S33">
-        <v>183.2559037944141</v>
+        <v>88.00726633142577</v>
       </c>
       <c r="T33">
-        <v>180.8862734919864</v>
+        <v>88.10795482070885</v>
       </c>
       <c r="U33">
-        <v>179.9371327735523</v>
+        <v>87.98220320180147</v>
       </c>
       <c r="V33">
-        <v>191.0434815494199</v>
+        <v>87.96142195376217</v>
       </c>
       <c r="W33">
-        <v>196.4001843102774</v>
+        <v>88.22537769656074</v>
       </c>
       <c r="X33">
-        <v>185.2680558376205</v>
+        <v>88.55538350361377</v>
       </c>
       <c r="Y33">
-        <v>166.5135214839715</v>
+        <v>87.49556906576602</v>
       </c>
       <c r="Z33">
-        <v>163.0393008053707</v>
+        <v>87.99896422230255</v>
       </c>
       <c r="AA33">
-        <v>185.9899154226725</v>
+        <v>88.36605730600533</v>
       </c>
       <c r="AB33">
-        <v>152.7015125094485</v>
+        <v>87.87100250674706</v>
       </c>
       <c r="AC33">
-        <v>182.9822384526464</v>
+        <v>87.74690534744134</v>
       </c>
       <c r="AD33">
-        <v>205.7141184509421</v>
+        <v>87.93212410239656</v>
       </c>
       <c r="AE33">
-        <v>178.9088001313767</v>
+        <v>88.29165690901976</v>
       </c>
       <c r="AF33">
-        <v>203.6611123301524</v>
+        <v>88.1185985183311</v>
       </c>
       <c r="AG33">
-        <v>171.5435132749945</v>
+        <v>88.43209054150958</v>
       </c>
       <c r="AH33">
-        <v>195.8011576557141</v>
+        <v>88.18828416197022</v>
       </c>
       <c r="AI33">
-        <v>185.570170069967</v>
+        <v>88.22166337083064</v>
       </c>
       <c r="AJ33">
-        <v>194.0751861274252</v>
+        <v>87.91379806918783</v>
       </c>
       <c r="AK33">
-        <v>192.578453143005</v>
+        <v>88.01500851677238</v>
       </c>
       <c r="AL33">
-        <v>179.1932530805858</v>
+        <v>88.08684405407213</v>
       </c>
       <c r="AM33">
-        <v>181.6511626890788</v>
+        <v>88.385437978699</v>
       </c>
       <c r="AN33">
-        <v>187.1639565729537</v>
+        <v>88.47926667006183</v>
       </c>
       <c r="AO33">
-        <v>206.3614303913063</v>
+        <v>88.51976964486033</v>
       </c>
       <c r="AP33">
-        <v>195.7898600534136</v>
+        <v>88.2911600632784</v>
       </c>
       <c r="AQ33">
-        <v>193.2510126040062</v>
+        <v>88.17601046223466</v>
       </c>
       <c r="AR33">
-        <v>188.1846454854802</v>
+        <v>88.0219395429604</v>
       </c>
       <c r="AS33">
-        <v>192.76726637748</v>
+        <v>88.36826360083511</v>
       </c>
       <c r="AT33">
-        <v>170.6368311989376</v>
+        <v>88.04760444001697</v>
       </c>
       <c r="AU33">
-        <v>261.3621601350633</v>
+        <v>88.03817664425826</v>
       </c>
       <c r="AV33">
-        <v>166.9301266012411</v>
+        <v>88.08990495263757</v>
       </c>
       <c r="AW33">
-        <v>178.969114227861</v>
+        <v>88.56945684364385</v>
       </c>
       <c r="AX33">
-        <v>166.8149969415318</v>
+        <v>87.94483365977193</v>
       </c>
       <c r="AY33">
-        <v>172.7318972688164</v>
+        <v>87.81897128970684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>175.3672980173513</v>
+      </c>
+      <c r="C34">
+        <v>179.2894768758048</v>
+      </c>
+      <c r="D34">
+        <v>181.7467518169706</v>
+      </c>
+      <c r="E34">
+        <v>170.9526129594209</v>
+      </c>
+      <c r="F34">
+        <v>179.41556683753</v>
+      </c>
+      <c r="G34">
+        <v>177.6847717182077</v>
+      </c>
+      <c r="H34">
+        <v>186.5309782423575</v>
+      </c>
+      <c r="I34">
+        <v>181.9711981820862</v>
+      </c>
+      <c r="J34">
+        <v>242.4354444601094</v>
+      </c>
+      <c r="K34">
+        <v>201.5290699793108</v>
+      </c>
+      <c r="L34">
+        <v>191.0186330524434</v>
+      </c>
+      <c r="M34">
+        <v>196.5936717177619</v>
+      </c>
+      <c r="N34">
+        <v>180.9169360566773</v>
+      </c>
+      <c r="O34">
+        <v>167.2058946111798</v>
+      </c>
+      <c r="P34">
+        <v>173.5105370498652</v>
+      </c>
+      <c r="Q34">
+        <v>197.7725926395538</v>
+      </c>
+      <c r="R34">
+        <v>180.790736850265</v>
+      </c>
+      <c r="S34">
+        <v>194.9733038795743</v>
+      </c>
+      <c r="T34">
+        <v>180.0036365251775</v>
+      </c>
+      <c r="U34">
+        <v>174.6000516690252</v>
+      </c>
+      <c r="V34">
+        <v>174.2214619425843</v>
+      </c>
+      <c r="W34">
+        <v>202.5659415281374</v>
+      </c>
+      <c r="X34">
+        <v>173.9063954223509</v>
+      </c>
+      <c r="Y34">
+        <v>186.066353519961</v>
+      </c>
+      <c r="Z34">
+        <v>167.2535226682338</v>
+      </c>
+      <c r="AA34">
+        <v>172.5189295162639</v>
+      </c>
+      <c r="AB34">
+        <v>181.085636524282</v>
+      </c>
+      <c r="AC34">
+        <v>192.8993187411512</v>
+      </c>
+      <c r="AD34">
+        <v>165.1848874166537</v>
+      </c>
+      <c r="AE34">
+        <v>192.1652835814668</v>
+      </c>
+      <c r="AF34">
+        <v>153.7183895707162</v>
+      </c>
+      <c r="AG34">
+        <v>189.9305174937209</v>
+      </c>
+      <c r="AH34">
+        <v>179.7654861627768</v>
+      </c>
+      <c r="AI34">
+        <v>202.7158456648826</v>
+      </c>
+      <c r="AJ34">
+        <v>181.0939940813383</v>
+      </c>
+      <c r="AK34">
+        <v>185.9202729922094</v>
+      </c>
+      <c r="AL34">
+        <v>198.0910843699976</v>
+      </c>
+      <c r="AM34">
+        <v>164.4941989231876</v>
+      </c>
+      <c r="AN34">
+        <v>189.9116085176836</v>
+      </c>
+      <c r="AO34">
+        <v>160.3026702951841</v>
+      </c>
+      <c r="AP34">
+        <v>178.2378686709381</v>
+      </c>
+      <c r="AQ34">
+        <v>185.7850023598769</v>
+      </c>
+      <c r="AR34">
+        <v>187.01387461788</v>
+      </c>
+      <c r="AS34">
+        <v>214.749886751423</v>
+      </c>
+      <c r="AT34">
+        <v>211.207469103916</v>
+      </c>
+      <c r="AU34">
+        <v>174.5574611241225</v>
+      </c>
+      <c r="AV34">
+        <v>208.6382869831236</v>
+      </c>
+      <c r="AW34">
+        <v>193.5075465701975</v>
+      </c>
+      <c r="AX34">
+        <v>159.4357923471854</v>
+      </c>
+      <c r="AY34">
+        <v>179.8932420100768</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07842998577292572</v>
+        <v>0.0782454872199231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.13870511119994</v>
+        <v>23.13929419043147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7000723364447</v>
+        <v>151.7000066755207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1858186392533446</v>
+        <v>0.1862698743118686</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549999075347138</v>
+        <v>2.550013287552345</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7658985327361176</v>
+        <v>0.7589387427737242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.837336513612047</v>
+        <v>1.830845269518987</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>911.792313465562</v>
+        <v>914.0617569498547</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.996914479034826</v>
+        <v>0.9547297179517178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -557,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.043603957184384</v>
+        <v>0.9393391234223979</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.438318679536144</v>
+        <v>2.438758919211486</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -573,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9143124230210719</v>
+        <v>0.914490606252917</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07861273110841929</v>
+        <v>0.07821515985127751</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4514699659210243</v>
+        <v>0.4594743153861449</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1240976608660041</v>
+        <v>0.1275017474602679</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -621,7 +621,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1261334473710915</v>
+        <v>0.1265271498996089</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -629,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.111223875363915</v>
+        <v>5.107268771530819</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -637,7 +637,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02398805754537087</v>
+        <v>0.2382463473900343</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -645,7 +645,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4025288533106691</v>
+        <v>0.4067438140266562</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -653,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.30953480000747</v>
+        <v>28.30467215265686</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -661,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29.29989211099639</v>
+        <v>29.29985665220562</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -669,7 +669,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.08197672604051731</v>
+        <v>0.08220955371778636</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4545313486121543</v>
+        <v>0.4548255380773952</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -685,7 +685,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.705194716364508</v>
+        <v>1.708027906264028</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -693,7 +693,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.598839880666221</v>
+        <v>3.595510537878962</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -701,7 +701,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>12.06553132622813</v>
+        <v>12.06648340382061</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -709,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33.13895501724645</v>
+        <v>33.16550990136131</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -717,7 +717,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>73837.95399240138</v>
+        <v>73852.54308902436</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -725,7 +725,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.003384068945799</v>
+        <v>9.001542361301979</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -733,7 +733,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88.20035389461961</v>
+        <v>87.63091361475982</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -741,7 +741,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>135.3840187081974</v>
+        <v>152.2856605377513</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07840549344390262</v>
+        <v>0.07844425225260536</v>
       </c>
       <c r="C2">
-        <v>0.07862291976524574</v>
+        <v>0.0782501778507621</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -483,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.13926674507044</v>
+        <v>23.13902426738357</v>
       </c>
       <c r="C3">
-        <v>23.13772295332353</v>
+        <v>23.13854921214313</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -494,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7000267548202</v>
+        <v>151.7000087709266</v>
       </c>
       <c r="C4">
-        <v>151.700136362501</v>
+        <v>151.7000486805258</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.186380695526576</v>
+        <v>0.1859816921622611</v>
       </c>
       <c r="C5">
-        <v>0.1859380895574332</v>
+        <v>0.1857631005249513</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -516,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549961672622671</v>
+        <v>2.549980640079351</v>
       </c>
       <c r="C6">
-        <v>2.550004618182619</v>
+        <v>2.550019590994558</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -527,10 +527,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.766278500269526</v>
+        <v>0.7692259974068437</v>
       </c>
       <c r="C7">
-        <v>0.7609507999723486</v>
+        <v>0.7631674057556723</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -549,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.824138351953377</v>
+        <v>1.825554439925985</v>
       </c>
       <c r="C9">
-        <v>1.83857571564826</v>
+        <v>1.824893393937746</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -571,10 +571,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>914.9678682306077</v>
+        <v>907.4136508152212</v>
       </c>
       <c r="C11">
-        <v>916.7986329393781</v>
+        <v>910.2021873357731</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9706576401783353</v>
+        <v>0.9749011072409366</v>
       </c>
       <c r="C12">
-        <v>1.013146883615496</v>
+        <v>1.075446053817627</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -593,10 +593,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.050826187909775</v>
+        <v>0.9402340008544148</v>
       </c>
       <c r="C13">
-        <v>0.9100805038813456</v>
+        <v>0.9951654437442093</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -604,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.438473708641736</v>
+        <v>2.438056001776486</v>
       </c>
       <c r="C14">
-        <v>2.4384699261776</v>
+        <v>2.438471660727712</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -615,10 +615,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9143730062035123</v>
+        <v>0.9142119329940921</v>
       </c>
       <c r="C15">
-        <v>0.9142128036552708</v>
+        <v>0.914256720186948</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -626,10 +626,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07868960042828718</v>
+        <v>0.07815659036814897</v>
       </c>
       <c r="C16">
-        <v>0.07824633705419502</v>
+        <v>0.07882760274675904</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -659,10 +659,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.457726872674761</v>
+        <v>0.4549029917249756</v>
       </c>
       <c r="C19">
-        <v>0.4599561130293039</v>
+        <v>0.4536924731850582</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -670,10 +670,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1302621020758346</v>
+        <v>0.1259456542906707</v>
       </c>
       <c r="C20">
-        <v>0.1261775939791664</v>
+        <v>0.1269705784710714</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -681,10 +681,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1265644202156551</v>
+        <v>0.1288642172820511</v>
       </c>
       <c r="C21">
-        <v>0.1252756897915584</v>
+        <v>0.1252681519406583</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -692,10 +692,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.109355790632157</v>
+        <v>5.109687419198908</v>
       </c>
       <c r="C22">
-        <v>5.112203921094046</v>
+        <v>5.10790859792463</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.00137290989612285</v>
+        <v>-0.004097353059522491</v>
       </c>
       <c r="C23">
-        <v>-0.1423578906310613</v>
+        <v>0.00804272403612475</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -714,10 +714,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4058646342157485</v>
+        <v>0.4033872098114001</v>
       </c>
       <c r="C24">
-        <v>0.4025843713677514</v>
+        <v>0.4056507790300997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -725,10 +725,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.30473808899301</v>
+        <v>28.30654607309969</v>
       </c>
       <c r="C25">
-        <v>28.30545395994884</v>
+        <v>28.30365333274037</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -736,10 +736,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29.29996561896763</v>
+        <v>29.29958102108359</v>
       </c>
       <c r="C26">
-        <v>29.30042924278149</v>
+        <v>29.29978708603336</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -747,10 +747,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.08154067457270446</v>
+        <v>0.08189844844316098</v>
       </c>
       <c r="C27">
-        <v>0.08181696289040449</v>
+        <v>0.08213406191251332</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -758,10 +758,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4550525709669269</v>
+        <v>0.4546600195179318</v>
       </c>
       <c r="C28">
-        <v>0.4547690901704541</v>
+        <v>0.4544837018245149</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -769,10 +769,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.707059273072075</v>
+        <v>1.70654392870338</v>
       </c>
       <c r="C29">
-        <v>1.70696300185747</v>
+        <v>1.706871611059007</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -780,10 +780,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.598644448864434</v>
+        <v>3.598086841575389</v>
       </c>
       <c r="C30">
-        <v>3.59524334656172</v>
+        <v>3.596349917560963</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -791,10 +791,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>12.06433373095802</v>
+        <v>12.06547291340627</v>
       </c>
       <c r="C31">
-        <v>12.06589706912847</v>
+        <v>12.0654267495494</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -802,10 +802,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33.96553020092333</v>
+        <v>33.39448477844254</v>
       </c>
       <c r="C32">
-        <v>34.18858763833033</v>
+        <v>33.37300287709702</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -813,10 +813,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>73825.69322420191</v>
+        <v>73843.24066627219</v>
       </c>
       <c r="C33">
-        <v>73824.97433838586</v>
+        <v>73797.24431837903</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -824,10 +824,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.000681356505888</v>
+        <v>9.004229623816084</v>
       </c>
       <c r="C34">
-        <v>9.001685133517118</v>
+        <v>8.999396750164943</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -835,10 +835,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88.12115968413913</v>
+        <v>87.55305656026985</v>
       </c>
       <c r="C35">
-        <v>88.43815689630055</v>
+        <v>87.95448089355044</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -846,10 +846,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>180.3978277516457</v>
+        <v>124.2173221769794</v>
       </c>
       <c r="C36">
-        <v>141.3391787714986</v>
+        <v>122.8319242020687</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07844425225260536</v>
+        <v>0.07881312460784126</v>
       </c>
       <c r="C2">
-        <v>0.0782501778507621</v>
+        <v>0.07868058796995309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -483,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.13902426738357</v>
+        <v>23.13921682692138</v>
       </c>
       <c r="C3">
-        <v>23.13854921214313</v>
+        <v>23.13993403873709</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -494,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>151.7000087709266</v>
+        <v>151.7001364441091</v>
       </c>
       <c r="C4">
-        <v>151.7000486805258</v>
+        <v>151.7000501335764</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1859816921622611</v>
+        <v>0.1858915563524067</v>
       </c>
       <c r="C5">
-        <v>0.1857631005249513</v>
+        <v>0.1860573123609745</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -516,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549980640079351</v>
+        <v>2.550002061758742</v>
       </c>
       <c r="C6">
-        <v>2.550019590994558</v>
+        <v>2.549960751924217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -527,10 +527,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7692259974068437</v>
+        <v>0.7718942589664032</v>
       </c>
       <c r="C7">
-        <v>0.7631674057556723</v>
+        <v>0.7619561242120835</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -549,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.825554439925985</v>
+        <v>1.827249818929199</v>
       </c>
       <c r="C9">
-        <v>1.824893393937746</v>
+        <v>1.832533843157625</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -571,10 +571,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>907.4136508152212</v>
+        <v>917.7353696920507</v>
       </c>
       <c r="C11">
-        <v>910.2021873357731</v>
+        <v>916.3224302482407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9749011072409366</v>
+        <v>0.9923146550803537</v>
       </c>
       <c r="C12">
-        <v>1.075446053817627</v>
+        <v>0.99013189318705</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -593,10 +593,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9402340008544148</v>
+        <v>1.052976498902757</v>
       </c>
       <c r="C13">
-        <v>0.9951654437442093</v>
+        <v>0.9580825004213104</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -604,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.438056001776486</v>
+        <v>2.438337820041923</v>
       </c>
       <c r="C14">
-        <v>2.438471660727712</v>
+        <v>2.438558578626186</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -615,10 +615,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9142119329940921</v>
+        <v>0.9145347591184037</v>
       </c>
       <c r="C15">
-        <v>0.914256720186948</v>
+        <v>0.9142978354870943</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -626,10 +626,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07815659036814897</v>
+        <v>0.07859319507629441</v>
       </c>
       <c r="C16">
-        <v>0.07882760274675904</v>
+        <v>0.07861429794597517</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -659,10 +659,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4549029917249756</v>
+        <v>0.4584993047979745</v>
       </c>
       <c r="C19">
-        <v>0.4536924731850582</v>
+        <v>0.4519771706760511</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -670,10 +670,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1259456542906707</v>
+        <v>0.1304844436502391</v>
       </c>
       <c r="C20">
-        <v>0.1269705784710714</v>
+        <v>0.1232399248041299</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -681,10 +681,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1288642172820511</v>
+        <v>0.1291677274760185</v>
       </c>
       <c r="C21">
-        <v>0.1252681519406583</v>
+        <v>0.1263881077842832</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -692,10 +692,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.109687419198908</v>
+        <v>5.104926529470156</v>
       </c>
       <c r="C22">
-        <v>5.10790859792463</v>
+        <v>5.10987551632889</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.004097353059522491</v>
+        <v>-0.0242139505116133</v>
       </c>
       <c r="C23">
-        <v>0.00804272403612475</v>
+        <v>0.00503156547321891</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -714,10 +714,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4033872098114001</v>
+        <v>0.4089624395380318</v>
       </c>
       <c r="C24">
-        <v>0.4056507790300997</v>
+        <v>0.4042404135919265</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -725,10 +725,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.30654607309969</v>
+        <v>28.30648952303393</v>
       </c>
       <c r="C25">
-        <v>28.30365333274037</v>
+        <v>28.30598363412188</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -736,10 +736,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29.29958102108359</v>
+        <v>29.29966712599418</v>
       </c>
       <c r="C26">
-        <v>29.29978708603336</v>
+        <v>29.29963692361504</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -747,10 +747,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.08189844844316098</v>
+        <v>0.08208752150269018</v>
       </c>
       <c r="C27">
-        <v>0.08213406191251332</v>
+        <v>0.08204491330088279</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -758,10 +758,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4546600195179318</v>
+        <v>0.4543619591828427</v>
       </c>
       <c r="C28">
-        <v>0.4544837018245149</v>
+        <v>0.4543825076948632</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -769,10 +769,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.70654392870338</v>
+        <v>1.707315648853719</v>
       </c>
       <c r="C29">
-        <v>1.706871611059007</v>
+        <v>1.706783468221732</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -780,10 +780,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.598086841575389</v>
+        <v>3.597811388646879</v>
       </c>
       <c r="C30">
-        <v>3.596349917560963</v>
+        <v>3.596831469393622</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -791,10 +791,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>12.06547291340627</v>
+        <v>12.06603796442994</v>
       </c>
       <c r="C31">
-        <v>12.0654267495494</v>
+        <v>12.06554974753924</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -802,10 +802,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33.39448477844254</v>
+        <v>33.41805094524368</v>
       </c>
       <c r="C32">
-        <v>33.37300287709702</v>
+        <v>33.13508559218115</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -813,10 +813,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>73843.24066627219</v>
+        <v>73866.9865992866</v>
       </c>
       <c r="C33">
-        <v>73797.24431837903</v>
+        <v>73852.06545373233</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -824,10 +824,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.004229623816084</v>
+        <v>9.003243897527003</v>
       </c>
       <c r="C34">
-        <v>8.999396750164943</v>
+        <v>9.007231799129405</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -835,10 +835,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>87.55305656026985</v>
+        <v>88.06246075798238</v>
       </c>
       <c r="C35">
-        <v>87.95448089355044</v>
+        <v>87.88212135037369</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -846,10 +846,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>124.2173221769794</v>
+        <v>142.7725302575142</v>
       </c>
       <c r="C36">
-        <v>122.8319242020687</v>
+        <v>90.42901659229462</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_inputs.xlsx
+++ b/Outputs/MonteCarlo_sim_inputs.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jdendy_vols_utk_edu/Documents/Documents/SSTA/DSP/Outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_6454BDDD9515FA5B22FC666BFBCC4789BE44C274" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9426C2-9613-4145-B3F5-BE8C3332DE2A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15" yWindow="638" windowWidth="21585" windowHeight="13762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+  <si>
+    <t>Std Dev</t>
+  </si>
   <si>
     <t>radius_rocket</t>
   </si>
@@ -35,6 +44,9 @@
   </si>
   <si>
     <t>drogue_drag</t>
+  </si>
+  <si>
+    <t>NAN</t>
   </si>
   <si>
     <t>main_radius</t>
@@ -124,14 +136,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +163,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -154,14 +182,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -240,6 +290,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -274,6 +325,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -297,7 +349,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -308,31 +359,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -354,7 +405,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -412,7 +463,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -425,13 +476,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -449,408 +499,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1328125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="B2" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.07881312460784126</v>
-      </c>
-      <c r="C2">
-        <v>0.07868058796995309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>23.13921682692138</v>
-      </c>
-      <c r="C3">
-        <v>23.13993403873709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>151.7001364441091</v>
-      </c>
-      <c r="C4">
-        <v>151.7000501335764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.517E-4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.8599999999999999E-4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.26E-5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.1858915563524067</v>
-      </c>
-      <c r="C5">
-        <v>0.1860573123609745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2.550002061758742</v>
-      </c>
-      <c r="C6">
-        <v>2.549960751924217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.7718942589664032</v>
-      </c>
-      <c r="C7">
-        <v>0.7619561242120835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.97</v>
-      </c>
-      <c r="C8">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.827249818929199</v>
-      </c>
-      <c r="C9">
-        <v>1.832533843157625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2.2</v>
-      </c>
-      <c r="C10">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>917.7353696920507</v>
-      </c>
-      <c r="C11">
-        <v>916.3224302482407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.9923146550803537</v>
-      </c>
-      <c r="C12">
-        <v>0.99013189318705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1.052976498902757</v>
-      </c>
-      <c r="C13">
-        <v>0.9580825004213104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.438337820041923</v>
-      </c>
-      <c r="C14">
-        <v>2.438558578626186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.9145347591184037</v>
-      </c>
-      <c r="C15">
-        <v>0.9142978354870943</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.07859319507629441</v>
-      </c>
-      <c r="C16">
-        <v>0.07861429794597517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.4584993047979745</v>
-      </c>
-      <c r="C19">
-        <v>0.4519771706760511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0.1304844436502391</v>
-      </c>
-      <c r="C20">
-        <v>0.1232399248041299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0.1291677274760185</v>
-      </c>
-      <c r="C21">
-        <v>0.1263881077842832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>5.104926529470156</v>
-      </c>
-      <c r="C22">
-        <v>5.10987551632889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>-0.0242139505116133</v>
-      </c>
-      <c r="C23">
-        <v>0.00503156547321891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.4089624395380318</v>
-      </c>
-      <c r="C24">
-        <v>0.4042404135919265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>28.30648952303393</v>
-      </c>
-      <c r="C25">
-        <v>28.30598363412188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>29.29966712599418</v>
-      </c>
-      <c r="C26">
-        <v>29.29963692361504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0.08208752150269018</v>
-      </c>
-      <c r="C27">
-        <v>0.08204491330088279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.4543619591828427</v>
-      </c>
-      <c r="C28">
-        <v>0.4543825076948632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1.707315648853719</v>
-      </c>
-      <c r="C29">
-        <v>1.706783468221732</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3.597811388646879</v>
-      </c>
-      <c r="C30">
-        <v>3.596831469393622</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>12.06603796442994</v>
-      </c>
-      <c r="C31">
-        <v>12.06554974753924</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>33.41805094524368</v>
-      </c>
-      <c r="C32">
-        <v>33.13508559218115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>73866.9865992866</v>
-      </c>
-      <c r="C33">
-        <v>73852.06545373233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>9.003243897527003</v>
-      </c>
-      <c r="C34">
-        <v>9.007231799129405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>88.06246075798238</v>
-      </c>
-      <c r="C35">
-        <v>87.88212135037369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>142.7725302575142</v>
-      </c>
-      <c r="C36">
-        <v>90.42901659229462</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
